--- a/nepal_dataframe_FA.xlsx
+++ b/nepal_dataframe_FA.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Q51__How_much_land_that_is_rented_or_leased_do_you_cultivate_bigha_log__continuous</t>
+          <t>Q51__How_much_land_that_is_rented_or_leased_do_you_cultivate_bigha__ordinal</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
@@ -799,7 +799,7 @@
         <v>4.442651256490317</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.386294361119891</v>
+        <v>2</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.6931471805599453</v>
@@ -969,7 +969,7 @@
         <v>4.997212273764115</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.6931471805599453</v>
@@ -1139,7 +1139,7 @@
         <v>4.477336814478207</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AJ4" t="n">
         <v>1.09861228866811</v>
@@ -1309,7 +1309,7 @@
         <v>4.653960350157523</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.09861228866811</v>
+        <v>2</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.6931471805599453</v>
@@ -1479,7 +1479,7 @@
         <v>4.418840607796598</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.6931471805599453</v>
@@ -1649,7 +1649,7 @@
         <v>4.736198448394496</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.6931471805599453</v>
@@ -1819,7 +1819,7 @@
         <v>4.219507705176107</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.09861228866811</v>
@@ -1989,7 +1989,7 @@
         <v>4.158883083359671</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.6931471805599453</v>
@@ -2159,7 +2159,7 @@
         <v>4.48863636973214</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>0.6931471805599453</v>
@@ -2329,7 +2329,7 @@
         <v>4.465908118654584</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.6931471805599453</v>
@@ -2499,7 +2499,7 @@
         <v>4.672828834461906</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.09861228866811</v>
@@ -2669,7 +2669,7 @@
         <v>4.634728988229636</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.6931471805599453</v>
@@ -2839,7 +2839,7 @@
         <v>4.634728988229636</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="n">
         <v>1.09861228866811</v>
@@ -3009,7 +3009,7 @@
         <v>6.470799503782602</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.6931471805599453</v>
@@ -3179,7 +3179,7 @@
         <v>4.499809670330265</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.6931471805599453</v>
@@ -3349,7 +3349,7 @@
         <v>4.605170185988092</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
         <v>1.386294361119891</v>
@@ -3519,7 +3519,7 @@
         <v>4.762173934797756</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
         <v>0.6931471805599453</v>
@@ -3689,7 +3689,7 @@
         <v>4.442651256490317</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.6931471805599453</v>
@@ -3859,7 +3859,7 @@
         <v>4.624972813284271</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.6931471805599453</v>
@@ -4029,7 +4029,7 @@
         <v>4.127134385045092</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.6931471805599453</v>
@@ -4199,7 +4199,7 @@
         <v>4.51085950651685</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ22" t="n">
         <v>0.6931471805599453</v>
@@ -4369,7 +4369,7 @@
         <v>4.406719247264253</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
         <v>0.6931471805599453</v>
@@ -4539,7 +4539,7 @@
         <v>4.564348191467836</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
         <v>0.6931471805599453</v>
@@ -4709,7 +4709,7 @@
         <v>4.762173934797756</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
         <v>0.6931471805599453</v>
@@ -4879,7 +4879,7 @@
         <v>4.276666119016055</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ26" t="n">
         <v>0.6931471805599453</v>
@@ -5049,7 +5049,7 @@
         <v>4.718498871295094</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.6931471805599453</v>
@@ -5219,7 +5219,7 @@
         <v>4.882801922586371</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ28" t="n">
         <v>0.6931471805599453</v>
@@ -5389,7 +5389,7 @@
         <v>4.663439094112067</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
         <v>0.6931471805599453</v>
@@ -5559,7 +5559,7 @@
         <v>4.634728988229636</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ30" t="n">
         <v>0.6931471805599453</v>
@@ -5729,7 +5729,7 @@
         <v>4.795790545596741</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
         <v>0.6931471805599453</v>
@@ -5899,7 +5899,7 @@
         <v>4.219507705176107</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
         <v>0.6931471805599453</v>
@@ -6069,7 +6069,7 @@
         <v>4.875197323201151</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
         <v>1.09861228866811</v>
@@ -6239,7 +6239,7 @@
         <v>4.574710978503383</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
         <v>0.6931471805599453</v>
@@ -6409,7 +6409,7 @@
         <v>4.330733340286331</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
         <v>0.6931471805599453</v>
@@ -6579,7 +6579,7 @@
         <v>4.836281906951478</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ36" t="n">
         <v>0.6931471805599453</v>
@@ -6749,7 +6749,7 @@
         <v>4.770684624465665</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
         <v>1.09861228866811</v>
@@ -6919,7 +6919,7 @@
         <v>4.418840607796598</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ38" t="n">
         <v>0.6931471805599453</v>
@@ -7089,7 +7089,7 @@
         <v>4.442651256490317</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ39" t="n">
         <v>0.6931471805599453</v>
@@ -7259,7 +7259,7 @@
         <v>4.532599493153256</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
         <v>0.6931471805599453</v>
@@ -7429,7 +7429,7 @@
         <v>4.574710978503383</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ41" t="n">
         <v>0.6931471805599453</v>
@@ -7599,7 +7599,7 @@
         <v>4.356708826689592</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ42" t="n">
         <v>1.09861228866811</v>
@@ -7769,7 +7769,7 @@
         <v>4.634728988229636</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ43" t="n">
         <v>1.09861228866811</v>
@@ -7939,7 +7939,7 @@
         <v>4.68213122712422</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ44" t="n">
         <v>0.6931471805599453</v>
@@ -8109,7 +8109,7 @@
         <v>4.787491742782046</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ45" t="n">
         <v>0.6931471805599453</v>
@@ -8279,7 +8279,7 @@
         <v>4.406719247264253</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ46" t="n">
         <v>0.6931471805599453</v>
@@ -8449,7 +8449,7 @@
         <v>4.700480365792417</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ47" t="n">
         <v>0.6931471805599453</v>
@@ -8619,7 +8619,7 @@
         <v>4.795790545596741</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="n">
         <v>0.6931471805599453</v>
@@ -8789,7 +8789,7 @@
         <v>4.828313737302302</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.6931471805599453</v>
+        <v>1</v>
       </c>
       <c r="AJ49" t="n">
         <v>0.6931471805599453</v>
@@ -8959,7 +8959,7 @@
         <v>4.59511985013459</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.5170064828410719</v>
+        <v>1</v>
       </c>
       <c r="AJ50" t="n">
         <v>0.5170064828410719</v>
@@ -9129,7 +9129,7 @@
         <v>4.644390899141372</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.5170064828410719</v>
+        <v>1</v>
       </c>
       <c r="AJ51" t="n">
         <v>0.856116008838085</v>

--- a/nepal_dataframe_FA.xlsx
+++ b/nepal_dataframe_FA.xlsx
@@ -826,13 +826,13 @@
         <v>1.87022812442303</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.645751311064591</v>
+        <v>2.308631377696136</v>
       </c>
       <c r="AS2" t="n">
         <v>0.1814890557348564</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3638367124122293</v>
+        <v>0.3626755239526337</v>
       </c>
     </row>
     <row r="3">
@@ -996,13 +996,13 @@
         <v>0.455394798643756</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.449489742783178</v>
+        <v>2.308631377696136</v>
       </c>
       <c r="AS3" t="n">
         <v>0.001932234334944216</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1919328144609977</v>
+        <v>0.1905470077643923</v>
       </c>
     </row>
     <row r="4">
@@ -1166,13 +1166,13 @@
         <v>2.493573292379365</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.449489742783178</v>
+        <v>2.308631377696136</v>
       </c>
       <c r="AS4" t="n">
         <v>0.2425602843292251</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8679637165986895</v>
+        <v>0.8683694989527904</v>
       </c>
     </row>
     <row r="5">
@@ -1342,7 +1342,7 @@
         <v>1.041714083085321</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.031889607873145</v>
+        <v>1.030919160914859</v>
       </c>
     </row>
     <row r="6">
@@ -1512,7 +1512,7 @@
         <v>0.1302528735884416</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.3725262393044879</v>
+        <v>-0.3715954442216122</v>
       </c>
     </row>
     <row r="7">
@@ -1682,7 +1682,7 @@
         <v>0.1716737155741574</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.4467554166717885</v>
+        <v>-0.4484356212995226</v>
       </c>
     </row>
     <row r="8">
@@ -1825,7 +1825,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AK8" t="n">
-        <v>7.313886831633462</v>
+        <v>7.046499677103412</v>
       </c>
       <c r="AL8" t="n">
         <v>1.791759469228055</v>
@@ -1852,7 +1852,7 @@
         <v>1.169564764465894</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.19403786047858</v>
+        <v>1.194505628729953</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +2007,7 @@
         <v>11.77529742171583</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.81979828421029</v>
+        <v>12.41534077536593</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0.1088567597187915</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.3636810474226126</v>
+        <v>-0.3651775495957821</v>
       </c>
     </row>
     <row r="10">
@@ -2192,7 +2192,7 @@
         <v>0.1524721510802804</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.03155886111322331</v>
+        <v>-0.03274714848147908</v>
       </c>
     </row>
     <row r="11">
@@ -2362,7 +2362,7 @@
         <v>0.1347237518403339</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.2547866400540124</v>
+        <v>0.2534420688861743</v>
       </c>
     </row>
     <row r="12">
@@ -2532,7 +2532,7 @@
         <v>0.1590163382096454</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.1640657179705999</v>
+        <v>-0.163657512236268</v>
       </c>
     </row>
     <row r="13">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>-0.5923902310393918</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.1309771302054975</v>
+        <v>-0.1325660649091467</v>
       </c>
     </row>
     <row r="14">
@@ -2872,7 +2872,7 @@
         <v>0.1922271668124618</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3707548229954134</v>
+        <v>0.3711221249915816</v>
       </c>
     </row>
     <row r="15">
@@ -3042,7 +3042,7 @@
         <v>0.9484740906820714</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6519466457215812</v>
+        <v>0.6503287169276559</v>
       </c>
     </row>
     <row r="16">
@@ -3212,7 +3212,7 @@
         <v>0.1722463516349998</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.3588926460980003</v>
+        <v>0.3577899968525773</v>
       </c>
     </row>
     <row r="17">
@@ -3367,7 +3367,7 @@
         <v>13.30468660086356</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.51293546492023</v>
+        <v>12.41534077536593</v>
       </c>
       <c r="AP17" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>1.079918546733912</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8978422413914835</v>
+        <v>0.8988824275220484</v>
       </c>
     </row>
     <row r="18">
@@ -3552,7 +3552,7 @@
         <v>0.1422122745779583</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5715947680378044</v>
+        <v>0.5707579693498027</v>
       </c>
     </row>
     <row r="19">
@@ -3722,7 +3722,7 @@
         <v>0.1904328285491882</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.3899641192497678</v>
+        <v>0.3905713180718547</v>
       </c>
     </row>
     <row r="20">
@@ -3892,7 +3892,7 @@
         <v>0.1698275709378689</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.2600384180214431</v>
+        <v>0.2591600224087084</v>
       </c>
     </row>
     <row r="21">
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
@@ -4062,7 +4062,7 @@
         <v>0.1428136248245002</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6889431075389294</v>
+        <v>0.6917240792491086</v>
       </c>
     </row>
     <row r="22">
@@ -4232,7 +4232,7 @@
         <v>-0.5936991268796921</v>
       </c>
       <c r="AT22" t="n">
-        <v>-0.04131727046631575</v>
+        <v>-0.0408901381427095</v>
       </c>
     </row>
     <row r="23">
@@ -4402,7 +4402,7 @@
         <v>0.2157902771324177</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6067292647174242</v>
+        <v>0.6095164441346912</v>
       </c>
     </row>
     <row r="24">
@@ -4572,7 +4572,7 @@
         <v>-0.6451743080724492</v>
       </c>
       <c r="AT24" t="n">
-        <v>-0.1538392369428046</v>
+        <v>-0.1538976425912852</v>
       </c>
     </row>
     <row r="25">
@@ -4742,7 +4742,7 @@
         <v>0.1343527074862496</v>
       </c>
       <c r="AT25" t="n">
-        <v>-0.1411262105177389</v>
+        <v>-0.1405989708218124</v>
       </c>
     </row>
     <row r="26">
@@ -4912,7 +4912,7 @@
         <v>0.1593783644142738</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.07738574640973028</v>
+        <v>0.07610327914105658</v>
       </c>
     </row>
     <row r="27">
@@ -5082,7 +5082,7 @@
         <v>0.1694597933920002</v>
       </c>
       <c r="AT27" t="n">
-        <v>-0.6721002408468074</v>
+        <v>-0.6732900025041778</v>
       </c>
     </row>
     <row r="28">
@@ -5252,7 +5252,7 @@
         <v>0.1665113753534125</v>
       </c>
       <c r="AT28" t="n">
-        <v>-0.6109576044972765</v>
+        <v>-0.6120731017156487</v>
       </c>
     </row>
     <row r="29">
@@ -5422,7 +5422,7 @@
         <v>-0.6058730939795661</v>
       </c>
       <c r="AT29" t="n">
-        <v>-0.6198134596874075</v>
+        <v>-0.6191349643885902</v>
       </c>
     </row>
     <row r="30">
@@ -5592,7 +5592,7 @@
         <v>0.1376529690638057</v>
       </c>
       <c r="AT30" t="n">
-        <v>-0.07801997868253482</v>
+        <v>-0.07946770898151215</v>
       </c>
     </row>
     <row r="31">
@@ -5762,7 +5762,7 @@
         <v>0.1394006200754083</v>
       </c>
       <c r="AT31" t="n">
-        <v>-0.7927516342153758</v>
+        <v>-0.7943582459193261</v>
       </c>
     </row>
     <row r="32">
@@ -5932,7 +5932,7 @@
         <v>0.1615668916144105</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.2855665047744201</v>
+        <v>0.2856909531996707</v>
       </c>
     </row>
     <row r="33">
@@ -6102,7 +6102,7 @@
         <v>-0.6094689751039715</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5551244525914357</v>
+        <v>0.553687528250642</v>
       </c>
     </row>
     <row r="34">
@@ -6272,7 +6272,7 @@
         <v>0.1644745578455265</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.419240022377624</v>
+        <v>0.4178029037155991</v>
       </c>
     </row>
     <row r="35">
@@ -6442,7 +6442,7 @@
         <v>0.1741106881651007</v>
       </c>
       <c r="AT35" t="n">
-        <v>-0.04212161413592203</v>
+        <v>-0.04332970167325895</v>
       </c>
     </row>
     <row r="36">
@@ -6612,7 +6612,7 @@
         <v>0.1400437400754196</v>
       </c>
       <c r="AT36" t="n">
-        <v>-0.5077857379357397</v>
+        <v>-0.5082033022547889</v>
       </c>
     </row>
     <row r="37">
@@ -6782,7 +6782,7 @@
         <v>0.1876940351666737</v>
       </c>
       <c r="AT37" t="n">
-        <v>-0.6676514412013099</v>
+        <v>-0.6690553861000603</v>
       </c>
     </row>
     <row r="38">
@@ -6952,7 +6952,7 @@
         <v>0.1796242685771585</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.4572722763285039</v>
+        <v>0.4592880351983824</v>
       </c>
     </row>
     <row r="39">
@@ -7122,7 +7122,7 @@
         <v>0.170544697627493</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.4217865493262583</v>
+        <v>0.4228257496688876</v>
       </c>
     </row>
     <row r="40">
@@ -7292,7 +7292,7 @@
         <v>0.1440359626725783</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.03610334650671254</v>
+        <v>0.03656746068101058</v>
       </c>
     </row>
     <row r="41">
@@ -7462,7 +7462,7 @@
         <v>0.1440359626725783</v>
       </c>
       <c r="AT41" t="n">
-        <v>-0.4168564636345459</v>
+        <v>-0.4166327313458181</v>
       </c>
     </row>
     <row r="42">
@@ -7632,7 +7632,7 @@
         <v>0.1833154389850996</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.1699700275771043</v>
+        <v>0.1701330800472255</v>
       </c>
     </row>
     <row r="43">
@@ -7802,7 +7802,7 @@
         <v>0.2082487469032168</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.3734743096609747</v>
+        <v>0.372553557311658</v>
       </c>
     </row>
     <row r="44">
@@ -7972,7 +7972,7 @@
         <v>0.1798020454274457</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.3119028064181365</v>
+        <v>0.3104087411836466</v>
       </c>
     </row>
     <row r="45">
@@ -8142,7 +8142,7 @@
         <v>0.153193013060436</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.4847253029298315</v>
+        <v>0.4836231780199886</v>
       </c>
     </row>
     <row r="46">
@@ -8312,7 +8312,7 @@
         <v>0.1678716208687483</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.2940543407686501</v>
+        <v>0.2929468228736265</v>
       </c>
     </row>
     <row r="47">
@@ -8482,7 +8482,7 @@
         <v>0.2089335756456057</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.3973672236266459</v>
+        <v>0.3979843933978233</v>
       </c>
     </row>
     <row r="48">
@@ -8652,7 +8652,7 @@
         <v>0.2295460845574301</v>
       </c>
       <c r="AT48" t="n">
-        <v>-0.3165301488906568</v>
+        <v>-0.3177404163965999</v>
       </c>
     </row>
     <row r="49">
@@ -8804,7 +8804,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AN49" t="n">
-        <v>14.22097633273888</v>
+        <v>13.99783294809122</v>
       </c>
       <c r="AO49" t="n">
         <v>14.4916654520031</v>
@@ -8822,7 +8822,7 @@
         <v>1.42849068749528</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.319318412626334</v>
+        <v>1.318947029453334</v>
       </c>
     </row>
     <row r="50">
@@ -8992,7 +8992,7 @@
         <v>0.1069620921022855</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.07693853228774986</v>
+        <v>0.07777594444829806</v>
       </c>
     </row>
     <row r="51">
@@ -9046,7 +9046,7 @@
         <v>4</v>
       </c>
       <c r="P51" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q51" t="n">
         <v>1.148148148148148</v>
@@ -9162,7 +9162,7 @@
         <v>1.005380273168183</v>
       </c>
       <c r="AT51" t="n">
-        <v>-0.4613971160441588</v>
+        <v>-0.4605466874651981</v>
       </c>
     </row>
     <row r="52">
@@ -9219,7 +9219,7 @@
         <v>47</v>
       </c>
       <c r="Q52" t="n">
-        <v>4.181818181818182</v>
+        <v>3.371648351648346</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>-3.763663327076709</v>
       </c>
       <c r="AT52" t="n">
-        <v>-1.469679762691031</v>
+        <v>-1.386434771566756</v>
       </c>
     </row>
     <row r="53">
@@ -9502,7 +9502,7 @@
         <v>-3.758691154738659</v>
       </c>
       <c r="AT53" t="n">
-        <v>-1.068567102787723</v>
+        <v>-1.068024036732992</v>
       </c>
     </row>
     <row r="54">
@@ -9672,7 +9672,7 @@
         <v>-3.758691154738659</v>
       </c>
       <c r="AT54" t="n">
-        <v>-1.135665477152531</v>
+        <v>-1.134005661755507</v>
       </c>
     </row>
     <row r="55">
@@ -9842,7 +9842,7 @@
         <v>-1.102911621912203</v>
       </c>
       <c r="AT55" t="n">
-        <v>-1.380086397974062</v>
+        <v>-1.379142514560761</v>
       </c>
     </row>
     <row r="56">
@@ -10012,7 +10012,7 @@
         <v>-0.3209068669769892</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.01834105076315129</v>
+        <v>0.01953232948275399</v>
       </c>
     </row>
     <row r="57">
@@ -10182,7 +10182,7 @@
         <v>-0.9170406951008259</v>
       </c>
       <c r="AT57" t="n">
-        <v>-0.5747018880652306</v>
+        <v>-0.5736472558197895</v>
       </c>
     </row>
     <row r="58">
@@ -10352,7 +10352,7 @@
         <v>-1.009801877370067</v>
       </c>
       <c r="AT58" t="n">
-        <v>-0.1172945937031433</v>
+        <v>-0.1160616206590377</v>
       </c>
     </row>
     <row r="59">
@@ -10522,7 +10522,7 @@
         <v>-1.020969848313314</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.2157873933283139</v>
+        <v>0.2169351551573222</v>
       </c>
     </row>
     <row r="60">
@@ -10692,7 +10692,7 @@
         <v>-0.8001955417983798</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.05952327416530546</v>
+        <v>0.06072961494721739</v>
       </c>
     </row>
     <row r="61">
@@ -10862,7 +10862,7 @@
         <v>-0.02578934314938507</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.1127093871735781</v>
+        <v>0.1136597668482774</v>
       </c>
     </row>
     <row r="62">
@@ -11032,7 +11032,7 @@
         <v>0.06255792691672035</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.005264463907714512</v>
+        <v>0.006369854614545714</v>
       </c>
     </row>
     <row r="63">
@@ -11202,7 +11202,7 @@
         <v>0.05320330068338681</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.1779869300829621</v>
+        <v>0.1796596177734147</v>
       </c>
     </row>
     <row r="64">
@@ -11372,7 +11372,7 @@
         <v>0.2306215235529028</v>
       </c>
       <c r="AT64" t="n">
-        <v>-0.004187061362055156</v>
+        <v>-0.004550118766176933</v>
       </c>
     </row>
     <row r="65">
@@ -11542,7 +11542,7 @@
         <v>0.1171986467657938</v>
       </c>
       <c r="AT65" t="n">
-        <v>-0.02144444167999054</v>
+        <v>-0.02027630785479606</v>
       </c>
     </row>
     <row r="66">
@@ -11605,7 +11605,7 @@
         <v>0.25</v>
       </c>
       <c r="S66" t="n">
-        <v>-3</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>0.3131188113321894</v>
       </c>
       <c r="AT66" t="n">
-        <v>-0.3049368581962025</v>
+        <v>-0.3037487118037057</v>
       </c>
     </row>
     <row r="67">
@@ -11858,7 +11858,7 @@
         <v>5.303304908059076</v>
       </c>
       <c r="AL67" t="n">
-        <v>2.302585092994046</v>
+        <v>2.233047152659878</v>
       </c>
       <c r="AM67" t="n">
         <v>1.945910149055313</v>
@@ -11882,7 +11882,7 @@
         <v>0.365061610694006</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.9254560461442253</v>
+        <v>0.9266267152429968</v>
       </c>
     </row>
     <row r="68">
@@ -11945,7 +11945,7 @@
         <v>0.5</v>
       </c>
       <c r="S68" t="n">
-        <v>35</v>
+        <v>34.33999999999997</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>0.3689099750440866</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.8338420041100143</v>
+        <v>0.8348789722665122</v>
       </c>
     </row>
     <row r="69">
@@ -12222,7 +12222,7 @@
         <v>0.4684258850048024</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6416339451823421</v>
+        <v>0.6426097256685872</v>
       </c>
     </row>
     <row r="70">
@@ -12392,7 +12392,7 @@
         <v>0.4645775206547218</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.7158217626736784</v>
+        <v>0.7170138461777893</v>
       </c>
     </row>
     <row r="71">
@@ -12562,7 +12562,7 @@
         <v>0.5813443942860907</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4295155014033688</v>
+        <v>0.4292975948747531</v>
       </c>
     </row>
     <row r="72">
@@ -12732,7 +12732,7 @@
         <v>-0.01210983806958438</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.7539159072058749</v>
+        <v>0.7551712183912875</v>
       </c>
     </row>
     <row r="73">
@@ -12902,7 +12902,7 @@
         <v>0.552883297689696</v>
       </c>
       <c r="AT73" t="n">
-        <v>-0.05304551851783093</v>
+        <v>-0.05101369840315114</v>
       </c>
     </row>
     <row r="74">
@@ -13072,7 +13072,7 @@
         <v>0.6184834462987664</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.3151320050882554</v>
+        <v>0.315816836311458</v>
       </c>
     </row>
     <row r="75">
@@ -13242,7 +13242,7 @@
         <v>-0.03680972820600214</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.8528743087788806</v>
+        <v>0.8535923989989455</v>
       </c>
     </row>
     <row r="76">
@@ -13412,7 +13412,7 @@
         <v>-0.03680972820600214</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.977459765756191</v>
+        <v>0.9785787638669726</v>
       </c>
     </row>
     <row r="77">
@@ -13457,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N77" t="n">
         <v>4</v>
@@ -13558,7 +13558,7 @@
         <v>5.860786223465865</v>
       </c>
       <c r="AL77" t="n">
-        <v>2.397895272798371</v>
+        <v>2.233047152659878</v>
       </c>
       <c r="AM77" t="n">
         <v>1.09861228866811</v>
@@ -13582,7 +13582,7 @@
         <v>0.9796891021854968</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.382572375868402</v>
+        <v>1.322596814292072</v>
       </c>
     </row>
     <row r="78">
@@ -13752,7 +13752,7 @@
         <v>0.9770269085206007</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8430265558731063</v>
+        <v>0.844214704832873</v>
       </c>
     </row>
     <row r="79">
@@ -13922,7 +13922,7 @@
         <v>0.7159950131097992</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.2775945159786319</v>
+        <v>0.2785820257441216</v>
       </c>
     </row>
     <row r="80">
@@ -14092,7 +14092,7 @@
         <v>0.8190001139573019</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.8014569952988551</v>
+        <v>0.8019018928313637</v>
       </c>
     </row>
     <row r="81">
@@ -14149,7 +14149,7 @@
         <v>53</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.676826503923278</v>
       </c>
       <c r="R81" t="n">
         <v>1</v>
@@ -14238,7 +14238,7 @@
         <v>6.55250788703459</v>
       </c>
       <c r="AL81" t="n">
-        <v>2.302585092994046</v>
+        <v>2.233047152659878</v>
       </c>
       <c r="AM81" t="n">
         <v>1.791759469228055</v>
@@ -14262,7 +14262,7 @@
         <v>1.026376559469536</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.235849859735642</v>
+        <v>1.236425785373032</v>
       </c>
     </row>
     <row r="82">
@@ -14316,7 +14316,7 @@
         <v>4</v>
       </c>
       <c r="P82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q82" t="n">
         <v>2.611111111111111</v>
@@ -14405,7 +14405,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK82" t="n">
-        <v>7.601402334583733</v>
+        <v>7.046499677103412</v>
       </c>
       <c r="AL82" t="n">
         <v>2.079441541679836</v>
@@ -14432,7 +14432,7 @@
         <v>1.08229026523012</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.027207140533895</v>
+        <v>1.027676961030374</v>
       </c>
     </row>
     <row r="83">
@@ -14599,10 +14599,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>-4.527036448262463</v>
+        <v>-3.891056466195669</v>
       </c>
       <c r="AT83" t="n">
-        <v>-1.736053965175281</v>
+        <v>-1.386434771566756</v>
       </c>
     </row>
     <row r="84">
@@ -14772,7 +14772,7 @@
         <v>-3.752630249613468</v>
       </c>
       <c r="AT84" t="n">
-        <v>-1.173111067520037</v>
+        <v>-1.172223068895773</v>
       </c>
     </row>
     <row r="85">
@@ -14915,7 +14915,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK85" t="n">
-        <v>3.044522437723423</v>
+        <v>3.618513213549793</v>
       </c>
       <c r="AL85" t="n">
         <v>1.6094379124341</v>
@@ -14939,10 +14939,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>-4.508456929039737</v>
+        <v>-3.891056466195669</v>
       </c>
       <c r="AT85" t="n">
-        <v>-1.166925906277484</v>
+        <v>-1.165274086917855</v>
       </c>
     </row>
     <row r="86">
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>35</v>
+        <v>34.33999999999997</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>-0.9991568198065524</v>
       </c>
       <c r="AT86" t="n">
-        <v>-0.1397664133683269</v>
+        <v>-0.1385079192577474</v>
       </c>
     </row>
     <row r="87">
@@ -15282,7 +15282,7 @@
         <v>-0.9170406951008259</v>
       </c>
       <c r="AT87" t="n">
-        <v>-0.5786806931067082</v>
+        <v>-0.5765582564096297</v>
       </c>
     </row>
     <row r="88">
@@ -15452,7 +15452,7 @@
         <v>-0.1479583346362869</v>
       </c>
       <c r="AT88" t="n">
-        <v>-0.3211871941830819</v>
+        <v>-0.3205309634171716</v>
       </c>
     </row>
     <row r="89">
@@ -15622,7 +15622,7 @@
         <v>-0.8407712445825751</v>
       </c>
       <c r="AT89" t="n">
-        <v>-0.6246323724269895</v>
+        <v>-0.6243712360862558</v>
       </c>
     </row>
     <row r="90">
@@ -15756,7 +15756,7 @@
         <v>43415.43997685185</v>
       </c>
       <c r="AH90" t="n">
-        <v>7.180488674636339</v>
+        <v>7.122464801919641</v>
       </c>
       <c r="AI90" t="n">
         <v>0</v>
@@ -15792,7 +15792,7 @@
         <v>-0.6687030501562867</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.1478825501417401</v>
+        <v>0.1507689570537036</v>
       </c>
     </row>
     <row r="91">
@@ -15962,7 +15962,7 @@
         <v>0.1795646955284889</v>
       </c>
       <c r="AT91" t="n">
-        <v>-0.2989618427309034</v>
+        <v>-0.2982581386361751</v>
       </c>
     </row>
     <row r="92">
@@ -16132,7 +16132,7 @@
         <v>0.2318085235810523</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.2746483668319293</v>
+        <v>0.2757058734067819</v>
       </c>
     </row>
     <row r="93">
@@ -16302,7 +16302,7 @@
         <v>0.2318085235810523</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.306289972327555</v>
+        <v>0.306725790502666</v>
       </c>
     </row>
     <row r="94">
@@ -16472,7 +16472,7 @@
         <v>0.2111823768272703</v>
       </c>
       <c r="AT94" t="n">
-        <v>-0.8277695956885283</v>
+        <v>-0.8271422286504065</v>
       </c>
     </row>
     <row r="95">
@@ -16618,7 +16618,7 @@
         <v>4.948759890378168</v>
       </c>
       <c r="AL95" t="n">
-        <v>1.386294361119891</v>
+        <v>1.6094379124341</v>
       </c>
       <c r="AM95" t="n">
         <v>2.397895272798371</v>
@@ -16642,7 +16642,7 @@
         <v>1.147990732011338</v>
       </c>
       <c r="AT95" t="n">
-        <v>-0.789844990337113</v>
+        <v>-0.7893157784487906</v>
       </c>
     </row>
     <row r="96">
@@ -16812,7 +16812,7 @@
         <v>0.3637388123784482</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.1687406819315895</v>
+        <v>0.1694747327463045</v>
       </c>
     </row>
     <row r="97">
@@ -16982,7 +16982,7 @@
         <v>0.3689099750440866</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.4268759668328732</v>
+        <v>0.4276989051390322</v>
       </c>
     </row>
     <row r="98">
@@ -17152,7 +17152,7 @@
         <v>0.3601066773457784</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.198044912176596</v>
+        <v>1.19687900220876</v>
       </c>
     </row>
     <row r="99">
@@ -17322,7 +17322,7 @@
         <v>0.4198997433221248</v>
       </c>
       <c r="AT99" t="n">
-        <v>-0.3640684076779588</v>
+        <v>-0.3630420217381852</v>
       </c>
     </row>
     <row r="100">
@@ -17492,7 +17492,7 @@
         <v>0.4357448866178818</v>
       </c>
       <c r="AT100" t="n">
-        <v>-0.9000857234011188</v>
+        <v>-0.8996196233569589</v>
       </c>
     </row>
     <row r="101">
@@ -17662,7 +17662,7 @@
         <v>0.7759125049385124</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.480198587485791</v>
+        <v>0.4806025080661035</v>
       </c>
     </row>
     <row r="102">
@@ -17832,7 +17832,7 @@
         <v>0.463254722339164</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.07283720820102085</v>
+        <v>0.07352904677359073</v>
       </c>
     </row>
     <row r="103">
@@ -18002,7 +18002,7 @@
         <v>0.4684258850048024</v>
       </c>
       <c r="AT103" t="n">
-        <v>-0.08245128765485155</v>
+        <v>-0.08099669144303659</v>
       </c>
     </row>
     <row r="104">
@@ -18172,7 +18172,7 @@
         <v>0.4684258850048024</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.4964681179352959</v>
+        <v>0.4966013031784104</v>
       </c>
     </row>
     <row r="105">
@@ -18342,7 +18342,7 @@
         <v>0.4914082052146603</v>
       </c>
       <c r="AT105" t="n">
-        <v>-0.5299837385503378</v>
+        <v>-0.5296049216770558</v>
       </c>
     </row>
     <row r="106">
@@ -18512,7 +18512,7 @@
         <v>0.354559591332295</v>
       </c>
       <c r="AT106" t="n">
-        <v>-0.6343084169066087</v>
+        <v>-0.6341060055770277</v>
       </c>
     </row>
     <row r="107">
@@ -18679,10 +18679,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.441100877871381</v>
+        <v>1.432778152223154</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.180732081170272</v>
+        <v>1.18168950521682</v>
       </c>
     </row>
     <row r="108">
@@ -18852,7 +18852,7 @@
         <v>0.7329707711133941</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.9328219698835843</v>
+        <v>0.9340797210230047</v>
       </c>
     </row>
     <row r="109">
@@ -18909,7 +18909,7 @@
         <v>59</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.676826503923278</v>
       </c>
       <c r="R109" t="n">
         <v>0.75</v>
@@ -19022,7 +19022,7 @@
         <v>0.7368277390152311</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.026242831074075</v>
+        <v>1.02686387023376</v>
       </c>
     </row>
     <row r="110">
@@ -19192,7 +19192,7 @@
         <v>0.7329707711133941</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.8040120844453149</v>
+        <v>0.8044633334722209</v>
       </c>
     </row>
     <row r="111">
@@ -19362,7 +19362,7 @@
         <v>0.7280857888011292</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.8832120525736998</v>
+        <v>0.8842910293220146</v>
       </c>
     </row>
     <row r="112">
@@ -19532,7 +19532,7 @@
         <v>-0.04811258384495137</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.098916158190975</v>
+        <v>1.099989408809242</v>
       </c>
     </row>
     <row r="113">
@@ -19586,7 +19586,7 @@
         <v>3</v>
       </c>
       <c r="P113" t="n">
-        <v>62</v>
+        <v>60.33999999999997</v>
       </c>
       <c r="Q113" t="n">
         <v>2.578947368421053</v>
@@ -19702,7 +19702,7 @@
         <v>-0.1006624618345745</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.301881944342254</v>
+        <v>1.300720308911306</v>
       </c>
     </row>
     <row r="114">
@@ -19872,7 +19872,7 @@
         <v>0.6693226449426732</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.105809161552441</v>
+        <v>1.10504849534241</v>
       </c>
     </row>
     <row r="115">
@@ -20012,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1.6094379124341</v>
+        <v>1.386294361119891</v>
       </c>
       <c r="AK115" t="n">
         <v>6.90875477931522</v>
@@ -20042,7 +20042,7 @@
         <v>1.038149308017854</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.200121199623137</v>
+        <v>1.198990171065268</v>
       </c>
     </row>
     <row r="116">
@@ -20185,7 +20185,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK116" t="n">
-        <v>8.294299608857235</v>
+        <v>7.046499677103412</v>
       </c>
       <c r="AL116" t="n">
         <v>2.079441541679836</v>
@@ -20194,10 +20194,10 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN116" t="n">
+        <v>13.99783294809122</v>
+      </c>
+      <c r="AO116" t="n">
         <v>14.5086582385241</v>
-      </c>
-      <c r="AO116" t="n">
-        <v>14.91412317996566</v>
       </c>
       <c r="AP116" t="n">
         <v>2</v>
@@ -20209,10 +20209,10 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.905996450048755</v>
+        <v>1.432778152223154</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.734410241277867</v>
+        <v>1.322596814292072</v>
       </c>
     </row>
     <row r="117">
@@ -20382,7 +20382,7 @@
         <v>-3.752630249613468</v>
       </c>
       <c r="AT117" t="n">
-        <v>-1.080756444875904</v>
+        <v>-1.079647012993119</v>
       </c>
     </row>
     <row r="118">
@@ -20552,7 +20552,7 @@
         <v>-1.003673830005978</v>
       </c>
       <c r="AT118" t="n">
-        <v>-0.7269430729149853</v>
+        <v>-0.726126569694771</v>
       </c>
     </row>
     <row r="119">
@@ -20722,7 +20722,7 @@
         <v>-0.1442990996249151</v>
       </c>
       <c r="AT119" t="n">
-        <v>-0.4132463452926896</v>
+        <v>-0.4119253820299797</v>
       </c>
     </row>
     <row r="120">
@@ -20892,7 +20892,7 @@
         <v>0.04401609485766776</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.3643484298513521</v>
+        <v>0.3654810562998207</v>
       </c>
     </row>
     <row r="121">
@@ -21062,7 +21062,7 @@
         <v>0.2187516404364353</v>
       </c>
       <c r="AT121" t="n">
-        <v>-0.3406189472417178</v>
+        <v>-0.3420918713549043</v>
       </c>
     </row>
     <row r="122">
@@ -21232,7 +21232,7 @@
         <v>0.3141167438772569</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.04774085336031561</v>
+        <v>0.04628275306670418</v>
       </c>
     </row>
     <row r="123">
@@ -21402,7 +21402,7 @@
         <v>0.3131188113321894</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.5508442372032379</v>
+        <v>0.5515120640124651</v>
       </c>
     </row>
     <row r="124">
@@ -21572,7 +21572,7 @@
         <v>0.2771339992186694</v>
       </c>
       <c r="AT124" t="n">
-        <v>-0.04641003393803034</v>
+        <v>-0.04771759896444616</v>
       </c>
     </row>
     <row r="125">
@@ -21742,7 +21742,7 @@
         <v>0.4520410409291828</v>
       </c>
       <c r="AT125" t="n">
-        <v>-0.1159374207540979</v>
+        <v>-0.1169340268465466</v>
       </c>
     </row>
     <row r="126">
@@ -21912,7 +21912,7 @@
         <v>0.4645775206547218</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.3282899552914104</v>
+        <v>0.3294160998447874</v>
       </c>
     </row>
     <row r="127">
@@ -22082,7 +22082,7 @@
         <v>-0.6355706362173762</v>
       </c>
       <c r="AT127" t="n">
-        <v>-0.4563670650047477</v>
+        <v>-0.4576617601669488</v>
       </c>
     </row>
     <row r="128">
@@ -22252,7 +22252,7 @@
         <v>0.2975714034433484</v>
       </c>
       <c r="AT128" t="n">
-        <v>-1.06515117558973</v>
+        <v>-1.066372602842753</v>
       </c>
     </row>
     <row r="129">
@@ -22422,7 +22422,7 @@
         <v>0.2396549497291484</v>
       </c>
       <c r="AT129" t="n">
-        <v>-0.2178246635115877</v>
+        <v>-0.219285648009271</v>
       </c>
     </row>
     <row r="130">
@@ -22592,7 +22592,7 @@
         <v>0.365061610694006</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.3253359458870211</v>
+        <v>0.3234460591793081</v>
       </c>
     </row>
     <row r="131">
@@ -22762,7 +22762,7 @@
         <v>0.746582629639525</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.4553929013000536</v>
+        <v>0.4566911363865865</v>
       </c>
     </row>
     <row r="132">
@@ -22905,7 +22905,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK132" t="n">
-        <v>3.433987204485146</v>
+        <v>3.618513213549793</v>
       </c>
       <c r="AL132" t="n">
         <v>1.6094379124341</v>
@@ -22932,7 +22932,7 @@
         <v>-3.744866173382089</v>
       </c>
       <c r="AT132" t="n">
-        <v>-1.233199618340268</v>
+        <v>-1.233716910409419</v>
       </c>
     </row>
     <row r="133">
@@ -23102,7 +23102,7 @@
         <v>-1.102911621912203</v>
       </c>
       <c r="AT133" t="n">
-        <v>-1.192697712414488</v>
+        <v>-1.192218636040171</v>
       </c>
     </row>
     <row r="134">
@@ -23272,7 +23272,7 @@
         <v>0.02050598212586802</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.1940715085874437</v>
+        <v>0.1947863755248305</v>
       </c>
     </row>
     <row r="135">
@@ -23442,7 +23442,7 @@
         <v>0.1256706914917335</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.05968270941289322</v>
+        <v>0.06043399700761276</v>
       </c>
     </row>
     <row r="136">
@@ -23612,7 +23612,7 @@
         <v>0.3666493288442288</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.3854228172981404</v>
+        <v>0.3882133872215264</v>
       </c>
     </row>
     <row r="137">
@@ -23782,7 +23782,7 @@
         <v>0.3934408010627598</v>
       </c>
       <c r="AT137" t="n">
-        <v>-0.1244899934893442</v>
+        <v>-0.1226494635313448</v>
       </c>
     </row>
     <row r="138">
@@ -23952,7 +23952,7 @@
         <v>-0.005488984785324199</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.2179674584192829</v>
+        <v>0.2210777603165142</v>
       </c>
     </row>
     <row r="139">
@@ -24122,7 +24122,7 @@
         <v>-0.006811783100881983</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.1798432935004364</v>
+        <v>0.1825840802389296</v>
       </c>
     </row>
     <row r="140">
@@ -24292,7 +24292,7 @@
         <v>0.2994939130920876</v>
       </c>
       <c r="AT140" t="n">
-        <v>-0.98146013281764</v>
+        <v>-0.9881079003614076</v>
       </c>
     </row>
     <row r="141">
@@ -24462,7 +24462,7 @@
         <v>0.2994939130920876</v>
       </c>
       <c r="AT141" t="n">
-        <v>-0.5723013331727145</v>
+        <v>-0.5716481516681789</v>
       </c>
     </row>
     <row r="142">
@@ -24632,7 +24632,7 @@
         <v>1.329951690003587</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.102771461835481</v>
+        <v>0.1055606943127869</v>
       </c>
     </row>
     <row r="143">
@@ -24802,7 +24802,7 @@
         <v>-0.01210983806958438</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.088844522375625</v>
+        <v>1.089965963038587</v>
       </c>
     </row>
     <row r="144">
@@ -24972,7 +24972,7 @@
         <v>-0.01878699437893509</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.214909010019603</v>
+        <v>1.215981645831421</v>
       </c>
     </row>
     <row r="145">
@@ -25029,13 +25029,13 @@
         <v>53</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.676826503923278</v>
       </c>
       <c r="R145" t="n">
         <v>0.75</v>
       </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="T145" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43464.30665509259</v>
       </c>
       <c r="AH145" t="n">
-        <v>0</v>
+        <v>3.714810443399589</v>
       </c>
       <c r="AI145" t="n">
         <v>0</v>
@@ -25142,7 +25142,7 @@
         <v>0.9962104149131223</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.7238518513535033</v>
+        <v>0.7238604240119929</v>
       </c>
     </row>
     <row r="146">
@@ -25282,7 +25282,7 @@
         <v>0</v>
       </c>
       <c r="AJ146" t="n">
-        <v>1.6094379124341</v>
+        <v>1.386294361119891</v>
       </c>
       <c r="AK146" t="n">
         <v>6.68586094706836</v>
@@ -25312,7 +25312,7 @@
         <v>1.012258325806236</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.229406693726824</v>
+        <v>1.23040991918235</v>
       </c>
     </row>
     <row r="147">
@@ -25482,7 +25482,7 @@
         <v>0.196860713835825</v>
       </c>
       <c r="AT147" t="n">
-        <v>-0.6289648065438929</v>
+        <v>-0.6299736348758455</v>
       </c>
     </row>
     <row r="148">
@@ -25652,7 +25652,7 @@
         <v>0.3682275953750167</v>
       </c>
       <c r="AT148" t="n">
-        <v>-0.3836537708327924</v>
+        <v>-0.38524292632895</v>
       </c>
     </row>
     <row r="149">
@@ -25822,7 +25822,7 @@
         <v>0.01578160051440168</v>
       </c>
       <c r="AT149" t="n">
-        <v>-0.9082341744652751</v>
+        <v>-0.9098146261261864</v>
       </c>
     </row>
     <row r="150">
@@ -25992,7 +25992,7 @@
         <v>0.5806768287984421</v>
       </c>
       <c r="AT150" t="n">
-        <v>-0.3558024385570619</v>
+        <v>-0.3544587502817296</v>
       </c>
     </row>
     <row r="151">
@@ -26162,7 +26162,7 @@
         <v>-3.758691154738659</v>
       </c>
       <c r="AT151" t="n">
-        <v>-0.946020942110307</v>
+        <v>-0.9460055359306223</v>
       </c>
     </row>
     <row r="152">
@@ -26305,7 +26305,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK152" t="n">
-        <v>3.433987204485146</v>
+        <v>3.618513213549793</v>
       </c>
       <c r="AL152" t="n">
         <v>1.6094379124341</v>
@@ -26332,7 +26332,7 @@
         <v>-3.744866173382089</v>
       </c>
       <c r="AT152" t="n">
-        <v>-0.9555130082849649</v>
+        <v>-0.9546954154905245</v>
       </c>
     </row>
     <row r="153">
@@ -26502,7 +26502,7 @@
         <v>-3.752630249613468</v>
       </c>
       <c r="AT153" t="n">
-        <v>-0.9207933943182183</v>
+        <v>-0.9226966461356356</v>
       </c>
     </row>
     <row r="154">
@@ -26672,7 +26672,7 @@
         <v>-3.758691154738659</v>
       </c>
       <c r="AT154" t="n">
-        <v>-0.9126542155172452</v>
+        <v>-0.9117793071998089</v>
       </c>
     </row>
     <row r="155">
@@ -26842,7 +26842,7 @@
         <v>-3.758691154738659</v>
       </c>
       <c r="AT155" t="n">
-        <v>-0.06034492657921382</v>
+        <v>-0.06035644203167396</v>
       </c>
     </row>
     <row r="156">
@@ -27009,10 +27009,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AS156" t="n">
-        <v>-4.138349030367769</v>
+        <v>-3.891056466195669</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.4463037524203851</v>
+        <v>0.445281846747014</v>
       </c>
     </row>
     <row r="157">
@@ -27182,7 +27182,7 @@
         <v>1.377759661356759</v>
       </c>
       <c r="AT157" t="n">
-        <v>-0.8137796047569281</v>
+        <v>-0.8132609611321915</v>
       </c>
     </row>
     <row r="158">
@@ -27352,7 +27352,7 @@
         <v>-0.9941846474685023</v>
       </c>
       <c r="AT158" t="n">
-        <v>-0.6611219870354526</v>
+        <v>-0.6601157071816213</v>
       </c>
     </row>
     <row r="159">
@@ -27409,7 +27409,7 @@
         <v>53</v>
       </c>
       <c r="Q159" t="n">
-        <v>3.538461538461538</v>
+        <v>3.371648351648346</v>
       </c>
       <c r="R159" t="n">
         <v>0.25</v>
@@ -27522,7 +27522,7 @@
         <v>-0.9941846474685023</v>
       </c>
       <c r="AT159" t="n">
-        <v>-0.8570712455041709</v>
+        <v>-0.8565675109257049</v>
       </c>
     </row>
     <row r="160">
@@ -27692,7 +27692,7 @@
         <v>-0.9941846474685023</v>
       </c>
       <c r="AT160" t="n">
-        <v>-0.9779078380865167</v>
+        <v>-0.9773412223110947</v>
       </c>
     </row>
     <row r="161">
@@ -27755,7 +27755,7 @@
         <v>0.25</v>
       </c>
       <c r="S161" t="n">
-        <v>-1</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>-0.9941846474685023</v>
       </c>
       <c r="AT161" t="n">
-        <v>-0.6294392804103385</v>
+        <v>-0.6289771512434912</v>
       </c>
     </row>
     <row r="162">
@@ -28032,7 +28032,7 @@
         <v>-1.090340893287934</v>
       </c>
       <c r="AT162" t="n">
-        <v>-0.361428928361709</v>
+        <v>-0.3604322554609098</v>
       </c>
     </row>
     <row r="163">
@@ -28202,7 +28202,7 @@
         <v>-0.9775626147275808</v>
       </c>
       <c r="AT163" t="n">
-        <v>-1.400799483706351</v>
+        <v>-1.386434771566756</v>
       </c>
     </row>
     <row r="164">
@@ -28372,7 +28372,7 @@
         <v>-0.09056796595785398</v>
       </c>
       <c r="AT164" t="n">
-        <v>-0.6074763611054458</v>
+        <v>-0.6082876412011302</v>
       </c>
     </row>
     <row r="165">
@@ -28542,7 +28542,7 @@
         <v>-1.009801877370067</v>
       </c>
       <c r="AT165" t="n">
-        <v>-0.6694032753489616</v>
+        <v>-0.6680941279031176</v>
       </c>
     </row>
     <row r="166">
@@ -28712,7 +28712,7 @@
         <v>-0.8700498671963965</v>
       </c>
       <c r="AT166" t="n">
-        <v>-0.4845343527714896</v>
+        <v>-0.4837602366751277</v>
       </c>
     </row>
     <row r="167">
@@ -28861,7 +28861,7 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AM167" t="n">
-        <v>2.833213344056216</v>
+        <v>2.70805020110221</v>
       </c>
       <c r="AN167" t="n">
         <v>10.81979828421029</v>
@@ -28882,7 +28882,7 @@
         <v>-0.8700498671963965</v>
       </c>
       <c r="AT167" t="n">
-        <v>-0.5728699242530422</v>
+        <v>-0.5722893294514698</v>
       </c>
     </row>
     <row r="168">
@@ -29052,7 +29052,7 @@
         <v>-0.8700498671963965</v>
       </c>
       <c r="AT168" t="n">
-        <v>-0.55024860060195</v>
+        <v>-0.5512608680120681</v>
       </c>
     </row>
     <row r="169">
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.2642239626179715</v>
+        <v>0.3189200420154253</v>
       </c>
       <c r="AR169" t="n">
         <v>1</v>
@@ -29222,7 +29222,7 @@
         <v>-0.8572028043678693</v>
       </c>
       <c r="AT169" t="n">
-        <v>-0.1975340104940709</v>
+        <v>-0.196634571728539</v>
       </c>
     </row>
     <row r="170">
@@ -29392,7 +29392,7 @@
         <v>-0.7798214110379182</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.1774318002614585</v>
+        <v>0.1794418379216196</v>
       </c>
     </row>
     <row r="171">
@@ -29562,7 +29562,7 @@
         <v>0.1172816829687136</v>
       </c>
       <c r="AT171" t="n">
-        <v>-0.651709345655107</v>
+        <v>-0.6508476056450883</v>
       </c>
     </row>
     <row r="172">
@@ -29732,7 +29732,7 @@
         <v>-0.7440134792473201</v>
       </c>
       <c r="AT172" t="n">
-        <v>-0.1916356852972556</v>
+        <v>-0.1909663199310517</v>
       </c>
     </row>
     <row r="173">
@@ -29902,7 +29902,7 @@
         <v>0.03405195441304644</v>
       </c>
       <c r="AT173" t="n">
-        <v>-0.2910746581934291</v>
+        <v>-0.2912816402692075</v>
       </c>
     </row>
     <row r="174">
@@ -30072,7 +30072,7 @@
         <v>-0.05549914615168519</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.2404162723875829</v>
+        <v>0.2411721765775362</v>
       </c>
     </row>
     <row r="175">
@@ -30242,7 +30242,7 @@
         <v>-0.05549914615168519</v>
       </c>
       <c r="AT175" t="n">
-        <v>-0.2330852846149451</v>
+        <v>-0.2333267093483463</v>
       </c>
     </row>
     <row r="176">
@@ -30412,7 +30412,7 @@
         <v>0.1118311958567964</v>
       </c>
       <c r="AT176" t="n">
-        <v>-0.06226444144408508</v>
+        <v>-0.0614772241495708</v>
       </c>
     </row>
     <row r="177">
@@ -30582,7 +30582,7 @@
         <v>0.05593780429013966</v>
       </c>
       <c r="AT177" t="n">
-        <v>-0.1009453117245888</v>
+        <v>-0.1002715260428183</v>
       </c>
     </row>
     <row r="178">
@@ -30752,7 +30752,7 @@
         <v>0.04401609485766776</v>
       </c>
       <c r="AT178" t="n">
-        <v>-0.1494447551506281</v>
+        <v>-0.1489759279059603</v>
       </c>
     </row>
     <row r="179">
@@ -30886,7 +30886,7 @@
         <v>43472.57777777778</v>
       </c>
       <c r="AH179" t="n">
-        <v>3.218875824868201</v>
+        <v>3.714810443399589</v>
       </c>
       <c r="AI179" t="n">
         <v>0</v>
@@ -30922,7 +30922,7 @@
         <v>0.0509828709419121</v>
       </c>
       <c r="AT179" t="n">
-        <v>-0.3091062899519146</v>
+        <v>-0.3090927711526315</v>
       </c>
     </row>
     <row r="180">
@@ -31092,7 +31092,7 @@
         <v>-0.730390103791327</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.1636219385303502</v>
+        <v>0.1642992800787002</v>
       </c>
     </row>
     <row r="181">
@@ -31253,7 +31253,7 @@
         <v>2</v>
       </c>
       <c r="AQ181" t="n">
-        <v>3.708595688217547</v>
+        <v>3.509354993627202</v>
       </c>
       <c r="AR181" t="n">
         <v>1.414213562373095</v>
@@ -31262,7 +31262,7 @@
         <v>0.1500187281752451</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.2050412633580906</v>
+        <v>0.203452821055609</v>
       </c>
     </row>
     <row r="182">
@@ -31417,7 +31417,7 @@
         <v>11.69525535506279</v>
       </c>
       <c r="AO182" t="n">
-        <v>12.38839836898211</v>
+        <v>12.41534077536593</v>
       </c>
       <c r="AP182" t="n">
         <v>2</v>
@@ -31432,7 +31432,7 @@
         <v>0.1438679669079763</v>
       </c>
       <c r="AT182" t="n">
-        <v>-0.01677187344014865</v>
+        <v>-0.01831143559581388</v>
       </c>
     </row>
     <row r="183">
@@ -31602,7 +31602,7 @@
         <v>0.09324590935654084</v>
       </c>
       <c r="AT183" t="n">
-        <v>-0.1455432617456479</v>
+        <v>-0.1457577453021032</v>
       </c>
     </row>
     <row r="184">
@@ -31656,7 +31656,7 @@
         <v>3</v>
       </c>
       <c r="P184" t="n">
-        <v>61</v>
+        <v>60.33999999999997</v>
       </c>
       <c r="Q184" t="n">
         <v>2.421052631578947</v>
@@ -31772,7 +31772,7 @@
         <v>0.1414900218948392</v>
       </c>
       <c r="AT184" t="n">
-        <v>-0.6040426403161481</v>
+        <v>-0.6055864793562822</v>
       </c>
     </row>
     <row r="185">
@@ -31942,7 +31942,7 @@
         <v>0.1693152458075144</v>
       </c>
       <c r="AT185" t="n">
-        <v>-0.0633716583889059</v>
+        <v>-0.0623675330728683</v>
       </c>
     </row>
     <row r="186">
@@ -32112,7 +32112,7 @@
         <v>0.2473292133004324</v>
       </c>
       <c r="AT186" t="n">
-        <v>-0.04997529003051468</v>
+        <v>-0.05032061852057804</v>
       </c>
     </row>
     <row r="187">
@@ -32282,7 +32282,7 @@
         <v>0.2416028403518213</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.2574495669324573</v>
+        <v>0.2568714530885957</v>
       </c>
     </row>
     <row r="188">
@@ -32452,7 +32452,7 @@
         <v>0.235440658613722</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.002902140694971578</v>
+        <v>0.001449868033027379</v>
       </c>
     </row>
     <row r="189">
@@ -32622,7 +32622,7 @@
         <v>0.254551550499108</v>
       </c>
       <c r="AT189" t="n">
-        <v>-0.2591017048242893</v>
+        <v>-0.2586616939298368</v>
       </c>
     </row>
     <row r="190">
@@ -32792,7 +32792,7 @@
         <v>0.2248417474968079</v>
       </c>
       <c r="AT190" t="n">
-        <v>-0.06559635147692508</v>
+        <v>-0.06570442214510835</v>
       </c>
     </row>
     <row r="191">
@@ -32962,7 +32962,7 @@
         <v>0.2318085235810523</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.2309099144734859</v>
+        <v>0.2315703238471882</v>
       </c>
     </row>
     <row r="192">
@@ -33132,7 +33132,7 @@
         <v>0.2349478257273684</v>
       </c>
       <c r="AT192" t="n">
-        <v>-0.5399457587470508</v>
+        <v>-0.5411087524052508</v>
       </c>
     </row>
     <row r="193">
@@ -33302,7 +33302,7 @@
         <v>0.2992028123279042</v>
       </c>
       <c r="AT193" t="n">
-        <v>-0.2769181133179276</v>
+        <v>-0.2771191496928284</v>
       </c>
     </row>
     <row r="194">
@@ -33472,7 +33472,7 @@
         <v>0.3308446285742664</v>
       </c>
       <c r="AT194" t="n">
-        <v>-0.492714837418355</v>
+        <v>-0.4935765808970839</v>
       </c>
     </row>
     <row r="195">
@@ -33642,7 +33642,7 @@
         <v>0.2255253217191823</v>
       </c>
       <c r="AT195" t="n">
-        <v>-0.6763351145495929</v>
+        <v>-0.6776236451483543</v>
       </c>
     </row>
     <row r="196">
@@ -33812,7 +33812,7 @@
         <v>0.2287769869915009</v>
       </c>
       <c r="AT196" t="n">
-        <v>-0.6152496864043659</v>
+        <v>-0.616659243486255</v>
       </c>
     </row>
     <row r="197">
@@ -33982,7 +33982,7 @@
         <v>0.2164457507695167</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.6459229365888548</v>
+        <v>0.6449140316275286</v>
       </c>
     </row>
     <row r="198">
@@ -34152,7 +34152,7 @@
         <v>0.3180737446804169</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.09425497569934288</v>
+        <v>0.09543165980648416</v>
       </c>
     </row>
     <row r="199">
@@ -34206,7 +34206,7 @@
         <v>3</v>
       </c>
       <c r="P199" t="n">
-        <v>62</v>
+        <v>60.33999999999997</v>
       </c>
       <c r="Q199" t="n">
         <v>3.0625</v>
@@ -34322,7 +34322,7 @@
         <v>0.3789293135855051</v>
       </c>
       <c r="AT199" t="n">
-        <v>-0.2294593116518682</v>
+        <v>-0.2244784882701139</v>
       </c>
     </row>
     <row r="200">
@@ -34456,7 +34456,7 @@
         <v>43414.68344907407</v>
       </c>
       <c r="AH200" t="n">
-        <v>7.180488674636339</v>
+        <v>7.122464801919641</v>
       </c>
       <c r="AI200" t="n">
         <v>0</v>
@@ -34492,7 +34492,7 @@
         <v>0.2778970710793907</v>
       </c>
       <c r="AT200" t="n">
-        <v>-1.340012984947436</v>
+        <v>-1.339177853439447</v>
       </c>
     </row>
     <row r="201">
@@ -34662,7 +34662,7 @@
         <v>1.0245327994572</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.7195691690918737</v>
+        <v>0.7179311493877352</v>
       </c>
     </row>
     <row r="202">
@@ -34832,7 +34832,7 @@
         <v>0.02387779616478491</v>
       </c>
       <c r="AT202" t="n">
-        <v>-0.3199302148756795</v>
+        <v>-0.3212841557892219</v>
       </c>
     </row>
     <row r="203">
@@ -35002,7 +35002,7 @@
         <v>0.3699009941165474</v>
       </c>
       <c r="AT203" t="n">
-        <v>-0.8698248371046251</v>
+        <v>-0.8782501232427828</v>
       </c>
     </row>
     <row r="204">
@@ -35172,7 +35172,7 @@
         <v>0.2889546332171312</v>
       </c>
       <c r="AT204" t="n">
-        <v>-0.005345575310927789</v>
+        <v>-0.004261256355426554</v>
       </c>
     </row>
     <row r="205">
@@ -35342,7 +35342,7 @@
         <v>0.3689099750440866</v>
       </c>
       <c r="AT205" t="n">
-        <v>-0.81846884703725</v>
+        <v>-0.8181440158868707</v>
       </c>
     </row>
     <row r="206">
@@ -35512,7 +35512,7 @@
         <v>0.2458285946019092</v>
       </c>
       <c r="AT206" t="n">
-        <v>-0.4033448199301997</v>
+        <v>-0.4048012517681168</v>
       </c>
     </row>
     <row r="207">
@@ -35682,7 +35682,7 @@
         <v>0.2570308128772289</v>
       </c>
       <c r="AT207" t="n">
-        <v>-0.2363084683822159</v>
+        <v>-0.2369794015484766</v>
       </c>
     </row>
     <row r="208">
@@ -35852,7 +35852,7 @@
         <v>0.3564848536590705</v>
       </c>
       <c r="AT208" t="n">
-        <v>-0.7437997313255487</v>
+        <v>-0.7433904093879604</v>
       </c>
     </row>
     <row r="209">
@@ -36022,7 +36022,7 @@
         <v>0.2446995766552448</v>
       </c>
       <c r="AT209" t="n">
-        <v>-0.789675936561277</v>
+        <v>-0.7895761009406992</v>
       </c>
     </row>
     <row r="210">
@@ -36192,7 +36192,7 @@
         <v>0.2415642937469176</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.4000352640101709</v>
+        <v>0.4008851633820281</v>
       </c>
     </row>
     <row r="211">
@@ -36362,7 +36362,7 @@
         <v>0.3601066773457784</v>
       </c>
       <c r="AT211" t="n">
-        <v>-0.2406452621632445</v>
+        <v>-0.2419823868846231</v>
       </c>
     </row>
     <row r="212">
@@ -36532,7 +36532,7 @@
         <v>0.2446995766552448</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.17156824673329</v>
+        <v>0.1725985709077756</v>
       </c>
     </row>
     <row r="213">
@@ -36702,7 +36702,7 @@
         <v>0.3689099750440866</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.2001916156338261</v>
+        <v>0.1984899173263018</v>
       </c>
     </row>
     <row r="214">
@@ -36716,7 +36716,7 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>0.4160902499162026</v>
       </c>
       <c r="AT214" t="n">
-        <v>-0.9434425229518694</v>
+        <v>-0.9512322846297655</v>
       </c>
     </row>
     <row r="215">
@@ -37042,7 +37042,7 @@
         <v>0.2764273384512161</v>
       </c>
       <c r="AT215" t="n">
-        <v>-0.06864591537921769</v>
+        <v>-0.06881941233952038</v>
       </c>
     </row>
     <row r="216">
@@ -37212,7 +37212,7 @@
         <v>0.2962906015707891</v>
       </c>
       <c r="AT216" t="n">
-        <v>-0.4290589816077779</v>
+        <v>-0.4305260524382781</v>
       </c>
     </row>
     <row r="217">
@@ -37382,7 +37382,7 @@
         <v>0.2728664153125214</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.147221414882647</v>
+        <v>0.1460294083537995</v>
       </c>
     </row>
     <row r="218">
@@ -37552,7 +37552,7 @@
         <v>0.4411860591931276</v>
       </c>
       <c r="AT218" t="n">
-        <v>-0.1081570341090832</v>
+        <v>-0.1093139764132511</v>
       </c>
     </row>
     <row r="219">
@@ -37722,7 +37722,7 @@
         <v>-0.4901268441523015</v>
       </c>
       <c r="AT219" t="n">
-        <v>-0.2130488511127466</v>
+        <v>-0.2134371684200341</v>
       </c>
     </row>
     <row r="220">
@@ -37883,7 +37883,7 @@
         <v>2</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.2822570837746805</v>
+        <v>0.3189200420154253</v>
       </c>
       <c r="AR220" t="n">
         <v>1</v>
@@ -37892,7 +37892,7 @@
         <v>0.3096063407967172</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.4855602617354213</v>
+        <v>0.48454819759905</v>
       </c>
     </row>
     <row r="221">
@@ -38026,7 +38026,7 @@
         <v>43428.29141203704</v>
       </c>
       <c r="AH221" t="n">
-        <v>0</v>
+        <v>3.714810443399589</v>
       </c>
       <c r="AI221" t="n">
         <v>0</v>
@@ -38062,7 +38062,7 @@
         <v>0.4773484045485712</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.09320608854190476</v>
+        <v>0.09160535281045828</v>
       </c>
     </row>
     <row r="222">
@@ -38232,7 +38232,7 @@
         <v>0.3107075945020688</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.4285783497258542</v>
+        <v>0.4298401033019004</v>
       </c>
     </row>
     <row r="223">
@@ -38289,7 +38289,7 @@
         <v>60</v>
       </c>
       <c r="Q223" t="n">
-        <v>3.538461538461538</v>
+        <v>3.371648351648346</v>
       </c>
       <c r="R223" t="n">
         <v>0.75</v>
@@ -38402,7 +38402,7 @@
         <v>0.4520410409291828</v>
       </c>
       <c r="AT223" t="n">
-        <v>-0.2784568622897091</v>
+        <v>-0.2870460560175908</v>
       </c>
     </row>
     <row r="224">
@@ -38572,7 +38572,7 @@
         <v>0.463254722339164</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.1233009623291618</v>
+        <v>0.1252330858343831</v>
       </c>
     </row>
     <row r="225">
@@ -38742,7 +38742,7 @@
         <v>0.4582146858019435</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.2862757583820594</v>
+        <v>0.2852614292344238</v>
       </c>
     </row>
     <row r="226">
@@ -38912,7 +38912,7 @@
         <v>0.4715728117295637</v>
       </c>
       <c r="AT226" t="n">
-        <v>-0.3224358345565109</v>
+        <v>-0.3239791107362882</v>
       </c>
     </row>
     <row r="227">
@@ -39082,7 +39082,7 @@
         <v>0.2952263291859395</v>
       </c>
       <c r="AT227" t="n">
-        <v>-0.07509971951529312</v>
+        <v>-0.07400331661552143</v>
       </c>
     </row>
     <row r="228">
@@ -39252,7 +39252,7 @@
         <v>0.4645775206547218</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.7981415477241094</v>
+        <v>0.7994877280248371</v>
       </c>
     </row>
     <row r="229">
@@ -39422,7 +39422,7 @@
         <v>0.001506306289517659</v>
       </c>
       <c r="AT229" t="n">
-        <v>-1.093150296916135</v>
+        <v>-1.101871795475964</v>
       </c>
     </row>
     <row r="230">
@@ -39436,7 +39436,7 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -39592,7 +39592,7 @@
         <v>0.3056675579648482</v>
       </c>
       <c r="AT230" t="n">
-        <v>-0.3676370595653831</v>
+        <v>-0.3683593771146779</v>
       </c>
     </row>
     <row r="231">
@@ -39762,7 +39762,7 @@
         <v>0.3107075945020688</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.8150343854464104</v>
+        <v>0.8161975156789579</v>
       </c>
     </row>
     <row r="232">
@@ -39932,7 +39932,7 @@
         <v>0.001506306289517659</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.03428802460749637</v>
+        <v>0.0348218897220938</v>
       </c>
     </row>
     <row r="233">
@@ -40102,7 +40102,7 @@
         <v>0.4684258850048024</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.6334653857647883</v>
+        <v>0.6345149409144661</v>
       </c>
     </row>
     <row r="234">
@@ -40272,7 +40272,7 @@
         <v>0.4645775206547218</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.4823422556328607</v>
+        <v>0.4833435176519361</v>
       </c>
     </row>
     <row r="235">
@@ -40442,7 +40442,7 @@
         <v>0.4645775206547218</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.395178094316775</v>
+        <v>0.395810026528335</v>
       </c>
     </row>
     <row r="236">
@@ -40612,7 +40612,7 @@
         <v>0.4715728117295637</v>
       </c>
       <c r="AT236" t="n">
-        <v>-0.7176349288630189</v>
+        <v>-0.7187104215256254</v>
       </c>
     </row>
     <row r="237">
@@ -40782,7 +40782,7 @@
         <v>0.4757060590322443</v>
       </c>
       <c r="AT237" t="n">
-        <v>-0.8447272825678537</v>
+        <v>-0.8462217606834052</v>
       </c>
     </row>
     <row r="238">
@@ -40952,7 +40952,7 @@
         <v>0.5025825648420998</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.08420030053581862</v>
+        <v>0.08289498463073067</v>
       </c>
     </row>
     <row r="239">
@@ -41122,7 +41122,7 @@
         <v>0.5025825648420998</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.09533113299638174</v>
+        <v>0.09617271486786627</v>
       </c>
     </row>
     <row r="240">
@@ -41292,7 +41292,7 @@
         <v>0.5720426198235542</v>
       </c>
       <c r="AT240" t="n">
-        <v>-0.127529300338902</v>
+        <v>-0.1287736685121056</v>
       </c>
     </row>
     <row r="241">
@@ -41462,7 +41462,7 @@
         <v>0.3978874037907281</v>
       </c>
       <c r="AT241" t="n">
-        <v>-1.033812213745519</v>
+        <v>-1.03370402213931</v>
       </c>
     </row>
     <row r="242">
@@ -41617,7 +41617,7 @@
         <v>12.61154108696612</v>
       </c>
       <c r="AO242" t="n">
-        <v>15.76142084987672</v>
+        <v>14.5086582385241</v>
       </c>
       <c r="AP242" t="n">
         <v>2</v>
@@ -41632,7 +41632,7 @@
         <v>0.7225050345983459</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.3748362214485475</v>
+        <v>0.3760604115284774</v>
       </c>
     </row>
     <row r="243">
@@ -41802,7 +41802,7 @@
         <v>0.7541801897770146</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.3293833777559695</v>
+        <v>0.330591865109054</v>
       </c>
     </row>
     <row r="244">
@@ -41972,7 +41972,7 @@
         <v>-0.02539717153761844</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.3081684301064084</v>
+        <v>0.3088023323263183</v>
       </c>
     </row>
     <row r="245">
@@ -42142,7 +42142,7 @@
         <v>-0.02539717153761844</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.01716637449318923</v>
+        <v>0.01841467245066731</v>
       </c>
     </row>
     <row r="246">
@@ -42312,7 +42312,7 @@
         <v>0.5555454913545921</v>
       </c>
       <c r="AT246" t="n">
-        <v>-0.1458163725834553</v>
+        <v>-0.1445828003063337</v>
       </c>
     </row>
     <row r="247">
@@ -42482,7 +42482,7 @@
         <v>-0.02407437322206065</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.3697190443744072</v>
+        <v>0.3677488586818308</v>
       </c>
     </row>
     <row r="248">
@@ -42652,7 +42652,7 @@
         <v>0.552883297689696</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.007135434597644</v>
+        <v>1.011405788958999</v>
       </c>
     </row>
     <row r="249">
@@ -42786,7 +42786,7 @@
         <v>43415.31839120371</v>
       </c>
       <c r="AH249" t="n">
-        <v>7.180488674636339</v>
+        <v>7.122464801919641</v>
       </c>
       <c r="AI249" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0.1767043868363914</v>
       </c>
       <c r="AT249" t="n">
-        <v>-1.160900245791096</v>
+        <v>-1.162272465013724</v>
       </c>
     </row>
     <row r="250">
@@ -42992,7 +42992,7 @@
         <v>0.5921292266967637</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.6235109475093722</v>
+        <v>0.6221186867913137</v>
       </c>
     </row>
     <row r="251">
@@ -43153,7 +43153,7 @@
         <v>2</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.2862322474632684</v>
+        <v>0.3189200420154253</v>
       </c>
       <c r="AR251" t="n">
         <v>1.414213562373095</v>
@@ -43162,7 +43162,7 @@
         <v>0.626599617101162</v>
       </c>
       <c r="AT251" t="n">
-        <v>-0.7913915367835613</v>
+        <v>-0.7928003683365784</v>
       </c>
     </row>
     <row r="252">
@@ -43332,7 +43332,7 @@
         <v>0.5902605835959907</v>
       </c>
       <c r="AT252" t="n">
-        <v>-0.609985073223509</v>
+        <v>-0.6096672411713255</v>
       </c>
     </row>
     <row r="253">
@@ -43502,7 +43502,7 @@
         <v>0.3854560112151357</v>
       </c>
       <c r="AT253" t="n">
-        <v>-0.7304100265234263</v>
+        <v>-0.7333895242072344</v>
       </c>
     </row>
     <row r="254">
@@ -43672,7 +43672,7 @@
         <v>0.5908695995934358</v>
       </c>
       <c r="AT254" t="n">
-        <v>-0.3985329875647441</v>
+        <v>-0.3997364778784825</v>
       </c>
     </row>
     <row r="255">
@@ -43842,7 +43842,7 @@
         <v>-0.03417111128297286</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.9413530361108884</v>
+        <v>0.9421582977595455</v>
       </c>
     </row>
     <row r="256">
@@ -44012,7 +44012,7 @@
         <v>0.7280857888011292</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.2920313565958232</v>
+        <v>0.2907766921650615</v>
       </c>
     </row>
     <row r="257">
@@ -44182,7 +44182,7 @@
         <v>0.7425361533519615</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.003737972165504</v>
+        <v>1.00474248700035</v>
       </c>
     </row>
     <row r="258">
@@ -44196,7 +44196,7 @@
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>0.7142871008780829</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.6888900881911268</v>
+        <v>0.6896160120883158</v>
       </c>
     </row>
     <row r="259">
@@ -44513,7 +44513,7 @@
         <v>2</v>
       </c>
       <c r="AQ259" t="n">
-        <v>3.67681972755413</v>
+        <v>3.509354993627202</v>
       </c>
       <c r="AR259" t="n">
         <v>1.732050807568877</v>
@@ -44522,7 +44522,7 @@
         <v>0.6777571854317703</v>
       </c>
       <c r="AT259" t="n">
-        <v>-0.5942832948662172</v>
+        <v>-0.593433559338211</v>
       </c>
     </row>
     <row r="260">
@@ -44671,7 +44671,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM260" t="n">
-        <v>2.772588722239781</v>
+        <v>2.70805020110221</v>
       </c>
       <c r="AN260" t="n">
         <v>13.12236537740233</v>
@@ -44692,7 +44692,7 @@
         <v>0.5218236281020633</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.5131165519357045</v>
+        <v>0.5120888844991082</v>
       </c>
     </row>
     <row r="261">
@@ -44862,7 +44862,7 @@
         <v>0.7895241680226522</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.4480609440193742</v>
+        <v>0.4468808209702783</v>
       </c>
     </row>
     <row r="262">
@@ -45032,7 +45032,7 @@
         <v>-0.06032516892584261</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.080075298902426</v>
+        <v>1.078915402488529</v>
       </c>
     </row>
     <row r="263">
@@ -45202,7 +45202,7 @@
         <v>0.7895241680226522</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.244019555609891</v>
+        <v>1.24215712219905</v>
       </c>
     </row>
     <row r="264">
@@ -45372,7 +45372,7 @@
         <v>-0.06906711913994457</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.2557596630667783</v>
+        <v>0.2541318058247788</v>
       </c>
     </row>
     <row r="265">
@@ -45542,7 +45542,7 @@
         <v>0.8739874722154102</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.328692133746518</v>
+        <v>1.322596814292072</v>
       </c>
     </row>
     <row r="266">
@@ -45605,7 +45605,7 @@
         <v>1</v>
       </c>
       <c r="S266" t="n">
-        <v>35</v>
+        <v>34.33999999999997</v>
       </c>
       <c r="T266" t="inlineStr">
         <is>
@@ -45712,7 +45712,7 @@
         <v>1.030581111831185</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.2011755270539217</v>
+        <v>0.2021665100364722</v>
       </c>
     </row>
     <row r="267">
@@ -45879,10 +45879,10 @@
         <v>1.163615056623108</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.4974094425326</v>
+        <v>1.432778152223154</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.14597046593274</v>
+        <v>1.146509179953154</v>
       </c>
     </row>
     <row r="268">
@@ -46043,7 +46043,7 @@
         <v>2</v>
       </c>
       <c r="AQ268" t="n">
-        <v>3.638830850829555</v>
+        <v>3.509354993627202</v>
       </c>
       <c r="AR268" t="n">
         <v>1.732050807568877</v>

--- a/nepal_dataframe_FA.xlsx
+++ b/nepal_dataframe_FA.xlsx
@@ -826,7 +826,7 @@
         <v>1.87022812442303</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.308631377696136</v>
+        <v>2</v>
       </c>
       <c r="AS2" t="n">
         <v>0.1814890557348564</v>
@@ -966,7 +966,7 @@
         <v>43422.52065972222</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.997212273764115</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI3" t="n">
         <v>2</v>
@@ -996,7 +996,7 @@
         <v>0.455394798643756</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.308631377696136</v>
+        <v>2</v>
       </c>
       <c r="AS3" t="n">
         <v>0.001932234334944216</v>
@@ -1166,7 +1166,7 @@
         <v>2.493573292379365</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.308631377696136</v>
+        <v>2</v>
       </c>
       <c r="AS4" t="n">
         <v>0.2425602843292251</v>
@@ -1315,7 +1315,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.68586094706836</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL5" t="n">
         <v>2.079441541679836</v>
@@ -1324,7 +1324,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.81551155796377</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO5" t="n">
         <v>14.15198350887095</v>
@@ -1339,7 +1339,7 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.041714083085321</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT5" t="n">
         <v>1.030919160914859</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43421.51994212963</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.219507705176107</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1825,7 +1825,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AK8" t="n">
-        <v>7.046499677103412</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL8" t="n">
         <v>1.791759469228055</v>
@@ -1834,7 +1834,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.81551155796377</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO8" t="n">
         <v>13.91082164685909</v>
@@ -1849,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.169564764465894</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.194505628729953</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="9">
@@ -1986,7 +1986,7 @@
         <v>43433.55394675926</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.158883083359671</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>11.77529742171583</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.41534077536593</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="n">
         <v>2.055555555555555</v>
@@ -2511,7 +2511,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.639057329615258</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN12" t="n">
         <v>12.42922019683638</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43415.51318287037</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.470799503782602</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI15" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>13.30468660086356</v>
       </c>
       <c r="AO17" t="n">
-        <v>12.41534077536593</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP17" t="n">
         <v>2</v>
@@ -3379,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.079918546733912</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT17" t="n">
         <v>0.8988824275220484</v>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
@@ -3946,7 +3946,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q21" t="n">
         <v>2.470588235294118</v>
@@ -4026,7 +4026,7 @@
         <v>43441.62298611111</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.127134385045092</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI21" t="n">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.3515112712985166</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>0.25</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>12.25486757159303</v>
       </c>
       <c r="AO31" t="n">
-        <v>12.42922019683638</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>43431.48875</v>
       </c>
       <c r="AH32" t="n">
-        <v>4.219507705176107</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI32" t="n">
         <v>1</v>
@@ -6266,7 +6266,7 @@
         <v>2.54250295676653</v>
       </c>
       <c r="AR34" t="n">
-        <v>2.23606797749979</v>
+        <v>2</v>
       </c>
       <c r="AS34" t="n">
         <v>0.1644745578455265</v>
@@ -6433,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.875179851935822</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR35" t="n">
         <v>2</v>
@@ -7686,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q43" t="n">
         <v>1.761904761904762</v>
@@ -7796,7 +7796,7 @@
         <v>1.838282568880919</v>
       </c>
       <c r="AR43" t="n">
-        <v>2.23606797749979</v>
+        <v>2</v>
       </c>
       <c r="AS43" t="n">
         <v>0.2082487469032168</v>
@@ -8697,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N49" t="n">
         <v>4</v>
@@ -8715,7 +8715,7 @@
         <v>0.75</v>
       </c>
       <c r="S49" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -8804,10 +8804,10 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AN49" t="n">
-        <v>13.99783294809122</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO49" t="n">
-        <v>14.4916654520031</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP49" t="n">
         <v>2</v>
@@ -8819,10 +8819,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.42849068749528</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.318947029453334</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="50">
@@ -8962,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK50" t="n">
         <v>5.707110264748875</v>
@@ -9046,7 +9046,7 @@
         <v>4</v>
       </c>
       <c r="P51" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q51" t="n">
         <v>1.148148148148148</v>
@@ -9055,7 +9055,7 @@
         <v>0.5</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>47</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.371648351648346</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO52" t="n">
         <v>13.30468660086356</v>
@@ -9329,10 +9329,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>-3.763663327076709</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT52" t="n">
-        <v>-1.386434771566756</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="53">
@@ -9484,7 +9484,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO53" t="n">
         <v>13.99783294809122</v>
@@ -9499,10 +9499,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>-3.758691154738659</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT53" t="n">
-        <v>-1.068024036732992</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="54">
@@ -9559,7 +9559,7 @@
         <v>52</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.133333333333333</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO54" t="n">
         <v>14.07787559166224</v>
@@ -9669,10 +9669,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>-3.758691154738659</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT54" t="n">
-        <v>-1.134005661755507</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="55">
@@ -9729,13 +9729,13 @@
         <v>45</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM55" t="n">
-        <v>2.70805020110221</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN55" t="n">
         <v>9.903537551286171</v>
@@ -9842,7 +9842,7 @@
         <v>-1.102911621912203</v>
       </c>
       <c r="AT55" t="n">
-        <v>-1.379142514560761</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="56">
@@ -10003,7 +10003,7 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.90144003072598</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR56" t="n">
         <v>1.414213562373095</v>
@@ -10409,7 +10409,7 @@
         <v>58</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R59" t="n">
         <v>0.25</v>
@@ -10486,7 +10486,7 @@
         <v>43431.29625</v>
       </c>
       <c r="AH59" t="n">
-        <v>5.023880520846276</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI59" t="n">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.875247517661045</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR62" t="n">
         <v>1.414213562373095</v>
@@ -11193,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>3.370684507445318</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR63" t="n">
         <v>1.732050807568877</v>
@@ -11435,7 +11435,7 @@
         <v>0.75</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>3.442655309613876</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR65" t="n">
         <v>2</v>
@@ -11605,7 +11605,7 @@
         <v>0.25</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6600000000000001</v>
+        <v>6</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>5.303304908059076</v>
       </c>
       <c r="AL67" t="n">
-        <v>2.233047152659878</v>
+        <v>2.19722457733622</v>
       </c>
       <c r="AM67" t="n">
         <v>1.945910149055313</v>
@@ -11936,16 +11936,16 @@
         <v>3</v>
       </c>
       <c r="P68" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q68" t="n">
-        <v>3.153846153846154</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R68" t="n">
         <v>0.5</v>
       </c>
       <c r="S68" t="n">
-        <v>34.33999999999997</v>
+        <v>30</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>0.5</v>
       </c>
       <c r="S69" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43461.32179398148</v>
       </c>
       <c r="AH69" t="n">
-        <v>4.219507705176107</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI69" t="n">
         <v>0</v>
@@ -12619,7 +12619,7 @@
         <v>53</v>
       </c>
       <c r="Q72" t="n">
-        <v>3</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R72" t="n">
         <v>0.75</v>
@@ -13086,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N76" t="n">
         <v>3</v>
@@ -13457,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N77" t="n">
         <v>4</v>
@@ -13546,7 +13546,7 @@
         <v>43421.31060185185</v>
       </c>
       <c r="AH77" t="n">
-        <v>4.007333185232471</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI77" t="n">
         <v>0</v>
@@ -13558,7 +13558,7 @@
         <v>5.860786223465865</v>
       </c>
       <c r="AL77" t="n">
-        <v>2.233047152659878</v>
+        <v>2.19722457733622</v>
       </c>
       <c r="AM77" t="n">
         <v>1.09861228866811</v>
@@ -13582,7 +13582,7 @@
         <v>0.9796891021854968</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.322596814292072</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="78">
@@ -13716,7 +13716,7 @@
         <v>43423.31658564815</v>
       </c>
       <c r="AH78" t="n">
-        <v>5.010635294096256</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI78" t="n">
         <v>0</v>
@@ -13976,7 +13976,7 @@
         <v>3</v>
       </c>
       <c r="P80" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q80" t="n">
         <v>1.875</v>
@@ -14065,7 +14065,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK80" t="n">
-        <v>6.55250788703459</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL80" t="n">
         <v>1.945910149055313</v>
@@ -14149,7 +14149,7 @@
         <v>53</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.676826503923278</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R81" t="n">
         <v>1</v>
@@ -14235,10 +14235,10 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AK81" t="n">
-        <v>6.55250788703459</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL81" t="n">
-        <v>2.233047152659878</v>
+        <v>2.19722457733622</v>
       </c>
       <c r="AM81" t="n">
         <v>1.791759469228055</v>
@@ -14259,10 +14259,10 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.026376559469536</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.236425785373032</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="82">
@@ -14307,7 +14307,7 @@
         <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N82" t="n">
         <v>3</v>
@@ -14316,7 +14316,7 @@
         <v>4</v>
       </c>
       <c r="P82" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q82" t="n">
         <v>2.611111111111111</v>
@@ -14405,7 +14405,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK82" t="n">
-        <v>7.046499677103412</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL82" t="n">
         <v>2.079441541679836</v>
@@ -14414,7 +14414,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AN82" t="n">
-        <v>13.99783294809122</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO82" t="n">
         <v>14.15198350887095</v>
@@ -14423,13 +14423,13 @@
         <v>2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.3978362327641642</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR82" t="n">
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.08229026523012</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT82" t="n">
         <v>1.027676961030374</v>
@@ -14575,16 +14575,16 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK83" t="n">
-        <v>3.713572066704308</v>
+        <v>3.931825632724326</v>
       </c>
       <c r="AL83" t="n">
         <v>1.6094379124341</v>
       </c>
       <c r="AM83" t="n">
-        <v>2.70805020110221</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN83" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO83" t="n">
         <v>14.22097633273888</v>
@@ -14599,10 +14599,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>-3.891056466195669</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT83" t="n">
-        <v>-1.386434771566756</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="84">
@@ -14745,7 +14745,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK84" t="n">
-        <v>3.713572066704308</v>
+        <v>3.931825632724326</v>
       </c>
       <c r="AL84" t="n">
         <v>1.791759469228055</v>
@@ -14754,7 +14754,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO84" t="n">
         <v>14.07787559166224</v>
@@ -14769,10 +14769,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>-3.752630249613468</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT84" t="n">
-        <v>-1.172223068895773</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="85">
@@ -14915,7 +14915,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK85" t="n">
-        <v>3.618513213549793</v>
+        <v>3.931825632724326</v>
       </c>
       <c r="AL85" t="n">
         <v>1.6094379124341</v>
@@ -14924,7 +14924,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN85" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO85" t="n">
         <v>14.07787559166224</v>
@@ -14939,10 +14939,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>-3.891056466195669</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT85" t="n">
-        <v>-1.165274086917855</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="86">
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>34.33999999999997</v>
+        <v>30</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.3830018653917177</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR86" t="n">
         <v>1</v>
@@ -15756,7 +15756,7 @@
         <v>43415.43997685185</v>
       </c>
       <c r="AH90" t="n">
-        <v>7.122464801919641</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI90" t="n">
         <v>0</v>
@@ -15783,7 +15783,7 @@
         <v>2</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.341803484516867</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR90" t="n">
         <v>1.732050807568877</v>
@@ -15976,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.147990732011338</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT95" t="n">
         <v>-0.7893157784487906</v>
@@ -16696,10 +16696,10 @@
         <v>3</v>
       </c>
       <c r="P96" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.076923076923077</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R96" t="n">
         <v>0.75</v>
@@ -16996,7 +16996,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N98" t="n">
         <v>3</v>
@@ -17152,7 +17152,7 @@
         <v>0.3601066773457784</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.19687900220876</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="99">
@@ -17811,7 +17811,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AM102" t="n">
-        <v>2.70805020110221</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN102" t="n">
         <v>12.42922019683638</v>
@@ -17966,7 +17966,7 @@
         <v>43437.28805555555</v>
       </c>
       <c r="AH103" t="n">
-        <v>5.099866427824199</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI103" t="n">
         <v>0</v>
@@ -17993,7 +17993,7 @@
         <v>2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.870941912841384</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR103" t="n">
         <v>1.414213562373095</v>
@@ -18306,7 +18306,7 @@
         <v>43451.60998842592</v>
       </c>
       <c r="AH105" t="n">
-        <v>4.189654742026425</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI105" t="n">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R106" t="n">
         <v>0.25</v>
@@ -18526,7 +18526,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -18679,10 +18679,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.432778152223154</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.18168950521682</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="108">
@@ -18739,7 +18739,7 @@
         <v>54</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.896551724137931</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R108" t="n">
         <v>1</v>
@@ -18906,16 +18906,16 @@
         <v>4</v>
       </c>
       <c r="P109" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.676826503923278</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R109" t="n">
         <v>0.75</v>
       </c>
       <c r="S109" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>12.89922232608699</v>
       </c>
       <c r="AO109" t="n">
-        <v>14.40329777842179</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP109" t="n">
         <v>2</v>
@@ -19183,7 +19183,7 @@
         <v>2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.37463105855764</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR110" t="n">
         <v>1.732050807568877</v>
@@ -19517,7 +19517,7 @@
         <v>12.89922232608699</v>
       </c>
       <c r="AO112" t="n">
-        <v>14.40329777842179</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP112" t="n">
         <v>2</v>
@@ -19586,7 +19586,7 @@
         <v>3</v>
       </c>
       <c r="P113" t="n">
-        <v>60.33999999999997</v>
+        <v>58</v>
       </c>
       <c r="Q113" t="n">
         <v>2.578947368421053</v>
@@ -19675,7 +19675,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK113" t="n">
-        <v>6.55250788703459</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL113" t="n">
         <v>1.945910149055313</v>
@@ -19684,10 +19684,10 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN113" t="n">
-        <v>13.45883704259595</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO113" t="n">
-        <v>14.5086582385241</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP113" t="n">
         <v>0</v>
@@ -19702,7 +19702,7 @@
         <v>-0.1006624618345745</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.300720308911306</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="114">
@@ -19854,7 +19854,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AN114" t="n">
-        <v>13.59236825664928</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO114" t="n">
         <v>14.28551481220982</v>
@@ -20015,7 +20015,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK115" t="n">
-        <v>6.90875477931522</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL115" t="n">
         <v>1.945910149055313</v>
@@ -20024,7 +20024,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AN115" t="n">
-        <v>13.59236825664928</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO115" t="n">
         <v>14.28551481220982</v>
@@ -20039,10 +20039,10 @@
         <v>2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.038149308017854</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.198990171065268</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="116">
@@ -20099,7 +20099,7 @@
         <v>57</v>
       </c>
       <c r="Q116" t="n">
-        <v>3.285714285714286</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R116" t="n">
         <v>0.75</v>
@@ -20185,7 +20185,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK116" t="n">
-        <v>7.046499677103412</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL116" t="n">
         <v>2.079441541679836</v>
@@ -20194,10 +20194,10 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN116" t="n">
-        <v>13.99783294809122</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO116" t="n">
-        <v>14.5086582385241</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP116" t="n">
         <v>2</v>
@@ -20209,10 +20209,10 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.432778152223154</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.322596814292072</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="117">
@@ -20269,7 +20269,7 @@
         <v>52</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -20355,7 +20355,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK117" t="n">
-        <v>3.713572066704308</v>
+        <v>3.931825632724326</v>
       </c>
       <c r="AL117" t="n">
         <v>1.6094379124341</v>
@@ -20364,7 +20364,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN117" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO117" t="n">
         <v>13.99783294809122</v>
@@ -20379,10 +20379,10 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>-3.752630249613468</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT117" t="n">
-        <v>-1.079647012993119</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="118">
@@ -20445,7 +20445,7 @@
         <v>0.25</v>
       </c>
       <c r="S118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>2</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.3357592089059304</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR125" t="n">
         <v>1.414213562373095</v>
@@ -21897,7 +21897,7 @@
         <v>12.42922019683638</v>
       </c>
       <c r="AO126" t="n">
-        <v>14.40329777842179</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP126" t="n">
         <v>2</v>
@@ -22237,7 +22237,7 @@
         <v>12.10071768541247</v>
       </c>
       <c r="AO128" t="n">
-        <v>12.73670383776449</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP128" t="n">
         <v>0</v>
@@ -22309,7 +22309,7 @@
         <v>46</v>
       </c>
       <c r="Q129" t="n">
-        <v>3.266666666666667</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R129" t="n">
         <v>0.25</v>
@@ -22905,7 +22905,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK132" t="n">
-        <v>3.618513213549793</v>
+        <v>3.931825632724326</v>
       </c>
       <c r="AL132" t="n">
         <v>1.6094379124341</v>
@@ -22914,7 +22914,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AN132" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO132" t="n">
         <v>13.99783294809122</v>
@@ -22929,10 +22929,10 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>-3.744866173382089</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT132" t="n">
-        <v>-1.233716910409419</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="133">
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>-1.102911621912203</v>
       </c>
       <c r="AT133" t="n">
-        <v>-1.192218636040171</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="134">
@@ -23116,7 +23116,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>3</v>
       </c>
       <c r="P135" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q135" t="n">
         <v>2.529411764705882</v>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.329951690003587</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT142" t="n">
         <v>0.1055606943127869</v>
@@ -24816,7 +24816,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -24859,13 +24859,13 @@
         <v>54</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R144" t="n">
         <v>0.5</v>
       </c>
       <c r="S144" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T144" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>-0.01878699437893509</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.215981645831421</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="145">
@@ -25029,13 +25029,13 @@
         <v>53</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.676826503923278</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R145" t="n">
         <v>0.75</v>
       </c>
       <c r="S145" t="n">
-        <v>0.6600000000000001</v>
+        <v>6</v>
       </c>
       <c r="T145" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43464.30665509259</v>
       </c>
       <c r="AH145" t="n">
-        <v>3.714810443399589</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI145" t="n">
         <v>0</v>
@@ -25127,7 +25127,7 @@
         <v>13.12236537740233</v>
       </c>
       <c r="AO145" t="n">
-        <v>14.5086582385241</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP145" t="n">
         <v>2</v>
@@ -25285,7 +25285,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK146" t="n">
-        <v>6.68586094706836</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL146" t="n">
         <v>2.19722457733622</v>
@@ -25312,7 +25312,7 @@
         <v>1.012258325806236</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.23040991918235</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="147">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.873488247396438</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR148" t="n">
         <v>1.414213562373095</v>
@@ -25965,7 +25965,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK150" t="n">
-        <v>6.478509642208569</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL150" t="n">
         <v>1.791759469228055</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N151" t="n">
         <v>2</v>
@@ -26046,7 +26046,7 @@
         <v>2</v>
       </c>
       <c r="P151" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q151" t="n">
         <v>1.130434782608696</v>
@@ -26144,7 +26144,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AN151" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO151" t="n">
         <v>14.22097633273888</v>
@@ -26159,7 +26159,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>-3.758691154738659</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT151" t="n">
         <v>-0.9460055359306223</v>
@@ -26225,7 +26225,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK152" t="n">
-        <v>3.618513213549793</v>
+        <v>3.931825632724326</v>
       </c>
       <c r="AL152" t="n">
         <v>1.6094379124341</v>
@@ -26314,7 +26314,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN152" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO152" t="n">
         <v>13.99783294809122</v>
@@ -26329,7 +26329,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>-3.744866173382089</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT152" t="n">
         <v>-0.9546954154905245</v>
@@ -26475,7 +26475,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK153" t="n">
-        <v>3.713572066704308</v>
+        <v>3.931825632724326</v>
       </c>
       <c r="AL153" t="n">
         <v>1.791759469228055</v>
@@ -26484,7 +26484,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN153" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO153" t="n">
         <v>14.15198350887095</v>
@@ -26499,7 +26499,7 @@
         <v>1</v>
       </c>
       <c r="AS153" t="n">
-        <v>-3.752630249613468</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT153" t="n">
         <v>-0.9226966461356356</v>
@@ -26654,7 +26654,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN154" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO154" t="n">
         <v>14.03865490927816</v>
@@ -26669,7 +26669,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>-3.758691154738659</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT154" t="n">
         <v>-0.9117793071998089</v>
@@ -26824,7 +26824,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN155" t="n">
-        <v>0</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO155" t="n">
         <v>14.22097633273888</v>
@@ -26839,7 +26839,7 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>-3.758691154738659</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT155" t="n">
         <v>-0.06035644203167396</v>
@@ -26985,7 +26985,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AK156" t="n">
-        <v>6.68586094706836</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL156" t="n">
         <v>1.945910149055313</v>
@@ -26994,7 +26994,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AN156" t="n">
-        <v>2.19722457733622</v>
+        <v>3.503809570245734</v>
       </c>
       <c r="AO156" t="n">
         <v>13.52782981884494</v>
@@ -27009,7 +27009,7 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AS156" t="n">
-        <v>-3.891056466195669</v>
+        <v>-2.952279807941121</v>
       </c>
       <c r="AT156" t="n">
         <v>0.445281846747014</v>
@@ -27155,7 +27155,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK157" t="n">
-        <v>6.55250788703459</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL157" t="n">
         <v>2.079441541679836</v>
@@ -27179,7 +27179,7 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.377759661356759</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT157" t="n">
         <v>-0.8132609611321915</v>
@@ -27239,7 +27239,7 @@
         <v>54</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R158" t="n">
         <v>0.5</v>
@@ -27409,13 +27409,13 @@
         <v>53</v>
       </c>
       <c r="Q159" t="n">
-        <v>3.371648351648346</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R159" t="n">
         <v>0.25</v>
       </c>
       <c r="S159" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T159" t="inlineStr">
         <is>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T160" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>43456.62049768519</v>
       </c>
       <c r="AH160" t="n">
-        <v>4.962844630259907</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI160" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0.25</v>
       </c>
       <c r="S161" t="n">
-        <v>0.6600000000000001</v>
+        <v>6</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="AQ162" t="n">
-        <v>2.903460327090944</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR162" t="n">
         <v>1.414213562373095</v>
@@ -28193,7 +28193,7 @@
         <v>0</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.3492245082422</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR163" t="n">
         <v>1</v>
@@ -28202,7 +28202,7 @@
         <v>-0.9775626147275808</v>
       </c>
       <c r="AT163" t="n">
-        <v>-1.386434771566756</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="164">
@@ -28216,7 +28216,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>0.677</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -28265,7 +28265,7 @@
         <v>0.25</v>
       </c>
       <c r="S164" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T164" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="AJ164" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK164" t="n">
         <v>3.931825632724326</v>
@@ -28366,7 +28366,7 @@
         <v>0.6182167368846151</v>
       </c>
       <c r="AR164" t="n">
-        <v>0.8228000972289685</v>
+        <v>1</v>
       </c>
       <c r="AS164" t="n">
         <v>-0.09056796595785398</v>
@@ -28506,7 +28506,7 @@
         <v>43415.5949537037</v>
       </c>
       <c r="AH165" t="n">
-        <v>4.912654885736052</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI165" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AM167" t="n">
-        <v>2.70805020110221</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN167" t="n">
         <v>10.81979828421029</v>
@@ -29186,7 +29186,7 @@
         <v>43471.29651620371</v>
       </c>
       <c r="AH169" t="n">
-        <v>4.990432586778736</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI169" t="n">
         <v>0</v>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.3189200420154253</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR169" t="n">
         <v>1</v>
@@ -29541,7 +29541,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AM171" t="n">
-        <v>2.70805020110221</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN171" t="n">
         <v>11.28979441357789</v>
@@ -29619,7 +29619,7 @@
         <v>54</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R172" t="n">
         <v>0.25</v>
@@ -29723,7 +29723,7 @@
         <v>2</v>
       </c>
       <c r="AQ172" t="n">
-        <v>2.911284355548572</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR172" t="n">
         <v>1</v>
@@ -29965,7 +29965,7 @@
         <v>0.5</v>
       </c>
       <c r="S174" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>0</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.3757008796881073</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR178" t="n">
         <v>1.414213562373095</v>
@@ -30886,7 +30886,7 @@
         <v>43472.57777777778</v>
       </c>
       <c r="AH179" t="n">
-        <v>3.714810443399589</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI179" t="n">
         <v>0</v>
@@ -31247,13 +31247,13 @@
         <v>11.69525535506279</v>
       </c>
       <c r="AO181" t="n">
-        <v>14.5086582385241</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP181" t="n">
         <v>2</v>
       </c>
       <c r="AQ181" t="n">
-        <v>3.509354993627202</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR181" t="n">
         <v>1.414213562373095</v>
@@ -31417,7 +31417,7 @@
         <v>11.69525535506279</v>
       </c>
       <c r="AO182" t="n">
-        <v>12.41534077536593</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP182" t="n">
         <v>2</v>
@@ -31587,13 +31587,13 @@
         <v>11.69525535506279</v>
       </c>
       <c r="AO183" t="n">
-        <v>12.42922019683638</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP183" t="n">
         <v>0</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.391770934801162</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR183" t="n">
         <v>1.732050807568877</v>
@@ -31635,7 +31635,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>0.677</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
@@ -31656,7 +31656,7 @@
         <v>3</v>
       </c>
       <c r="P184" t="n">
-        <v>60.33999999999997</v>
+        <v>58</v>
       </c>
       <c r="Q184" t="n">
         <v>2.421052631578947</v>
@@ -31742,7 +31742,7 @@
         <v>0</v>
       </c>
       <c r="AJ184" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK184" t="n">
         <v>4.61512051684126</v>
@@ -31766,7 +31766,7 @@
         <v>2.735134410081278</v>
       </c>
       <c r="AR184" t="n">
-        <v>0.8228000972289685</v>
+        <v>1</v>
       </c>
       <c r="AS184" t="n">
         <v>0.1414900218948392</v>
@@ -31999,7 +31999,7 @@
         <v>53</v>
       </c>
       <c r="Q186" t="n">
-        <v>3.266666666666667</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R186" t="n">
         <v>0.5</v>
@@ -32685,7 +32685,7 @@
         <v>0.5</v>
       </c>
       <c r="S190" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T190" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>3</v>
       </c>
       <c r="P194" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q194" t="n">
         <v>2</v>
@@ -33457,13 +33457,13 @@
         <v>12.10071768541247</v>
       </c>
       <c r="AO194" t="n">
-        <v>12.67607939977103</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP194" t="n">
         <v>2</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.3573225425015104</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR194" t="n">
         <v>1.414213562373095</v>
@@ -33526,7 +33526,7 @@
         <v>3</v>
       </c>
       <c r="P195" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q195" t="n">
         <v>1.772727272727273</v>
@@ -33656,7 +33656,7 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -34206,10 +34206,10 @@
         <v>3</v>
       </c>
       <c r="P199" t="n">
-        <v>60.33999999999997</v>
+        <v>58</v>
       </c>
       <c r="Q199" t="n">
-        <v>3.0625</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R199" t="n">
         <v>0.25</v>
@@ -34286,13 +34286,13 @@
         <v>43412.3396875</v>
       </c>
       <c r="AH199" t="n">
-        <v>3.988984046564275</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI199" t="n">
         <v>0</v>
       </c>
       <c r="AJ199" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK199" t="n">
         <v>5.017279836814924</v>
@@ -34456,13 +34456,13 @@
         <v>43414.68344907407</v>
       </c>
       <c r="AH200" t="n">
-        <v>7.122464801919641</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI200" t="n">
         <v>0</v>
       </c>
       <c r="AJ200" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK200" t="n">
         <v>4.61512051684126</v>
@@ -34492,7 +34492,7 @@
         <v>0.2778970710793907</v>
       </c>
       <c r="AT200" t="n">
-        <v>-1.339177853439447</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="201">
@@ -34506,7 +34506,7 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0.677</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
@@ -34546,7 +34546,7 @@
         <v>4</v>
       </c>
       <c r="P201" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q201" t="n">
         <v>1.391304347826087</v>
@@ -34632,7 +34632,7 @@
         <v>0</v>
       </c>
       <c r="AJ201" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK201" t="n">
         <v>4.61512051684126</v>
@@ -34656,7 +34656,7 @@
         <v>1.877597760018266</v>
       </c>
       <c r="AR201" t="n">
-        <v>0.8228000972289685</v>
+        <v>1</v>
       </c>
       <c r="AS201" t="n">
         <v>1.0245327994572</v>
@@ -35321,7 +35321,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM205" t="n">
-        <v>2.639057329615258</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN205" t="n">
         <v>12.20607764551767</v>
@@ -35909,7 +35909,7 @@
         <v>48</v>
       </c>
       <c r="Q209" t="n">
-        <v>3.133333333333333</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R209" t="n">
         <v>0.25</v>
@@ -36716,7 +36716,7 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>1</v>
       </c>
       <c r="M214" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N214" t="n">
         <v>4</v>
@@ -36863,7 +36863,7 @@
         <v>0</v>
       </c>
       <c r="AQ214" t="n">
-        <v>2.875200312436719</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR214" t="n">
         <v>1.414213562373095</v>
@@ -37883,7 +37883,7 @@
         <v>2</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.3189200420154253</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR220" t="n">
         <v>1</v>
@@ -38026,7 +38026,7 @@
         <v>43428.29141203704</v>
       </c>
       <c r="AH221" t="n">
-        <v>3.714810443399589</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI221" t="n">
         <v>0</v>
@@ -38286,10 +38286,10 @@
         <v>3</v>
       </c>
       <c r="P223" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q223" t="n">
-        <v>3.371648351648346</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R223" t="n">
         <v>0.75</v>
@@ -38551,7 +38551,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM224" t="n">
-        <v>2.70805020110221</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN224" t="n">
         <v>12.42922019683638</v>
@@ -38903,7 +38903,7 @@
         <v>0</v>
       </c>
       <c r="AQ226" t="n">
-        <v>2.907939548846266</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR226" t="n">
         <v>1.414213562373095</v>
@@ -38926,7 +38926,7 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>0.001506306289517659</v>
       </c>
       <c r="AT229" t="n">
-        <v>-1.101871795475964</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="230">
@@ -39436,7 +39436,7 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>0.5</v>
       </c>
       <c r="S234" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T234" t="inlineStr">
         <is>
@@ -40236,7 +40236,7 @@
         <v>43473.28554398148</v>
       </c>
       <c r="AH234" t="n">
-        <v>3.970291913552122</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI234" t="n">
         <v>0</v>
@@ -40499,7 +40499,7 @@
         <v>53</v>
       </c>
       <c r="Q236" t="n">
-        <v>3</v>
+        <v>2.979999999999999</v>
       </c>
       <c r="R236" t="n">
         <v>0.75</v>
@@ -40626,7 +40626,7 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         <v>43454.68414351852</v>
       </c>
       <c r="AH238" t="n">
-        <v>4.969813299576001</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI238" t="n">
         <v>0</v>
@@ -41136,7 +41136,7 @@
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>3</v>
       </c>
       <c r="P240" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q240" t="n">
         <v>1.863636363636364</v>
@@ -41262,7 +41262,7 @@
         <v>0</v>
       </c>
       <c r="AJ240" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK240" t="n">
         <v>4.61512051684126</v>
@@ -41426,13 +41426,13 @@
         <v>43414.59118055556</v>
       </c>
       <c r="AH241" t="n">
-        <v>7.092573715974678</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI241" t="n">
         <v>0</v>
       </c>
       <c r="AJ241" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK241" t="n">
         <v>4.61512051684126</v>
@@ -41495,7 +41495,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>0.677</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
         <v>1</v>
@@ -41516,7 +41516,7 @@
         <v>4</v>
       </c>
       <c r="P242" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q242" t="n">
         <v>1.631578947368421</v>
@@ -41617,7 +41617,7 @@
         <v>12.61154108696612</v>
       </c>
       <c r="AO242" t="n">
-        <v>14.5086582385241</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP242" t="n">
         <v>2</v>
@@ -41626,7 +41626,7 @@
         <v>0.676003306564684</v>
       </c>
       <c r="AR242" t="n">
-        <v>0.8228000972289685</v>
+        <v>1</v>
       </c>
       <c r="AS242" t="n">
         <v>0.7225050345983459</v>
@@ -41686,10 +41686,10 @@
         <v>4</v>
       </c>
       <c r="P243" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R243" t="n">
         <v>0.75</v>
@@ -41787,7 +41787,7 @@
         <v>12.61154108696612</v>
       </c>
       <c r="AO243" t="n">
-        <v>14.40329777842179</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP243" t="n">
         <v>2</v>
@@ -42106,7 +42106,7 @@
         <v>43433.30201388889</v>
       </c>
       <c r="AH245" t="n">
-        <v>4.007333185232471</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI245" t="n">
         <v>0</v>
@@ -42127,7 +42127,7 @@
         <v>12.61154108696612</v>
       </c>
       <c r="AO245" t="n">
-        <v>14.40329777842179</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP245" t="n">
         <v>0</v>
@@ -42369,7 +42369,7 @@
         <v>46</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R247" t="n">
         <v>0.75</v>
@@ -42706,7 +42706,7 @@
         <v>3</v>
       </c>
       <c r="P249" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q249" t="n">
         <v>2.578947368421053</v>
@@ -42786,7 +42786,7 @@
         <v>43415.31839120371</v>
       </c>
       <c r="AH249" t="n">
-        <v>7.122464801919641</v>
+        <v>4.897839799950911</v>
       </c>
       <c r="AI249" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0.1767043868363914</v>
       </c>
       <c r="AT249" t="n">
-        <v>-1.162272465013724</v>
+        <v>-1.067611178260432</v>
       </c>
     </row>
     <row r="250">
@@ -43153,7 +43153,7 @@
         <v>2</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.3189200420154253</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR251" t="n">
         <v>1.414213562373095</v>
@@ -43559,7 +43559,7 @@
         <v>47</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R254" t="n">
         <v>0.25</v>
@@ -43905,7 +43905,7 @@
         <v>0.75</v>
       </c>
       <c r="S256" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T256" t="inlineStr">
         <is>
@@ -44196,7 +44196,7 @@
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -44239,7 +44239,7 @@
         <v>50</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8994612068965517</v>
       </c>
       <c r="R258" t="n">
         <v>0.5</v>
@@ -44337,7 +44337,7 @@
         <v>13.01700508396626</v>
       </c>
       <c r="AO258" t="n">
-        <v>14.40329777842179</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP258" t="n">
         <v>2</v>
@@ -44513,7 +44513,7 @@
         <v>2</v>
       </c>
       <c r="AQ259" t="n">
-        <v>3.509354993627202</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR259" t="n">
         <v>1.732050807568877</v>
@@ -44671,7 +44671,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM260" t="n">
-        <v>2.70805020110221</v>
+        <v>2.564949357461537</v>
       </c>
       <c r="AN260" t="n">
         <v>13.12236537740233</v>
@@ -44916,7 +44916,7 @@
         <v>3</v>
       </c>
       <c r="P262" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q262" t="n">
         <v>2.526315789473684</v>
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="D263" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>0.7895241680226522</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.24215712219905</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="264">
@@ -45363,7 +45363,7 @@
         <v>2</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.3768105557894013</v>
+        <v>0.3980770808024077</v>
       </c>
       <c r="AR264" t="n">
         <v>1.732050807568877</v>
@@ -45542,7 +45542,7 @@
         <v>0.8739874722154102</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.322596814292072</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="266">
@@ -45605,7 +45605,7 @@
         <v>1</v>
       </c>
       <c r="S266" t="n">
-        <v>34.33999999999997</v>
+        <v>30</v>
       </c>
       <c r="T266" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AK266" t="n">
-        <v>6.90875477931522</v>
+        <v>6.398594934535208</v>
       </c>
       <c r="AL266" t="n">
         <v>2.19722457733622</v>
@@ -45694,10 +45694,10 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AN266" t="n">
-        <v>13.45883704259595</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO266" t="n">
-        <v>14.5086582385241</v>
+        <v>14.31628645193719</v>
       </c>
       <c r="AP266" t="n">
         <v>2</v>
@@ -45709,7 +45709,7 @@
         <v>2</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.030581111831185</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT266" t="n">
         <v>0.2021665100364722</v>
@@ -45852,7 +45852,7 @@
         <v>0</v>
       </c>
       <c r="AJ267" t="n">
-        <v>0.5170064828410719</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="AK267" t="n">
         <v>4.61512051684126</v>
@@ -45864,10 +45864,10 @@
         <v>0</v>
       </c>
       <c r="AN267" t="n">
-        <v>13.71015115341694</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO267" t="n">
-        <v>12.61154108696612</v>
+        <v>12.76569129060437</v>
       </c>
       <c r="AP267" t="n">
         <v>2</v>
@@ -45879,10 +45879,10 @@
         <v>1.163615056623108</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.432778152223154</v>
+        <v>1.025823431465835</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.146509179953154</v>
+        <v>1.136144008800468</v>
       </c>
     </row>
     <row r="268">
@@ -45927,7 +45927,7 @@
         <v>1</v>
       </c>
       <c r="M268" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N268" t="n">
         <v>4</v>
@@ -46016,7 +46016,7 @@
         <v>43418.51855324074</v>
       </c>
       <c r="AH268" t="n">
-        <v>4.204692619390966</v>
+        <v>4.23245935673567</v>
       </c>
       <c r="AI268" t="n">
         <v>0</v>
@@ -46034,7 +46034,7 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AN268" t="n">
-        <v>13.99783294809122</v>
+        <v>13.30468660086356</v>
       </c>
       <c r="AO268" t="n">
         <v>13.99783294809122</v>
@@ -46043,7 +46043,7 @@
         <v>2</v>
       </c>
       <c r="AQ268" t="n">
-        <v>3.509354993627202</v>
+        <v>2.870157652698332</v>
       </c>
       <c r="AR268" t="n">
         <v>1.732050807568877</v>

--- a/nepal_dataframe_FA.xlsx
+++ b/nepal_dataframe_FA.xlsx
@@ -823,13 +823,13 @@
         <v>1.87022812442303</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>2.20880667536255</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1814890557348564</v>
+        <v>0.08016863638565673</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.3626755239526337</v>
+        <v>0.4177439880090642</v>
       </c>
     </row>
     <row r="3">
@@ -960,7 +960,7 @@
         <v>43422.52065972222</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.897839799950911</v>
+        <v>4.997212273764115</v>
       </c>
       <c r="AH3" t="n">
         <v>2</v>
@@ -990,13 +990,13 @@
         <v>0.455394798643756</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2</v>
+        <v>2.20880667536255</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001932234334944216</v>
+        <v>-0.9100426637840656</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1905470077643923</v>
+        <v>0.1145630803144528</v>
       </c>
     </row>
     <row r="4">
@@ -1157,13 +1157,13 @@
         <v>2.493573292379365</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>2.20880667536255</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.2425602843292251</v>
+        <v>0.3075796165371671</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.8683694989527904</v>
+        <v>0.9042641760206411</v>
       </c>
     </row>
     <row r="5">
@@ -1303,7 +1303,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.398594934535208</v>
+        <v>6.68586094706836</v>
       </c>
       <c r="AK5" t="n">
         <v>2.079441541679836</v>
@@ -1312,7 +1312,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AM5" t="n">
-        <v>13.30468660086356</v>
+        <v>13.75474545078068</v>
       </c>
       <c r="AN5" t="n">
         <v>14.15198350887095</v>
@@ -1327,10 +1327,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.025823431465835</v>
+        <v>2.08050326890502</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.030919160914859</v>
+        <v>0.9454229346892316</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1302528735884416</v>
+        <v>-0.9505120426912363</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.3715954442216122</v>
+        <v>-0.2506050646000431</v>
       </c>
     </row>
     <row r="7">
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.1716737155741574</v>
+        <v>0.145812525535722</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.4484356212995226</v>
+        <v>-0.3375800850202572</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1795,7 @@
         <v>43421.51994212963</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.23245935673567</v>
+        <v>4.219507705176107</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.398594934535208</v>
+        <v>7.074089843477076</v>
       </c>
       <c r="AK8" t="n">
         <v>1.791759469228055</v>
@@ -1813,7 +1813,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM8" t="n">
-        <v>13.30468660086356</v>
+        <v>13.75474545078068</v>
       </c>
       <c r="AN8" t="n">
         <v>13.91082164685909</v>
@@ -1828,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.025823431465835</v>
+        <v>1.986302554232066</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.136144008800468</v>
+        <v>0.9816650350440157</v>
       </c>
     </row>
     <row r="9">
@@ -1962,7 +1962,7 @@
         <v>43433.55394675926</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.23245935673567</v>
+        <v>4.158883083359671</v>
       </c>
       <c r="AH9" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>11.77529742171583</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.76569129060437</v>
+        <v>11.67598977077529</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.1088567597187915</v>
+        <v>-0.25210584717996</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.3651775495957821</v>
+        <v>-0.2665514081065748</v>
       </c>
     </row>
     <row r="10">
@@ -2049,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" t="n">
         <v>2.055555555555555</v>
@@ -2162,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.1524721510802804</v>
+        <v>-0.0324263164388525</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.03274714848147908</v>
+        <v>-0.2618915958345736</v>
       </c>
     </row>
     <row r="11">
@@ -2329,10 +2329,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.1347237518403339</v>
+        <v>0.1605513048001069</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.2534420688861743</v>
+        <v>0.0591218670731167</v>
       </c>
     </row>
     <row r="12">
@@ -2478,7 +2478,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.564949357461537</v>
+        <v>2.639057329615258</v>
       </c>
       <c r="AM12" t="n">
         <v>12.42922019683638</v>
@@ -2496,10 +2496,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.1590163382096454</v>
+        <v>0.2037541142572586</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.163657512236268</v>
+        <v>0.2717289945411874</v>
       </c>
     </row>
     <row r="13">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2663,10 +2663,10 @@
         <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.5923902310393918</v>
+        <v>-0.708233596956404</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.1325660649091467</v>
+        <v>0.1106231432420294</v>
       </c>
     </row>
     <row r="14">
@@ -2830,10 +2830,10 @@
         <v>2</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.1922271668124618</v>
+        <v>0.1930771200891937</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.3711221249915816</v>
+        <v>0.6436207416490982</v>
       </c>
     </row>
     <row r="15">
@@ -2964,7 +2964,7 @@
         <v>43415.51318287037</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.897839799950911</v>
+        <v>5.124490899268929</v>
       </c>
       <c r="AH15" t="n">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM15" t="n">
         <v>12.61154108696612</v>
@@ -2997,10 +2997,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.9484740906820714</v>
+        <v>1.24573885115659</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.6503287169276559</v>
+        <v>0.2691735957390344</v>
       </c>
     </row>
     <row r="16">
@@ -3164,10 +3164,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.1722463516349998</v>
+        <v>0.5239324565246817</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.3577899968525773</v>
+        <v>0.2415903778314333</v>
       </c>
     </row>
     <row r="17">
@@ -3319,7 +3319,7 @@
         <v>13.30468660086356</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.76569129060437</v>
+        <v>11.67598977077529</v>
       </c>
       <c r="AO17" t="n">
         <v>2</v>
@@ -3331,10 +3331,10 @@
         <v>2</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.025823431465835</v>
+        <v>1.699027064500128</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.8988824275220484</v>
+        <v>0.3534764975475098</v>
       </c>
     </row>
     <row r="18">
@@ -3498,10 +3498,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.1422122745779583</v>
+        <v>0.2197217023675584</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.5707579693498027</v>
+        <v>0.1231526954220994</v>
       </c>
     </row>
     <row r="19">
@@ -3665,10 +3665,10 @@
         <v>2</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.1904328285491882</v>
+        <v>0.2566077389066496</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.3905713180718547</v>
+        <v>0.4232755629615034</v>
       </c>
     </row>
     <row r="20">
@@ -3832,10 +3832,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.1698275709378689</v>
+        <v>0.4379233586634264</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.2591600224087084</v>
+        <v>-0.01906854405787406</v>
       </c>
     </row>
     <row r="21">
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P21" t="n">
         <v>2.470588235294118</v>
@@ -3966,7 +3966,7 @@
         <v>43441.62298611111</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.23245935673567</v>
+        <v>4.127134385045092</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
@@ -3999,10 +3999,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.1428136248245002</v>
+        <v>0.1867621841174266</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.6917240792491086</v>
+        <v>-0.01971723571672024</v>
       </c>
     </row>
     <row r="22">
@@ -4166,10 +4166,10 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>-0.5936991268796921</v>
+        <v>-0.6756174023334537</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.0408901381427095</v>
+        <v>0.05477057212481279</v>
       </c>
     </row>
     <row r="23">
@@ -4327,16 +4327,16 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3515112712985166</v>
       </c>
       <c r="AQ23" t="n">
         <v>2</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.2157902771324177</v>
+        <v>0.4406069217728738</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.6095164441346912</v>
+        <v>0.681341760441346</v>
       </c>
     </row>
     <row r="24">
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>0.25</v>
       </c>
       <c r="R24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -4500,10 +4500,10 @@
         <v>2</v>
       </c>
       <c r="AR24" t="n">
-        <v>-0.6451743080724492</v>
+        <v>-1.122957058706054</v>
       </c>
       <c r="AS24" t="n">
-        <v>-0.1538976425912852</v>
+        <v>0.07910832543681445</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.1343527074862496</v>
+        <v>-0.03363569860774603</v>
       </c>
       <c r="AS25" t="n">
-        <v>-0.1405989708218124</v>
+        <v>-0.05501266365947244</v>
       </c>
     </row>
     <row r="26">
@@ -4834,10 +4834,10 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.1593783644142738</v>
+        <v>0.04544551593504703</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.07610327914105658</v>
+        <v>0.3090581852964171</v>
       </c>
     </row>
     <row r="27">
@@ -5001,10 +5001,10 @@
         <v>2</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.1694597933920002</v>
+        <v>0.1478828865904007</v>
       </c>
       <c r="AS27" t="n">
-        <v>-0.6732900025041778</v>
+        <v>-0.5898392847118127</v>
       </c>
     </row>
     <row r="28">
@@ -5168,10 +5168,10 @@
         <v>2</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.1665113753534125</v>
+        <v>0.1847047270337064</v>
       </c>
       <c r="AS28" t="n">
-        <v>-0.6120731017156487</v>
+        <v>-0.5363985416475858</v>
       </c>
     </row>
     <row r="29">
@@ -5335,10 +5335,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR29" t="n">
-        <v>-0.6058730939795661</v>
+        <v>-2.036479775326309</v>
       </c>
       <c r="AS29" t="n">
-        <v>-0.6191349643885902</v>
+        <v>-0.4986298826882787</v>
       </c>
     </row>
     <row r="30">
@@ -5502,10 +5502,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.1376529690638057</v>
+        <v>0.04689418584572384</v>
       </c>
       <c r="AS30" t="n">
-        <v>-0.07946770898151215</v>
+        <v>-0.0674098746686749</v>
       </c>
     </row>
     <row r="31">
@@ -5657,7 +5657,7 @@
         <v>12.25486757159303</v>
       </c>
       <c r="AN31" t="n">
-        <v>12.76569129060437</v>
+        <v>12.42922019683638</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
@@ -5669,10 +5669,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.1394006200754083</v>
+        <v>0.08398069322084357</v>
       </c>
       <c r="AS31" t="n">
-        <v>-0.7943582459193261</v>
+        <v>-0.9332404619611485</v>
       </c>
     </row>
     <row r="32">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43431.48875</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.23245935673567</v>
+        <v>4.219507705176107</v>
       </c>
       <c r="AH32" t="n">
         <v>1</v>
@@ -5836,10 +5836,10 @@
         <v>2</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.1615668916144105</v>
+        <v>0.08245040732841195</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.2856909531996707</v>
+        <v>0.09758626398612541</v>
       </c>
     </row>
     <row r="33">
@@ -6003,10 +6003,10 @@
         <v>2</v>
       </c>
       <c r="AR33" t="n">
-        <v>-0.6094689751039715</v>
+        <v>-0.8320675084960811</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.553687528250642</v>
+        <v>0.2089153917295818</v>
       </c>
     </row>
     <row r="34">
@@ -6167,13 +6167,13 @@
         <v>2.54250295676653</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.20880667536255</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.1644745578455265</v>
+        <v>0.08814936815563817</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.4178029037155991</v>
+        <v>0.6286650169793314</v>
       </c>
     </row>
     <row r="35">
@@ -6331,16 +6331,16 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.870157652698332</v>
+        <v>2.875179851935822</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.1741106881651007</v>
+        <v>0.1079545019756043</v>
       </c>
       <c r="AS35" t="n">
-        <v>-0.04332970167325895</v>
+        <v>0.207884913591185</v>
       </c>
     </row>
     <row r="36">
@@ -6504,10 +6504,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.1400437400754196</v>
+        <v>0.120298482547061</v>
       </c>
       <c r="AS36" t="n">
-        <v>-0.5082033022547889</v>
+        <v>-0.5264800673404793</v>
       </c>
     </row>
     <row r="37">
@@ -6671,10 +6671,10 @@
         <v>2</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.1876940351666737</v>
+        <v>0.1305778598147515</v>
       </c>
       <c r="AS37" t="n">
-        <v>-0.6690553861000603</v>
+        <v>-0.3942266117180557</v>
       </c>
     </row>
     <row r="38">
@@ -6838,10 +6838,10 @@
         <v>2</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.1796242685771585</v>
+        <v>0.1383775237848777</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.4592880351983824</v>
+        <v>0.2835180169142019</v>
       </c>
     </row>
     <row r="39">
@@ -7005,10 +7005,10 @@
         <v>2</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.170544697627493</v>
+        <v>0.1468683326483865</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.4228257496688876</v>
+        <v>0.3946820626029509</v>
       </c>
     </row>
     <row r="40">
@@ -7172,10 +7172,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.1440359626725783</v>
+        <v>0.1518429415182279</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.03656746068101058</v>
+        <v>0.09869429709717181</v>
       </c>
     </row>
     <row r="41">
@@ -7339,10 +7339,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.1440359626725783</v>
+        <v>0.1518429415182279</v>
       </c>
       <c r="AS41" t="n">
-        <v>-0.4166327313458181</v>
+        <v>-0.1368934851008094</v>
       </c>
     </row>
     <row r="42">
@@ -7506,10 +7506,10 @@
         <v>2</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.1833154389850996</v>
+        <v>0.1687371389234066</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.1701330800472255</v>
+        <v>0.2175033768451612</v>
       </c>
     </row>
     <row r="43">
@@ -7560,7 +7560,7 @@
         <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P43" t="n">
         <v>1.761904761904762</v>
@@ -7670,13 +7670,13 @@
         <v>1.838282568880919</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>2.20880667536255</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.2082487469032168</v>
+        <v>0.1870306645449901</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.372553557311658</v>
+        <v>0.08877319365852998</v>
       </c>
     </row>
     <row r="44">
@@ -7840,10 +7840,10 @@
         <v>2</v>
       </c>
       <c r="AR44" t="n">
-        <v>0.1798020454274457</v>
+        <v>0.2049497171644604</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.3104087411836466</v>
+        <v>0.4121812375365039</v>
       </c>
     </row>
     <row r="45">
@@ -8007,10 +8007,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.153193013060436</v>
+        <v>0.2993929757203437</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.4836231780199886</v>
+        <v>0.1340295822767384</v>
       </c>
     </row>
     <row r="46">
@@ -8174,10 +8174,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.1678716208687483</v>
+        <v>0.2856661978831841</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.2929468228736265</v>
+        <v>0.3914817087115868</v>
       </c>
     </row>
     <row r="47">
@@ -8341,10 +8341,10 @@
         <v>2</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.2089335756456057</v>
+        <v>0.4238174170906351</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.3979843933978233</v>
+        <v>0.4291500726140568</v>
       </c>
     </row>
     <row r="48">
@@ -8508,10 +8508,10 @@
         <v>2</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.2295460845574301</v>
+        <v>0.6288949097847061</v>
       </c>
       <c r="AS48" t="n">
-        <v>-0.3177404163965999</v>
+        <v>-0.1519995275431004</v>
       </c>
     </row>
     <row r="49">
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
@@ -8571,7 +8571,7 @@
         <v>0.75</v>
       </c>
       <c r="R49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -8660,10 +8660,10 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM49" t="n">
-        <v>13.30468660086356</v>
+        <v>13.75474545078068</v>
       </c>
       <c r="AN49" t="n">
-        <v>14.31628645193719</v>
+        <v>14.4916654520031</v>
       </c>
       <c r="AO49" t="n">
         <v>2</v>
@@ -8675,10 +8675,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.025823431465835</v>
+        <v>3.176616083936248</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.136144008800468</v>
+        <v>1.095641075476302</v>
       </c>
     </row>
     <row r="50">
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ50" t="n">
         <v>5.707110264748875</v>
@@ -8824,7 +8824,7 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM50" t="n">
         <v>12.20607764551767</v>
@@ -8842,10 +8842,10 @@
         <v>1.645600194457937</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.1069620921022855</v>
+        <v>0.05305297230865898</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.07777594444829806</v>
+        <v>-0.1827258967068793</v>
       </c>
     </row>
     <row r="51">
@@ -8896,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="O51" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P51" t="n">
         <v>1.148148148148148</v>
@@ -8905,7 +8905,7 @@
         <v>0.5</v>
       </c>
       <c r="R51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM51" t="n">
         <v>12.20607764551767</v>
@@ -9009,10 +9009,10 @@
         <v>1.425131572873186</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.005380273168183</v>
+        <v>0.721627556616918</v>
       </c>
       <c r="AS51" t="n">
-        <v>-0.4605466874651981</v>
+        <v>-0.9143122686891549</v>
       </c>
     </row>
     <row r="52">
@@ -9066,7 +9066,7 @@
         <v>47</v>
       </c>
       <c r="P52" t="n">
-        <v>2.979999999999999</v>
+        <v>3.544146825396827</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AM52" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN52" t="n">
         <v>13.30468660086356</v>
@@ -9176,10 +9176,10 @@
         <v>1</v>
       </c>
       <c r="AR52" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.769913579739457</v>
       </c>
       <c r="AS52" t="n">
-        <v>-1.067611178260432</v>
+        <v>-1.123252987871938</v>
       </c>
     </row>
     <row r="53">
@@ -9328,7 +9328,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM53" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN53" t="n">
         <v>13.99783294809122</v>
@@ -9343,10 +9343,10 @@
         <v>1</v>
       </c>
       <c r="AR53" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS53" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.4855667549046035</v>
       </c>
     </row>
     <row r="54">
@@ -9400,7 +9400,7 @@
         <v>52</v>
       </c>
       <c r="P54" t="n">
-        <v>2.979999999999999</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM54" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN54" t="n">
         <v>14.07787559166224</v>
@@ -9510,10 +9510,10 @@
         <v>1</v>
       </c>
       <c r="AR54" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS54" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.6929266572964223</v>
       </c>
     </row>
     <row r="55">
@@ -9567,13 +9567,13 @@
         <v>45</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -9659,10 +9659,10 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL55" t="n">
-        <v>2.564949357461537</v>
+        <v>2.70805020110221</v>
       </c>
       <c r="AM55" t="n">
-        <v>9.903537551286171</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN55" t="n">
         <v>14.15198350887095</v>
@@ -9677,10 +9677,10 @@
         <v>1</v>
       </c>
       <c r="AR55" t="n">
-        <v>-1.102911621912203</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS55" t="n">
-        <v>-1.067611178260432</v>
+        <v>-1.290693726829295</v>
       </c>
     </row>
     <row r="56">
@@ -9829,7 +9829,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM56" t="n">
-        <v>10.59665973278358</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN56" t="n">
         <v>13.81551155796377</v>
@@ -9838,16 +9838,16 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.870157652698332</v>
+        <v>2.90144003072598</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR56" t="n">
-        <v>-0.3209068669769892</v>
+        <v>-0.6697397720616727</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.01953232948275399</v>
+        <v>-0.08540869756937142</v>
       </c>
     </row>
     <row r="57">
@@ -9996,7 +9996,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM57" t="n">
-        <v>10.59665973278358</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN57" t="n">
         <v>14.03865490927816</v>
@@ -10011,10 +10011,10 @@
         <v>1</v>
       </c>
       <c r="AR57" t="n">
-        <v>-0.9170406951008259</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS57" t="n">
-        <v>-0.5736472558197895</v>
+        <v>-0.5580349114721588</v>
       </c>
     </row>
     <row r="58">
@@ -10178,10 +10178,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR58" t="n">
-        <v>-1.009801877370067</v>
+        <v>-1.516968476606871</v>
       </c>
       <c r="AS58" t="n">
-        <v>-0.1160616206590377</v>
+        <v>-0.1535742435814668</v>
       </c>
     </row>
     <row r="59">
@@ -10235,7 +10235,7 @@
         <v>58</v>
       </c>
       <c r="P59" t="n">
-        <v>2.979999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
         <v>0.25</v>
@@ -10312,7 +10312,7 @@
         <v>43431.29625</v>
       </c>
       <c r="AG59" t="n">
-        <v>4.897839799950911</v>
+        <v>5.023880520846276</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
@@ -10345,10 +10345,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR59" t="n">
-        <v>-1.020969848313314</v>
+        <v>-1.506524689428157</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.2169351551573222</v>
+        <v>-0.1026426967443044</v>
       </c>
     </row>
     <row r="60">
@@ -10512,10 +10512,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR60" t="n">
-        <v>-0.8001955417983798</v>
+        <v>-1.306834245524784</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.06072961494721739</v>
+        <v>-0.6155062522282168</v>
       </c>
     </row>
     <row r="61">
@@ -10679,10 +10679,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR61" t="n">
-        <v>-0.02578934314938507</v>
+        <v>-0.3957212924585987</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.1136597668482774</v>
+        <v>0.3769094405627499</v>
       </c>
     </row>
     <row r="62">
@@ -10840,16 +10840,16 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.870157652698332</v>
+        <v>2.875247517661045</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR62" t="n">
-        <v>0.06255792691672035</v>
+        <v>-0.2855116342082216</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.006369854614545714</v>
+        <v>0.008559089342529302</v>
       </c>
     </row>
     <row r="63">
@@ -11007,16 +11007,16 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.870157652698332</v>
+        <v>3.370684507445318</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.732050807568877</v>
       </c>
       <c r="AR63" t="n">
-        <v>0.05320330068338681</v>
+        <v>-0.1972276650145705</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.1796596177734147</v>
+        <v>0.2684500619326592</v>
       </c>
     </row>
     <row r="64">
@@ -11180,10 +11180,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR64" t="n">
-        <v>0.2306215235529028</v>
+        <v>-0.0925492452140538</v>
       </c>
       <c r="AS64" t="n">
-        <v>-0.004550118766176933</v>
+        <v>0.0145844355978179</v>
       </c>
     </row>
     <row r="65">
@@ -11243,7 +11243,7 @@
         <v>0.75</v>
       </c>
       <c r="R65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -11341,16 +11341,16 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.870157652698332</v>
+        <v>3.442655309613876</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
       </c>
       <c r="AR65" t="n">
-        <v>0.1171986467657938</v>
+        <v>-0.1134613090145128</v>
       </c>
       <c r="AS65" t="n">
-        <v>-0.02027630785479606</v>
+        <v>0.3192643255761817</v>
       </c>
     </row>
     <row r="66">
@@ -11410,7 +11410,7 @@
         <v>0.25</v>
       </c>
       <c r="R66" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -11514,10 +11514,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR66" t="n">
-        <v>0.3131188113321894</v>
+        <v>-0.01214420610838736</v>
       </c>
       <c r="AS66" t="n">
-        <v>-0.3037487118037057</v>
+        <v>-0.1942597920147842</v>
       </c>
     </row>
     <row r="67">
@@ -11660,7 +11660,7 @@
         <v>5.303304908059076</v>
       </c>
       <c r="AK67" t="n">
-        <v>2.19722457733622</v>
+        <v>2.302585092994046</v>
       </c>
       <c r="AL67" t="n">
         <v>1.945910149055313</v>
@@ -11681,10 +11681,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR67" t="n">
-        <v>0.365061610694006</v>
+        <v>0.0303283671194582</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.9266267152429968</v>
+        <v>0.2477697690929618</v>
       </c>
     </row>
     <row r="68">
@@ -11735,16 +11735,16 @@
         <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P68" t="n">
-        <v>2.979999999999999</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="Q68" t="n">
         <v>0.5</v>
       </c>
       <c r="R68" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -11848,10 +11848,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR68" t="n">
-        <v>0.3689099750440866</v>
+        <v>0.02672954881462639</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.8348789722665122</v>
+        <v>0.8407300992793497</v>
       </c>
     </row>
     <row r="69">
@@ -11911,7 +11911,7 @@
         <v>0.5</v>
       </c>
       <c r="R69" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43461.32179398148</v>
       </c>
       <c r="AG69" t="n">
-        <v>4.23245935673567</v>
+        <v>4.219507705176107</v>
       </c>
       <c r="AH69" t="n">
         <v>0</v>
@@ -12015,10 +12015,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR69" t="n">
-        <v>0.4684258850048024</v>
+        <v>0.1264960905224132</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.6426097256685872</v>
+        <v>0.5922351542026071</v>
       </c>
     </row>
     <row r="70">
@@ -12182,10 +12182,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR70" t="n">
-        <v>0.4645775206547218</v>
+        <v>0.1300949088272451</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.7170138461777893</v>
+        <v>0.05684691885020556</v>
       </c>
     </row>
     <row r="71">
@@ -12331,7 +12331,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM71" t="n">
         <v>12.61154108696612</v>
@@ -12349,10 +12349,10 @@
         <v>1.645600194457937</v>
       </c>
       <c r="AR71" t="n">
-        <v>0.5813443942860907</v>
+        <v>1.204195993512541</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.4292975948747531</v>
+        <v>-0.0758084674784454</v>
       </c>
     </row>
     <row r="72">
@@ -12406,7 +12406,7 @@
         <v>53</v>
       </c>
       <c r="P72" t="n">
-        <v>2.979999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="n">
         <v>0.75</v>
@@ -12516,10 +12516,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR72" t="n">
-        <v>-0.01210983806958438</v>
+        <v>0.3873728325670264</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.7551712183912875</v>
+        <v>0.5387607824677428</v>
       </c>
     </row>
     <row r="73">
@@ -12683,10 +12683,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR73" t="n">
-        <v>0.552883297689696</v>
+        <v>0.2050684925051817</v>
       </c>
       <c r="AS73" t="n">
-        <v>-0.05101369840315114</v>
+        <v>0.1776841681989502</v>
       </c>
     </row>
     <row r="74">
@@ -12850,10 +12850,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR74" t="n">
-        <v>0.6184834462987664</v>
+        <v>0.2769315731835554</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.315816836311458</v>
+        <v>0.3529429693252082</v>
       </c>
     </row>
     <row r="75">
@@ -12864,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -13017,10 +13017,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR75" t="n">
-        <v>-0.03680972820600214</v>
+        <v>0.5270070919699649</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.8535923989989455</v>
+        <v>0.6042170560664613</v>
       </c>
     </row>
     <row r="76">
@@ -13062,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
@@ -13184,10 +13184,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR76" t="n">
-        <v>-0.03680972820600214</v>
+        <v>0.5270070919699649</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.9785787638669726</v>
+        <v>0.2498830773885822</v>
       </c>
     </row>
     <row r="77">
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
@@ -13318,7 +13318,7 @@
         <v>43421.31060185185</v>
       </c>
       <c r="AG77" t="n">
-        <v>4.23245935673567</v>
+        <v>4.089044363603774</v>
       </c>
       <c r="AH77" t="n">
         <v>0</v>
@@ -13330,10 +13330,10 @@
         <v>5.860786223465865</v>
       </c>
       <c r="AK77" t="n">
-        <v>2.19722457733622</v>
+        <v>2.397895272798371</v>
       </c>
       <c r="AL77" t="n">
-        <v>1.09861228866811</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM77" t="n">
         <v>12.89922232608699</v>
@@ -13351,10 +13351,10 @@
         <v>2</v>
       </c>
       <c r="AR77" t="n">
-        <v>0.9796891021854968</v>
+        <v>1.441700601200149</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.136144008800468</v>
+        <v>0.389621268687</v>
       </c>
     </row>
     <row r="78">
@@ -13485,7 +13485,7 @@
         <v>43423.31658564815</v>
       </c>
       <c r="AG78" t="n">
-        <v>4.897839799950911</v>
+        <v>5.010635294096256</v>
       </c>
       <c r="AH78" t="n">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>2</v>
       </c>
       <c r="AR78" t="n">
-        <v>0.9770269085206007</v>
+        <v>1.44419016570618</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.844214704832873</v>
+        <v>0.3162991238108024</v>
       </c>
     </row>
     <row r="79">
@@ -13685,10 +13685,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR79" t="n">
-        <v>0.7159950131097992</v>
+        <v>1.648174541685137</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.2785820257441216</v>
+        <v>0.7272616891565739</v>
       </c>
     </row>
     <row r="80">
@@ -13739,7 +13739,7 @@
         <v>3</v>
       </c>
       <c r="O80" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P80" t="n">
         <v>1.875</v>
@@ -13828,7 +13828,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ80" t="n">
-        <v>6.398594934535208</v>
+        <v>6.55250788703459</v>
       </c>
       <c r="AK80" t="n">
         <v>1.945910149055313</v>
@@ -13852,10 +13852,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR80" t="n">
-        <v>0.8190001139573019</v>
+        <v>0.5554451041945812</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.8019018928313637</v>
+        <v>0.8094131797988778</v>
       </c>
     </row>
     <row r="81">
@@ -13909,7 +13909,7 @@
         <v>53</v>
       </c>
       <c r="P81" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.6116071428571412</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -13995,10 +13995,10 @@
         <v>1.09861228866811</v>
       </c>
       <c r="AJ81" t="n">
-        <v>6.398594934535208</v>
+        <v>6.55250788703459</v>
       </c>
       <c r="AK81" t="n">
-        <v>2.19722457733622</v>
+        <v>2.302585092994046</v>
       </c>
       <c r="AL81" t="n">
         <v>1.791759469228055</v>
@@ -14019,10 +14019,10 @@
         <v>2</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.025823431465835</v>
+        <v>1.719487830691696</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.136144008800468</v>
+        <v>0.5701390113684346</v>
       </c>
     </row>
     <row r="82">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
@@ -14073,7 +14073,7 @@
         <v>4</v>
       </c>
       <c r="O82" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P82" t="n">
         <v>2.611111111111111</v>
@@ -14162,7 +14162,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AJ82" t="n">
-        <v>6.398594934535208</v>
+        <v>7.074089843477076</v>
       </c>
       <c r="AK82" t="n">
         <v>2.079441541679836</v>
@@ -14171,7 +14171,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AM82" t="n">
-        <v>13.30468660086356</v>
+        <v>13.75474545078068</v>
       </c>
       <c r="AN82" t="n">
         <v>14.15198350887095</v>
@@ -14180,16 +14180,16 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3978362327641642</v>
       </c>
       <c r="AQ82" t="n">
         <v>2</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.025823431465835</v>
+        <v>2.047479703029909</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.027676961030374</v>
+        <v>0.5895231851307678</v>
       </c>
     </row>
     <row r="83">
@@ -14329,16 +14329,16 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ83" t="n">
-        <v>3.931825632724326</v>
+        <v>3.713572066704308</v>
       </c>
       <c r="AK83" t="n">
         <v>1.6094379124341</v>
       </c>
       <c r="AL83" t="n">
-        <v>2.564949357461537</v>
+        <v>2.70805020110221</v>
       </c>
       <c r="AM83" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN83" t="n">
         <v>14.22097633273888</v>
@@ -14353,10 +14353,10 @@
         <v>1</v>
       </c>
       <c r="AR83" t="n">
-        <v>-2.952279807941121</v>
+        <v>-2.691344173632066</v>
       </c>
       <c r="AS83" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.9305056979758952</v>
       </c>
     </row>
     <row r="84">
@@ -14496,7 +14496,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ84" t="n">
-        <v>3.931825632724326</v>
+        <v>3.713572066704308</v>
       </c>
       <c r="AK84" t="n">
         <v>1.791759469228055</v>
@@ -14505,7 +14505,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM84" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN84" t="n">
         <v>14.07787559166224</v>
@@ -14520,10 +14520,10 @@
         <v>1</v>
       </c>
       <c r="AR84" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.78023122056588</v>
       </c>
       <c r="AS84" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.7361015836218373</v>
       </c>
     </row>
     <row r="85">
@@ -14663,7 +14663,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ85" t="n">
-        <v>3.931825632724326</v>
+        <v>3.42881096686854</v>
       </c>
       <c r="AK85" t="n">
         <v>1.6094379124341</v>
@@ -14672,7 +14672,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM85" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN85" t="n">
         <v>14.07787559166224</v>
@@ -14687,10 +14687,10 @@
         <v>1</v>
       </c>
       <c r="AR85" t="n">
-        <v>-2.952279807941121</v>
+        <v>-2.698739213795889</v>
       </c>
       <c r="AS85" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.4401307881352824</v>
       </c>
     </row>
     <row r="86">
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM86" t="n">
-        <v>10.30898599342208</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN86" t="n">
         <v>14.28551481220982</v>
@@ -14848,16 +14848,16 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3830018653917177</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
       </c>
       <c r="AR86" t="n">
-        <v>-0.9991568198065524</v>
+        <v>-1.769913579739457</v>
       </c>
       <c r="AS86" t="n">
-        <v>-0.1385079192577474</v>
+        <v>-0.6367228405959119</v>
       </c>
     </row>
     <row r="87">
@@ -15006,7 +15006,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM87" t="n">
-        <v>10.59665973278358</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN87" t="n">
         <v>13.81551155796377</v>
@@ -15021,10 +15021,10 @@
         <v>1</v>
       </c>
       <c r="AR87" t="n">
-        <v>-0.9170406951008259</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS87" t="n">
-        <v>-0.5765582564096297</v>
+        <v>-0.7347677791803441</v>
       </c>
     </row>
     <row r="88">
@@ -15188,10 +15188,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR88" t="n">
-        <v>-0.1479583346362869</v>
+        <v>-0.5300721245478286</v>
       </c>
       <c r="AS88" t="n">
-        <v>-0.3205309634171716</v>
+        <v>-0.3183436332534165</v>
       </c>
     </row>
     <row r="89">
@@ -15355,10 +15355,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR89" t="n">
-        <v>-0.8407712445825751</v>
+        <v>-1.384279712577555</v>
       </c>
       <c r="AS89" t="n">
-        <v>-0.6243712360862558</v>
+        <v>-0.5423494559788644</v>
       </c>
     </row>
     <row r="90">
@@ -15489,7 +15489,7 @@
         <v>43415.43997685185</v>
       </c>
       <c r="AG90" t="n">
-        <v>4.897839799950911</v>
+        <v>5.124490899268929</v>
       </c>
       <c r="AH90" t="n">
         <v>0</v>
@@ -15504,7 +15504,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL90" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM90" t="n">
         <v>11.51293546492023</v>
@@ -15516,16 +15516,16 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.341803484516867</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.732050807568877</v>
       </c>
       <c r="AR90" t="n">
-        <v>-0.6687030501562867</v>
+        <v>-1.463824255347008</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.1507689570537036</v>
+        <v>-0.1022889882871453</v>
       </c>
     </row>
     <row r="91">
@@ -15689,10 +15689,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR91" t="n">
-        <v>0.1795646955284889</v>
+        <v>-0.1682101829587935</v>
       </c>
       <c r="AS91" t="n">
-        <v>-0.2982581386361751</v>
+        <v>0.1721255480554832</v>
       </c>
     </row>
     <row r="92">
@@ -15703,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -15856,10 +15856,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR92" t="n">
-        <v>0.2318085235810523</v>
+        <v>-0.09365927457732098</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.2757058734067819</v>
+        <v>0.167786265359153</v>
       </c>
     </row>
     <row r="93">
@@ -15870,7 +15870,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -16023,10 +16023,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR93" t="n">
-        <v>0.2318085235810523</v>
+        <v>-0.09365927457732098</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.306725790502666</v>
+        <v>-0.1431896091128943</v>
       </c>
     </row>
     <row r="94">
@@ -16190,10 +16190,10 @@
         <v>1</v>
       </c>
       <c r="AR94" t="n">
-        <v>0.2111823768272703</v>
+        <v>-0.0584983726248468</v>
       </c>
       <c r="AS94" t="n">
-        <v>-0.8271422286504065</v>
+        <v>-0.7764524404621973</v>
       </c>
     </row>
     <row r="95">
@@ -16336,7 +16336,7 @@
         <v>4.948759890378168</v>
       </c>
       <c r="AK95" t="n">
-        <v>1.6094379124341</v>
+        <v>1.386294361119891</v>
       </c>
       <c r="AL95" t="n">
         <v>2.397895272798371</v>
@@ -16357,10 +16357,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.025823431465835</v>
+        <v>0.9337242429131449</v>
       </c>
       <c r="AS95" t="n">
-        <v>-0.7893157784487906</v>
+        <v>-0.4728675423642987</v>
       </c>
     </row>
     <row r="96">
@@ -16411,10 +16411,10 @@
         <v>3</v>
       </c>
       <c r="O96" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P96" t="n">
-        <v>2.979999999999999</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="Q96" t="n">
         <v>0.75</v>
@@ -16524,10 +16524,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR96" t="n">
-        <v>0.3637388123784482</v>
+        <v>0.0318185679728894</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.1694747327463045</v>
+        <v>0.3257222991128629</v>
       </c>
     </row>
     <row r="97">
@@ -16691,10 +16691,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR97" t="n">
-        <v>0.3689099750440866</v>
+        <v>0.02672954881462639</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.4276989051390322</v>
+        <v>0.1349261735351406</v>
       </c>
     </row>
     <row r="98">
@@ -16705,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
@@ -16858,10 +16858,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR98" t="n">
-        <v>0.3601066773457784</v>
+        <v>0.03496199928384755</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.136144008800468</v>
+        <v>0.3738880522187793</v>
       </c>
     </row>
     <row r="99">
@@ -17025,10 +17025,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR99" t="n">
-        <v>0.4198997433221248</v>
+        <v>0.1000745560248724</v>
       </c>
       <c r="AS99" t="n">
-        <v>-0.3630420217381852</v>
+        <v>-0.3178615069639438</v>
       </c>
     </row>
     <row r="100">
@@ -17192,10 +17192,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR100" t="n">
-        <v>0.4357448866178818</v>
+        <v>0.122034761027057</v>
       </c>
       <c r="AS100" t="n">
-        <v>-0.8996196233569589</v>
+        <v>-0.6257813045526061</v>
       </c>
     </row>
     <row r="101">
@@ -17359,10 +17359,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR101" t="n">
-        <v>0.7759125049385124</v>
+        <v>1.147981374430971</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.4806025080661035</v>
+        <v>0.5504359483528476</v>
       </c>
     </row>
     <row r="102">
@@ -17508,7 +17508,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AL102" t="n">
-        <v>2.564949357461537</v>
+        <v>2.70805020110221</v>
       </c>
       <c r="AM102" t="n">
         <v>12.42922019683638</v>
@@ -17526,10 +17526,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR102" t="n">
-        <v>0.463254722339164</v>
+        <v>0.1315851096806763</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.07352904677359073</v>
+        <v>0.3806390218074578</v>
       </c>
     </row>
     <row r="103">
@@ -17660,7 +17660,7 @@
         <v>43437.28805555555</v>
       </c>
       <c r="AG103" t="n">
-        <v>4.897839799950911</v>
+        <v>5.099866427824199</v>
       </c>
       <c r="AH103" t="n">
         <v>0</v>
@@ -17687,16 +17687,16 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.870157652698332</v>
+        <v>2.870941912841384</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR103" t="n">
-        <v>0.4684258850048024</v>
+        <v>0.1264960905224132</v>
       </c>
       <c r="AS103" t="n">
-        <v>-0.08099669144303659</v>
+        <v>0.3994171404474721</v>
       </c>
     </row>
     <row r="104">
@@ -17860,10 +17860,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.4684258850048024</v>
+        <v>0.1264960905224132</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.4966013031784104</v>
+        <v>0.5970922963608228</v>
       </c>
     </row>
     <row r="105">
@@ -17994,7 +17994,7 @@
         <v>43451.60998842592</v>
       </c>
       <c r="AG105" t="n">
-        <v>4.23245935673567</v>
+        <v>4.189654742026425</v>
       </c>
       <c r="AH105" t="n">
         <v>0</v>
@@ -18027,10 +18027,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR105" t="n">
-        <v>0.4914082052146603</v>
+        <v>0.1717631126453921</v>
       </c>
       <c r="AS105" t="n">
-        <v>-0.5296049216770558</v>
+        <v>-0.5500518304902607</v>
       </c>
     </row>
     <row r="106">
@@ -18041,7 +18041,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>45</v>
       </c>
       <c r="P106" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q106" t="n">
         <v>0.25</v>
@@ -18194,10 +18194,10 @@
         <v>1</v>
       </c>
       <c r="AR106" t="n">
-        <v>0.354559591332295</v>
+        <v>0.2784835030148745</v>
       </c>
       <c r="AS106" t="n">
-        <v>-0.6341060055770277</v>
+        <v>-0.6185164456608175</v>
       </c>
     </row>
     <row r="107">
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -18361,10 +18361,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR107" t="n">
-        <v>1.025823431465835</v>
+        <v>1.258604000338373</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.136144008800468</v>
+        <v>1.101550181595083</v>
       </c>
     </row>
     <row r="108">
@@ -18418,7 +18418,7 @@
         <v>54</v>
       </c>
       <c r="P108" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -18528,10 +18528,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR108" t="n">
-        <v>0.7329707711133941</v>
+        <v>1.543296758671519</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.9340797210230047</v>
+        <v>0.378952036120543</v>
       </c>
     </row>
     <row r="109">
@@ -18582,16 +18582,16 @@
         <v>4</v>
       </c>
       <c r="O109" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P109" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="Q109" t="n">
         <v>0.75</v>
       </c>
       <c r="R109" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>12.89922232608699</v>
       </c>
       <c r="AN109" t="n">
-        <v>14.31628645193719</v>
+        <v>14.40329777842179</v>
       </c>
       <c r="AO109" t="n">
         <v>2</v>
@@ -18695,10 +18695,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR109" t="n">
-        <v>0.7368277390152311</v>
+        <v>1.539689894709693</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.02686387023376</v>
+        <v>1.196730604394323</v>
       </c>
     </row>
     <row r="110">
@@ -18856,16 +18856,16 @@
         <v>2</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.37463105855764</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.732050807568877</v>
       </c>
       <c r="AR110" t="n">
-        <v>0.7329707711133941</v>
+        <v>1.543296758671519</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.8044633334722209</v>
+        <v>0.6392942031358657</v>
       </c>
     </row>
     <row r="111">
@@ -19029,10 +19029,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR111" t="n">
-        <v>0.7280857888011292</v>
+        <v>1.547917044692124</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.8842910293220146</v>
+        <v>0.3094729299708945</v>
       </c>
     </row>
     <row r="112">
@@ -19184,7 +19184,7 @@
         <v>12.89922232608699</v>
       </c>
       <c r="AN112" t="n">
-        <v>14.31628645193719</v>
+        <v>14.40329777842179</v>
       </c>
       <c r="AO112" t="n">
         <v>2</v>
@@ -19196,10 +19196,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR112" t="n">
-        <v>-0.04811258384495137</v>
+        <v>0.6384800526315592</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.099989408809242</v>
+        <v>0.5015552862074464</v>
       </c>
     </row>
     <row r="113">
@@ -19250,7 +19250,7 @@
         <v>3</v>
       </c>
       <c r="O113" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P113" t="n">
         <v>2.578947368421053</v>
@@ -19339,7 +19339,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AJ113" t="n">
-        <v>6.398594934535208</v>
+        <v>6.55250788703459</v>
       </c>
       <c r="AK113" t="n">
         <v>1.945910149055313</v>
@@ -19348,10 +19348,10 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM113" t="n">
-        <v>13.30468660086356</v>
+        <v>13.45883704259595</v>
       </c>
       <c r="AN113" t="n">
-        <v>14.31628645193719</v>
+        <v>14.5086582385241</v>
       </c>
       <c r="AO113" t="n">
         <v>0</v>
@@ -19363,10 +19363,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR113" t="n">
-        <v>-0.1006624618345745</v>
+        <v>1.11049650229434</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.136144008800468</v>
+        <v>1.536936252296358</v>
       </c>
     </row>
     <row r="114">
@@ -19515,7 +19515,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM114" t="n">
-        <v>13.30468660086356</v>
+        <v>13.59236825664928</v>
       </c>
       <c r="AN114" t="n">
         <v>14.28551481220982</v>
@@ -19530,10 +19530,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR114" t="n">
-        <v>0.6693226449426732</v>
+        <v>2.12659496418535</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.10504849534241</v>
+        <v>0.9195802680975517</v>
       </c>
     </row>
     <row r="115">
@@ -19670,10 +19670,10 @@
         <v>0</v>
       </c>
       <c r="AI115" t="n">
-        <v>1.386294361119891</v>
+        <v>1.6094379124341</v>
       </c>
       <c r="AJ115" t="n">
-        <v>6.398594934535208</v>
+        <v>6.90875477931522</v>
       </c>
       <c r="AK115" t="n">
         <v>1.945910149055313</v>
@@ -19682,7 +19682,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM115" t="n">
-        <v>13.30468660086356</v>
+        <v>13.59236825664928</v>
       </c>
       <c r="AN115" t="n">
         <v>14.28551481220982</v>
@@ -19697,10 +19697,10 @@
         <v>2</v>
       </c>
       <c r="AR115" t="n">
-        <v>1.025823431465835</v>
+        <v>1.936614405374815</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.136144008800468</v>
+        <v>1.202599544120665</v>
       </c>
     </row>
     <row r="116">
@@ -19754,7 +19754,7 @@
         <v>57</v>
       </c>
       <c r="P116" t="n">
-        <v>2.979999999999999</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="Q116" t="n">
         <v>0.75</v>
@@ -19840,7 +19840,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AJ116" t="n">
-        <v>6.398594934535208</v>
+        <v>7.074089843477076</v>
       </c>
       <c r="AK116" t="n">
         <v>2.079441541679836</v>
@@ -19849,10 +19849,10 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM116" t="n">
-        <v>13.30468660086356</v>
+        <v>13.75474545078068</v>
       </c>
       <c r="AN116" t="n">
-        <v>14.31628645193719</v>
+        <v>14.91412317996566</v>
       </c>
       <c r="AO116" t="n">
         <v>2</v>
@@ -19864,10 +19864,10 @@
         <v>2</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.025823431465835</v>
+        <v>2.958592656096094</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.136144008800468</v>
+        <v>1.778705315985852</v>
       </c>
     </row>
     <row r="117">
@@ -19921,7 +19921,7 @@
         <v>52</v>
       </c>
       <c r="P117" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -20007,7 +20007,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ117" t="n">
-        <v>3.931825632724326</v>
+        <v>3.713572066704308</v>
       </c>
       <c r="AK117" t="n">
         <v>1.6094379124341</v>
@@ -20016,7 +20016,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM117" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN117" t="n">
         <v>13.99783294809122</v>
@@ -20031,10 +20031,10 @@
         <v>1</v>
       </c>
       <c r="AR117" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.78023122056588</v>
       </c>
       <c r="AS117" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.3255712244258352</v>
       </c>
     </row>
     <row r="118">
@@ -20094,7 +20094,7 @@
         <v>0.25</v>
       </c>
       <c r="R118" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -20198,10 +20198,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR118" t="n">
-        <v>-1.003673830005978</v>
+        <v>-1.522699152556588</v>
       </c>
       <c r="AS118" t="n">
-        <v>-0.726126569694771</v>
+        <v>-0.7497532383767403</v>
       </c>
     </row>
     <row r="119">
@@ -20365,10 +20365,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR119" t="n">
-        <v>-0.1442990996249151</v>
+        <v>-0.5334940775498437</v>
       </c>
       <c r="AS119" t="n">
-        <v>-0.4119253820299797</v>
+        <v>-0.1404864701097853</v>
       </c>
     </row>
     <row r="120">
@@ -20532,10 +20532,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR120" t="n">
-        <v>0.04401609485766776</v>
+        <v>-0.2684253207538616</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.3654810562998207</v>
+        <v>0.3408118596949574</v>
       </c>
     </row>
     <row r="121">
@@ -20699,10 +20699,10 @@
         <v>1</v>
       </c>
       <c r="AR121" t="n">
-        <v>0.2187516404364353</v>
+        <v>-0.01795809463073071</v>
       </c>
       <c r="AS121" t="n">
-        <v>-0.3420918713549043</v>
+        <v>-0.2663801215191063</v>
       </c>
     </row>
     <row r="122">
@@ -20713,7 +20713,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -20866,10 +20866,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR122" t="n">
-        <v>0.3141167438772569</v>
+        <v>-0.01282424901101613</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.04628275306670418</v>
+        <v>-0.3890576777210062</v>
       </c>
     </row>
     <row r="123">
@@ -21033,10 +21033,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR123" t="n">
-        <v>0.3131188113321894</v>
+        <v>-0.01214420610838736</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.5515120640124651</v>
+        <v>0.2043388472496179</v>
       </c>
     </row>
     <row r="124">
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AR124" t="n">
-        <v>0.2771339992186694</v>
+        <v>0.1306367048331614</v>
       </c>
       <c r="AS124" t="n">
-        <v>-0.04771759896444616</v>
+        <v>-0.3481109845182709</v>
       </c>
     </row>
     <row r="125">
@@ -21361,16 +21361,16 @@
         <v>2</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3357592089059304</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR125" t="n">
-        <v>0.4520410409291828</v>
+        <v>0.142071643244461</v>
       </c>
       <c r="AS125" t="n">
-        <v>-0.1169340268465466</v>
+        <v>0.1157708388123784</v>
       </c>
     </row>
     <row r="126">
@@ -21522,7 +21522,7 @@
         <v>12.42922019683638</v>
       </c>
       <c r="AN126" t="n">
-        <v>14.31628645193719</v>
+        <v>14.40329777842179</v>
       </c>
       <c r="AO126" t="n">
         <v>2</v>
@@ -21534,10 +21534,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR126" t="n">
-        <v>0.4645775206547218</v>
+        <v>0.1300949088272451</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.3294160998447874</v>
+        <v>0.2077476834994094</v>
       </c>
     </row>
     <row r="127">
@@ -21701,10 +21701,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR127" t="n">
-        <v>-0.6355706362173762</v>
+        <v>-1.110403687489154</v>
       </c>
       <c r="AS127" t="n">
-        <v>-0.4576617601669488</v>
+        <v>-0.4181001777037798</v>
       </c>
     </row>
     <row r="128">
@@ -21850,13 +21850,13 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AL128" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM128" t="n">
         <v>12.10071768541247</v>
       </c>
       <c r="AN128" t="n">
-        <v>12.76569129060437</v>
+        <v>12.73670383776449</v>
       </c>
       <c r="AO128" t="n">
         <v>0</v>
@@ -21868,10 +21868,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR128" t="n">
-        <v>0.2975714034433484</v>
+        <v>0.002648213728115328</v>
       </c>
       <c r="AS128" t="n">
-        <v>-1.066372602842753</v>
+        <v>-1.178359263658006</v>
       </c>
     </row>
     <row r="129">
@@ -21925,7 +21925,7 @@
         <v>46</v>
       </c>
       <c r="P129" t="n">
-        <v>2.979999999999999</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="Q129" t="n">
         <v>0.25</v>
@@ -22035,10 +22035,10 @@
         <v>1</v>
       </c>
       <c r="AR129" t="n">
-        <v>0.2396549497291484</v>
+        <v>0.04983139197863443</v>
       </c>
       <c r="AS129" t="n">
-        <v>-0.219285648009271</v>
+        <v>-0.3239698814910134</v>
       </c>
     </row>
     <row r="130">
@@ -22202,10 +22202,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR130" t="n">
-        <v>0.365061610694006</v>
+        <v>0.0303283671194582</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.3234460591793081</v>
+        <v>0.5831054036584358</v>
       </c>
     </row>
     <row r="131">
@@ -22369,10 +22369,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR131" t="n">
-        <v>0.746582629639525</v>
+        <v>1.429664521730347</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.4566911363865865</v>
+        <v>0.9804522390240964</v>
       </c>
     </row>
     <row r="132">
@@ -22512,7 +22512,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ132" t="n">
-        <v>3.931825632724326</v>
+        <v>3.433987204485146</v>
       </c>
       <c r="AK132" t="n">
         <v>1.6094379124341</v>
@@ -22521,7 +22521,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM132" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN132" t="n">
         <v>13.99783294809122</v>
@@ -22536,10 +22536,10 @@
         <v>1</v>
       </c>
       <c r="AR132" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.787491837576069</v>
       </c>
       <c r="AS132" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.6747995071795692</v>
       </c>
     </row>
     <row r="133">
@@ -22599,7 +22599,7 @@
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM133" t="n">
-        <v>9.903537551286171</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN133" t="n">
         <v>14.03865490927816</v>
@@ -22703,10 +22703,10 @@
         <v>1</v>
       </c>
       <c r="AR133" t="n">
-        <v>-1.102911621912203</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS133" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.8806966109965084</v>
       </c>
     </row>
     <row r="134">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -22870,10 +22870,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR134" t="n">
-        <v>0.02050598212586802</v>
+        <v>-0.02887972853946685</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.1947863755248305</v>
+        <v>-0.1456721058785394</v>
       </c>
     </row>
     <row r="135">
@@ -22924,7 +22924,7 @@
         <v>3</v>
       </c>
       <c r="O135" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P135" t="n">
         <v>2.529411764705882</v>
@@ -23037,10 +23037,10 @@
         <v>2</v>
       </c>
       <c r="AR135" t="n">
-        <v>0.1256706914917335</v>
+        <v>0.05577375382254599</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.06043399700761276</v>
+        <v>-0.05886545787460862</v>
       </c>
     </row>
     <row r="136">
@@ -23204,10 +23204,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR136" t="n">
-        <v>0.3666493288442288</v>
+        <v>0.02909678308437015</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.3882133872215264</v>
+        <v>0.1282417561842326</v>
       </c>
     </row>
     <row r="137">
@@ -23371,10 +23371,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR137" t="n">
-        <v>0.3934408010627598</v>
+        <v>0.0462045715413361</v>
       </c>
       <c r="AS137" t="n">
-        <v>-0.1226494635313448</v>
+        <v>0.0757239587224825</v>
       </c>
     </row>
     <row r="138">
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -23538,10 +23538,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR138" t="n">
-        <v>-0.005488984785324199</v>
+        <v>0.2434101048639687</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.2210777603165142</v>
+        <v>0.3897078934029219</v>
       </c>
     </row>
     <row r="139">
@@ -23705,10 +23705,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR139" t="n">
-        <v>-0.006811783100881983</v>
+        <v>0.2449003057174</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.1825840802389296</v>
+        <v>0.2735306762440345</v>
       </c>
     </row>
     <row r="140">
@@ -23872,10 +23872,10 @@
         <v>1</v>
       </c>
       <c r="AR140" t="n">
-        <v>0.2994939130920876</v>
+        <v>0.1788449667968754</v>
       </c>
       <c r="AS140" t="n">
-        <v>-0.9881079003614076</v>
+        <v>-0.865382413784186</v>
       </c>
     </row>
     <row r="141">
@@ -24039,10 +24039,10 @@
         <v>1</v>
       </c>
       <c r="AR141" t="n">
-        <v>0.2994939130920876</v>
+        <v>0.1788449667968754</v>
       </c>
       <c r="AS141" t="n">
-        <v>-0.5716481516681789</v>
+        <v>-0.5841963311692824</v>
       </c>
     </row>
     <row r="142">
@@ -24206,10 +24206,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR142" t="n">
-        <v>1.025823431465835</v>
+        <v>1.113691881065337</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.1055606943127869</v>
+        <v>0.1351016109696195</v>
       </c>
     </row>
     <row r="143">
@@ -24373,10 +24373,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR143" t="n">
-        <v>-0.01210983806958438</v>
+        <v>0.3873728325670264</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.089965963038587</v>
+        <v>0.533836771791016</v>
       </c>
     </row>
     <row r="144">
@@ -24387,7 +24387,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -24430,13 +24430,13 @@
         <v>54</v>
       </c>
       <c r="P144" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="Q144" t="n">
         <v>0.5</v>
       </c>
       <c r="R144" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -24540,10 +24540,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR144" t="n">
-        <v>-0.01878699437893509</v>
+        <v>0.3936690795932528</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.136144008800468</v>
+        <v>0.7245322216098239</v>
       </c>
     </row>
     <row r="145">
@@ -24597,13 +24597,13 @@
         <v>53</v>
       </c>
       <c r="P145" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q145" t="n">
         <v>0.75</v>
       </c>
       <c r="R145" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -24673,9 +24673,7 @@
       <c r="AF145" s="3" t="n">
         <v>43464.30665509259</v>
       </c>
-      <c r="AG145" t="n">
-        <v>4.23245935673567</v>
-      </c>
+      <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="n">
         <v>0</v>
       </c>
@@ -24695,7 +24693,7 @@
         <v>13.12236537740233</v>
       </c>
       <c r="AN145" t="n">
-        <v>14.31628645193719</v>
+        <v>14.5086582385241</v>
       </c>
       <c r="AO145" t="n">
         <v>2</v>
@@ -24707,10 +24705,10 @@
         <v>2</v>
       </c>
       <c r="AR145" t="n">
-        <v>0.9962104149131223</v>
+        <v>1.603207832954446</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.7238604240119929</v>
+        <v>0.1665200216746485</v>
       </c>
     </row>
     <row r="146">
@@ -24847,10 +24845,10 @@
         <v>0</v>
       </c>
       <c r="AI146" t="n">
-        <v>1.386294361119891</v>
+        <v>1.6094379124341</v>
       </c>
       <c r="AJ146" t="n">
-        <v>6.398594934535208</v>
+        <v>6.68586094706836</v>
       </c>
       <c r="AK146" t="n">
         <v>2.19722457733622</v>
@@ -24874,10 +24872,10 @@
         <v>2</v>
       </c>
       <c r="AR146" t="n">
-        <v>1.012258325806236</v>
+        <v>1.73275590091929</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.136144008800468</v>
+        <v>1.001802581135458</v>
       </c>
     </row>
     <row r="147">
@@ -25041,10 +25039,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR147" t="n">
-        <v>0.196860713835825</v>
+        <v>-0.1843846460872245</v>
       </c>
       <c r="AS147" t="n">
-        <v>-0.6299736348758455</v>
+        <v>-0.4008976993644023</v>
       </c>
     </row>
     <row r="148">
@@ -25202,16 +25200,16 @@
         <v>0</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.870157652698332</v>
+        <v>2.873488247396438</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR148" t="n">
-        <v>0.3682275953750167</v>
+        <v>0.02762085877881845</v>
       </c>
       <c r="AS148" t="n">
-        <v>-0.38524292632895</v>
+        <v>-0.1532731813046092</v>
       </c>
     </row>
     <row r="149">
@@ -25375,10 +25373,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR149" t="n">
-        <v>0.01578160051440168</v>
+        <v>0.160764740838055</v>
       </c>
       <c r="AS149" t="n">
-        <v>-0.9098146261261864</v>
+        <v>-0.7781620193612891</v>
       </c>
     </row>
     <row r="150">
@@ -25518,7 +25516,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ150" t="n">
-        <v>6.398594934535208</v>
+        <v>6.478509642208569</v>
       </c>
       <c r="AK150" t="n">
         <v>1.791759469228055</v>
@@ -25542,10 +25540,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR150" t="n">
-        <v>0.5806768287984421</v>
+        <v>0.3125398107840949</v>
       </c>
       <c r="AS150" t="n">
-        <v>-0.3544587502817296</v>
+        <v>-0.7450770185418848</v>
       </c>
     </row>
     <row r="151">
@@ -25556,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -25587,7 +25585,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M151" t="n">
         <v>2</v>
@@ -25596,7 +25594,7 @@
         <v>2</v>
       </c>
       <c r="O151" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P151" t="n">
         <v>1.130434782608696</v>
@@ -25694,7 +25692,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM151" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN151" t="n">
         <v>14.22097633273888</v>
@@ -25709,10 +25707,10 @@
         <v>1</v>
       </c>
       <c r="AR151" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS151" t="n">
-        <v>-0.9460055359306223</v>
+        <v>-0.3070851265210163</v>
       </c>
     </row>
     <row r="152">
@@ -25772,7 +25770,7 @@
         <v>0</v>
       </c>
       <c r="R152" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -25852,7 +25850,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ152" t="n">
-        <v>3.931825632724326</v>
+        <v>3.433987204485146</v>
       </c>
       <c r="AK152" t="n">
         <v>1.6094379124341</v>
@@ -25861,7 +25859,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM152" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN152" t="n">
         <v>13.99783294809122</v>
@@ -25876,10 +25874,10 @@
         <v>1</v>
       </c>
       <c r="AR152" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.787491837576069</v>
       </c>
       <c r="AS152" t="n">
-        <v>-0.9546954154905245</v>
+        <v>-0.4613554113495854</v>
       </c>
     </row>
     <row r="153">
@@ -26019,7 +26017,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ153" t="n">
-        <v>3.931825632724326</v>
+        <v>3.713572066704308</v>
       </c>
       <c r="AK153" t="n">
         <v>1.791759469228055</v>
@@ -26028,7 +26026,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM153" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN153" t="n">
         <v>14.15198350887095</v>
@@ -26043,10 +26041,10 @@
         <v>1</v>
       </c>
       <c r="AR153" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.78023122056588</v>
       </c>
       <c r="AS153" t="n">
-        <v>-0.9226966461356356</v>
+        <v>-0.4440523240254107</v>
       </c>
     </row>
     <row r="154">
@@ -26195,7 +26193,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM154" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN154" t="n">
         <v>14.03865490927816</v>
@@ -26210,10 +26208,10 @@
         <v>1</v>
       </c>
       <c r="AR154" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS154" t="n">
-        <v>-0.9117793071998089</v>
+        <v>-0.3031664225367527</v>
       </c>
     </row>
     <row r="155">
@@ -26362,7 +26360,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM155" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN155" t="n">
         <v>14.22097633273888</v>
@@ -26377,10 +26375,10 @@
         <v>1</v>
       </c>
       <c r="AR155" t="n">
-        <v>-2.952279807941121</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS155" t="n">
-        <v>-0.06035644203167396</v>
+        <v>0.02694355192930847</v>
       </c>
     </row>
     <row r="156">
@@ -26520,7 +26518,7 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="AJ156" t="n">
-        <v>6.398594934535208</v>
+        <v>6.68586094706836</v>
       </c>
       <c r="AK156" t="n">
         <v>1.945910149055313</v>
@@ -26529,7 +26527,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM156" t="n">
-        <v>3.503809570245734</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN156" t="n">
         <v>13.52782981884494</v>
@@ -26544,10 +26542,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR156" t="n">
-        <v>-2.952279807941121</v>
+        <v>-0.6028692166722001</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.445281846747014</v>
+        <v>-0.1778682522395519</v>
       </c>
     </row>
     <row r="157">
@@ -26687,7 +26685,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AJ157" t="n">
-        <v>6.398594934535208</v>
+        <v>6.55250788703459</v>
       </c>
       <c r="AK157" t="n">
         <v>2.079441541679836</v>
@@ -26696,7 +26694,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AM157" t="n">
-        <v>6.55250788703459</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN157" t="n">
         <v>13.21767537538882</v>
@@ -26711,10 +26709,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR157" t="n">
-        <v>1.025823431465835</v>
+        <v>-0.3208291312509989</v>
       </c>
       <c r="AS157" t="n">
-        <v>-0.8132609611321915</v>
+        <v>-0.6142708209620078</v>
       </c>
     </row>
     <row r="158">
@@ -26768,7 +26766,7 @@
         <v>54</v>
       </c>
       <c r="P158" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="Q158" t="n">
         <v>0.5</v>
@@ -26863,7 +26861,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM158" t="n">
-        <v>10.30898599342208</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN158" t="n">
         <v>13.45883704259595</v>
@@ -26878,10 +26876,10 @@
         <v>1</v>
       </c>
       <c r="AR158" t="n">
-        <v>-0.9941846474685023</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS158" t="n">
-        <v>-0.6601157071816213</v>
+        <v>-0.2774605403715925</v>
       </c>
     </row>
     <row r="159">
@@ -26935,13 +26933,13 @@
         <v>53</v>
       </c>
       <c r="P159" t="n">
-        <v>2.979999999999999</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="Q159" t="n">
         <v>0.25</v>
       </c>
       <c r="R159" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -27030,7 +27028,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM159" t="n">
-        <v>10.30898599342208</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN159" t="n">
         <v>13.99783294809122</v>
@@ -27045,10 +27043,10 @@
         <v>1</v>
       </c>
       <c r="AR159" t="n">
-        <v>-0.9941846474685023</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS159" t="n">
-        <v>-0.8565675109257049</v>
+        <v>-0.5336024927968535</v>
       </c>
     </row>
     <row r="160">
@@ -27108,7 +27106,7 @@
         <v>0</v>
       </c>
       <c r="R160" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -27179,7 +27177,7 @@
         <v>43456.62049768519</v>
       </c>
       <c r="AG160" t="n">
-        <v>4.897839799950911</v>
+        <v>4.962844630259907</v>
       </c>
       <c r="AH160" t="n">
         <v>0</v>
@@ -27197,7 +27195,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM160" t="n">
-        <v>10.30898599342208</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN160" t="n">
         <v>13.81551155796377</v>
@@ -27212,10 +27210,10 @@
         <v>1</v>
       </c>
       <c r="AR160" t="n">
-        <v>-0.9941846474685023</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS160" t="n">
-        <v>-0.9773412223110947</v>
+        <v>-1.16060623860943</v>
       </c>
     </row>
     <row r="161">
@@ -27275,7 +27273,7 @@
         <v>0.25</v>
       </c>
       <c r="R161" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -27364,7 +27362,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="AM161" t="n">
-        <v>10.30898599342208</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN161" t="n">
         <v>14.15198350887095</v>
@@ -27379,10 +27377,10 @@
         <v>1</v>
       </c>
       <c r="AR161" t="n">
-        <v>-0.9941846474685023</v>
+        <v>-1.774563333036485</v>
       </c>
       <c r="AS161" t="n">
-        <v>-0.6289771512434912</v>
+        <v>-0.2746791617193588</v>
       </c>
     </row>
     <row r="162">
@@ -27531,7 +27529,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM162" t="n">
-        <v>10.59665973278358</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN162" t="n">
         <v>13.99783294809122</v>
@@ -27540,16 +27538,16 @@
         <v>0</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.870157652698332</v>
+        <v>2.903460327090944</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR162" t="n">
-        <v>-1.090340893287934</v>
+        <v>-1.585502478424887</v>
       </c>
       <c r="AS162" t="n">
-        <v>-0.3604322554609098</v>
+        <v>-0.3548960602223351</v>
       </c>
     </row>
     <row r="163">
@@ -27698,7 +27696,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="AM163" t="n">
-        <v>10.59665973278358</v>
+        <v>10.70620048060851</v>
       </c>
       <c r="AN163" t="n">
         <v>14.07787559166224</v>
@@ -27707,16 +27705,16 @@
         <v>0</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3492245082422</v>
       </c>
       <c r="AQ163" t="n">
         <v>1</v>
       </c>
       <c r="AR163" t="n">
-        <v>-0.9775626147275808</v>
+        <v>-1.718219118345741</v>
       </c>
       <c r="AS163" t="n">
-        <v>-1.067611178260432</v>
+        <v>-1.487818799604163</v>
       </c>
     </row>
     <row r="164">
@@ -27727,7 +27725,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -27746,7 +27744,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0.677</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -27776,7 +27774,7 @@
         <v>0.25</v>
       </c>
       <c r="R164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -27853,7 +27851,7 @@
         <v>0</v>
       </c>
       <c r="AI164" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ164" t="n">
         <v>3.931825632724326</v>
@@ -27862,7 +27860,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL164" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM164" t="n">
         <v>10.81979828421029</v>
@@ -27877,13 +27875,13 @@
         <v>0.6182167368846151</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1</v>
+        <v>0.9374576945794221</v>
       </c>
       <c r="AR164" t="n">
-        <v>-0.09056796595785398</v>
+        <v>-0.7950097875047287</v>
       </c>
       <c r="AS164" t="n">
-        <v>-0.6082876412011302</v>
+        <v>-0.7517976720687217</v>
       </c>
     </row>
     <row r="165">
@@ -28014,7 +28012,7 @@
         <v>43415.5949537037</v>
       </c>
       <c r="AG165" t="n">
-        <v>4.897839799950911</v>
+        <v>4.912654885736052</v>
       </c>
       <c r="AH165" t="n">
         <v>0</v>
@@ -28029,7 +28027,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL165" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM165" t="n">
         <v>10.81979828421029</v>
@@ -28047,10 +28045,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR165" t="n">
-        <v>-1.009801877370067</v>
+        <v>-1.516968476606871</v>
       </c>
       <c r="AS165" t="n">
-        <v>-0.6680941279031176</v>
+        <v>-0.1788600613480222</v>
       </c>
     </row>
     <row r="166">
@@ -28214,10 +28212,10 @@
         <v>1</v>
       </c>
       <c r="AR166" t="n">
-        <v>-0.8700498671963965</v>
+        <v>-1.696870875966713</v>
       </c>
       <c r="AS166" t="n">
-        <v>-0.4837602366751277</v>
+        <v>-0.1162454316953552</v>
       </c>
     </row>
     <row r="167">
@@ -28363,7 +28361,7 @@
         <v>1.6094379124341</v>
       </c>
       <c r="AL167" t="n">
-        <v>2.564949357461537</v>
+        <v>2.833213344056216</v>
       </c>
       <c r="AM167" t="n">
         <v>10.81979828421029</v>
@@ -28381,10 +28379,10 @@
         <v>1</v>
       </c>
       <c r="AR167" t="n">
-        <v>-0.8700498671963965</v>
+        <v>-1.696870875966713</v>
       </c>
       <c r="AS167" t="n">
-        <v>-0.5722893294514698</v>
+        <v>-0.2601897737223252</v>
       </c>
     </row>
     <row r="168">
@@ -28548,10 +28546,10 @@
         <v>1</v>
       </c>
       <c r="AR168" t="n">
-        <v>-0.8700498671963965</v>
+        <v>-1.696870875966713</v>
       </c>
       <c r="AS168" t="n">
-        <v>-0.5512608680120681</v>
+        <v>-0.1536447419626769</v>
       </c>
     </row>
     <row r="169">
@@ -28682,7 +28680,7 @@
         <v>43471.29651620371</v>
       </c>
       <c r="AG169" t="n">
-        <v>4.897839799950911</v>
+        <v>4.990432586778736</v>
       </c>
       <c r="AH169" t="n">
         <v>0</v>
@@ -28709,16 +28707,16 @@
         <v>0</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.2642239626179715</v>
       </c>
       <c r="AQ169" t="n">
         <v>1</v>
       </c>
       <c r="AR169" t="n">
-        <v>-0.8572028043678693</v>
+        <v>-1.708884874815252</v>
       </c>
       <c r="AS169" t="n">
-        <v>-0.196634571728539</v>
+        <v>-0.07272670601554795</v>
       </c>
     </row>
     <row r="170">
@@ -28882,10 +28880,10 @@
         <v>1</v>
       </c>
       <c r="AR170" t="n">
-        <v>-0.7798214110379182</v>
+        <v>-1.502337163730886</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.1794418379216196</v>
+        <v>0.5424549293589488</v>
       </c>
     </row>
     <row r="171">
@@ -29031,7 +29029,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL171" t="n">
-        <v>2.564949357461537</v>
+        <v>2.70805020110221</v>
       </c>
       <c r="AM171" t="n">
         <v>11.28979441357789</v>
@@ -29049,10 +29047,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR171" t="n">
-        <v>0.1172816829687136</v>
+        <v>-0.7321560809009864</v>
       </c>
       <c r="AS171" t="n">
-        <v>-0.6508476056450883</v>
+        <v>-0.4285078057604983</v>
       </c>
     </row>
     <row r="172">
@@ -29106,7 +29104,7 @@
         <v>54</v>
       </c>
       <c r="P172" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="Q172" t="n">
         <v>0.25</v>
@@ -29210,16 +29208,16 @@
         <v>2</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.870157652698332</v>
+        <v>2.911284355548572</v>
       </c>
       <c r="AQ172" t="n">
         <v>1</v>
       </c>
       <c r="AR172" t="n">
-        <v>-0.7440134792473201</v>
+        <v>-1.425134802133592</v>
       </c>
       <c r="AS172" t="n">
-        <v>-0.1909663199310517</v>
+        <v>-0.1289490813878615</v>
       </c>
     </row>
     <row r="173">
@@ -29383,10 +29381,10 @@
         <v>1</v>
       </c>
       <c r="AR173" t="n">
-        <v>0.03405195441304644</v>
+        <v>-0.5174438020694218</v>
       </c>
       <c r="AS173" t="n">
-        <v>-0.2912816402692075</v>
+        <v>-0.4279066351191622</v>
       </c>
     </row>
     <row r="174">
@@ -29446,7 +29444,7 @@
         <v>0.5</v>
       </c>
       <c r="R174" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -29550,10 +29548,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR174" t="n">
-        <v>-0.05549914615168519</v>
+        <v>-0.3681911918255253</v>
       </c>
       <c r="AS174" t="n">
-        <v>0.2411721765775362</v>
+        <v>-0.194119197121902</v>
       </c>
     </row>
     <row r="175">
@@ -29717,10 +29715,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR175" t="n">
-        <v>-0.05549914615168519</v>
+        <v>-0.3681911918255253</v>
       </c>
       <c r="AS175" t="n">
-        <v>-0.2333267093483463</v>
+        <v>-0.4734598544228161</v>
       </c>
     </row>
     <row r="176">
@@ -29866,7 +29864,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="AL176" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM176" t="n">
         <v>11.51293546492023</v>
@@ -29884,10 +29882,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR176" t="n">
-        <v>0.1118311958567964</v>
+        <v>-0.5584419782305399</v>
       </c>
       <c r="AS176" t="n">
-        <v>-0.0614772241495708</v>
+        <v>0.1907670695266213</v>
       </c>
     </row>
     <row r="177">
@@ -30051,10 +30049,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR177" t="n">
-        <v>0.05593780429013966</v>
+        <v>-0.2795739704729474</v>
       </c>
       <c r="AS177" t="n">
-        <v>-0.1002715260428183</v>
+        <v>-0.1062608834711895</v>
       </c>
     </row>
     <row r="178">
@@ -30212,16 +30210,16 @@
         <v>0</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3757008796881073</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR178" t="n">
-        <v>0.04401609485766776</v>
+        <v>-0.2684253207538616</v>
       </c>
       <c r="AS178" t="n">
-        <v>-0.1489759279059603</v>
+        <v>0.118688433220652</v>
       </c>
     </row>
     <row r="179">
@@ -30352,7 +30350,7 @@
         <v>43472.57777777778</v>
       </c>
       <c r="AG179" t="n">
-        <v>4.23245935673567</v>
+        <v>4.089044363603774</v>
       </c>
       <c r="AH179" t="n">
         <v>0</v>
@@ -30385,10 +30383,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR179" t="n">
-        <v>0.0509828709419121</v>
+        <v>-0.274940338308558</v>
       </c>
       <c r="AS179" t="n">
-        <v>-0.3090927711526315</v>
+        <v>-0.2155442056123134</v>
       </c>
     </row>
     <row r="180">
@@ -30552,10 +30550,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR180" t="n">
-        <v>-0.730390103791327</v>
+        <v>-1.179538273820047</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.1642992800787002</v>
+        <v>-0.07692272882762426</v>
       </c>
     </row>
     <row r="181">
@@ -30707,22 +30705,22 @@
         <v>11.69525535506279</v>
       </c>
       <c r="AN181" t="n">
-        <v>14.31628645193719</v>
+        <v>14.5086582385241</v>
       </c>
       <c r="AO181" t="n">
         <v>2</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.870157652698332</v>
+        <v>3.708595688217547</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR181" t="n">
-        <v>0.1500187281752451</v>
+        <v>-0.2097487310997355</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.203452821055609</v>
+        <v>-0.2306074576945706</v>
       </c>
     </row>
     <row r="182">
@@ -30874,7 +30872,7 @@
         <v>11.69525535506279</v>
       </c>
       <c r="AN182" t="n">
-        <v>12.76569129060437</v>
+        <v>12.38839836898211</v>
       </c>
       <c r="AO182" t="n">
         <v>2</v>
@@ -30886,10 +30884,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR182" t="n">
-        <v>0.1438679669079763</v>
+        <v>-0.2039968141231547</v>
       </c>
       <c r="AS182" t="n">
-        <v>-0.01831143559581388</v>
+        <v>-0.2216256187308381</v>
       </c>
     </row>
     <row r="183">
@@ -31041,22 +31039,22 @@
         <v>11.69525535506279</v>
       </c>
       <c r="AN183" t="n">
-        <v>12.76569129060437</v>
+        <v>12.42922019683638</v>
       </c>
       <c r="AO183" t="n">
         <v>0</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.391770934801162</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.732050807568877</v>
       </c>
       <c r="AR183" t="n">
-        <v>0.09324590935654084</v>
+        <v>-0.4032914030785599</v>
       </c>
       <c r="AS183" t="n">
-        <v>-0.1457577453021032</v>
+        <v>-0.1877915889500996</v>
       </c>
     </row>
     <row r="184">
@@ -31086,7 +31084,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0.677</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -31107,7 +31105,7 @@
         <v>3</v>
       </c>
       <c r="O184" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P184" t="n">
         <v>2.421052631578947</v>
@@ -31193,7 +31191,7 @@
         <v>0</v>
       </c>
       <c r="AI184" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ184" t="n">
         <v>4.61512051684126</v>
@@ -31202,7 +31200,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL184" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM184" t="n">
         <v>11.77529742171583</v>
@@ -31217,13 +31215,13 @@
         <v>2.735134410081278</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1</v>
+        <v>0.9374576945794221</v>
       </c>
       <c r="AR184" t="n">
-        <v>0.1414900218948392</v>
+        <v>-0.222989866416176</v>
       </c>
       <c r="AS184" t="n">
-        <v>-0.6055864793562822</v>
+        <v>-0.835467852529694</v>
       </c>
     </row>
     <row r="185">
@@ -31387,10 +31385,10 @@
         <v>1</v>
       </c>
       <c r="AR185" t="n">
-        <v>0.1693152458075144</v>
+        <v>-0.1800512312356067</v>
       </c>
       <c r="AS185" t="n">
-        <v>-0.0623675330728683</v>
+        <v>0.1291727401953802</v>
       </c>
     </row>
     <row r="186">
@@ -31444,7 +31442,7 @@
         <v>53</v>
       </c>
       <c r="P186" t="n">
-        <v>2.979999999999999</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="Q186" t="n">
         <v>0.5</v>
@@ -31554,10 +31552,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR186" t="n">
-        <v>0.2473292133004324</v>
+        <v>-0.1079203507712621</v>
       </c>
       <c r="AS186" t="n">
-        <v>-0.05032061852057804</v>
+        <v>-0.1624935071730869</v>
       </c>
     </row>
     <row r="187">
@@ -31721,10 +31719,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR187" t="n">
-        <v>0.2416028403518213</v>
+        <v>-0.1025653027786457</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.2568714530885957</v>
+        <v>0.3740036660949898</v>
       </c>
     </row>
     <row r="188">
@@ -31888,10 +31886,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR188" t="n">
-        <v>0.235440658613722</v>
+        <v>-0.09680270588827915</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.001449868033027379</v>
+        <v>0.19878747325385</v>
       </c>
     </row>
     <row r="189">
@@ -32055,10 +32053,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR189" t="n">
-        <v>0.254551550499108</v>
+        <v>-0.1146743576556979</v>
       </c>
       <c r="AS189" t="n">
-        <v>-0.2586616939298368</v>
+        <v>-0.366043316905129</v>
       </c>
     </row>
     <row r="190">
@@ -32118,7 +32116,7 @@
         <v>0.5</v>
       </c>
       <c r="R190" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -32222,10 +32220,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR190" t="n">
-        <v>0.2248417474968079</v>
+        <v>-0.08714425702262454</v>
       </c>
       <c r="AS190" t="n">
-        <v>-0.06570442214510835</v>
+        <v>0.2541471158707318</v>
       </c>
     </row>
     <row r="191">
@@ -32389,10 +32387,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR191" t="n">
-        <v>0.2318085235810523</v>
+        <v>-0.09365927457732098</v>
       </c>
       <c r="AS191" t="n">
-        <v>0.2315703238471882</v>
+        <v>0.4032469950159267</v>
       </c>
     </row>
     <row r="192">
@@ -32556,10 +32554,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR192" t="n">
-        <v>0.2349478257273684</v>
+        <v>-0.09659500960675599</v>
       </c>
       <c r="AS192" t="n">
-        <v>-0.5411087524052508</v>
+        <v>-0.5892628326330381</v>
       </c>
     </row>
     <row r="193">
@@ -32723,10 +32721,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR193" t="n">
-        <v>0.2992028123279042</v>
+        <v>-0.0482707564467747</v>
       </c>
       <c r="AS193" t="n">
-        <v>-0.2771191496928284</v>
+        <v>-0.7258121861347856</v>
       </c>
     </row>
     <row r="194">
@@ -32777,7 +32775,7 @@
         <v>3</v>
       </c>
       <c r="O194" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P194" t="n">
         <v>2</v>
@@ -32878,22 +32876,22 @@
         <v>12.10071768541247</v>
       </c>
       <c r="AN194" t="n">
-        <v>12.76569129060437</v>
+        <v>12.67607939977103</v>
       </c>
       <c r="AO194" t="n">
         <v>2</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3573225425015104</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR194" t="n">
-        <v>0.3308446285742664</v>
+        <v>-0.02846741898463185</v>
       </c>
       <c r="AS194" t="n">
-        <v>-0.4935765808970839</v>
+        <v>-0.7933877878607023</v>
       </c>
     </row>
     <row r="195">
@@ -32944,7 +32942,7 @@
         <v>3</v>
       </c>
       <c r="O195" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P195" t="n">
         <v>1.772727272727273</v>
@@ -33057,10 +33055,10 @@
         <v>1</v>
       </c>
       <c r="AR195" t="n">
-        <v>0.2255253217191823</v>
+        <v>-0.02429253855908066</v>
       </c>
       <c r="AS195" t="n">
-        <v>-0.6776236451483543</v>
+        <v>-0.4127156113593828</v>
       </c>
     </row>
     <row r="196">
@@ -33071,7 +33069,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -33224,10 +33222,10 @@
         <v>1</v>
       </c>
       <c r="AR196" t="n">
-        <v>0.2287769869915009</v>
+        <v>-0.02733335056092791</v>
       </c>
       <c r="AS196" t="n">
-        <v>-0.616659243486255</v>
+        <v>-0.59215596335448</v>
       </c>
     </row>
     <row r="197">
@@ -33391,10 +33389,10 @@
         <v>1</v>
       </c>
       <c r="AR197" t="n">
-        <v>0.2164457507695167</v>
+        <v>-0.01580172969557185</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.6449140316275286</v>
+        <v>0.6047050384503289</v>
       </c>
     </row>
     <row r="198">
@@ -33558,10 +33556,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR198" t="n">
-        <v>0.3180737446804169</v>
+        <v>-0.01677783827277678</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.09543165980648416</v>
+        <v>0.02011118141935847</v>
       </c>
     </row>
     <row r="199">
@@ -33612,10 +33610,10 @@
         <v>3</v>
       </c>
       <c r="O199" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P199" t="n">
-        <v>2.979999999999999</v>
+        <v>3.0625</v>
       </c>
       <c r="Q199" t="n">
         <v>0.25</v>
@@ -33692,13 +33690,13 @@
         <v>43412.3396875</v>
       </c>
       <c r="AG199" t="n">
-        <v>4.23245935673567</v>
+        <v>4.089044363603774</v>
       </c>
       <c r="AH199" t="n">
         <v>0</v>
       </c>
       <c r="AI199" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ199" t="n">
         <v>5.017279836814924</v>
@@ -33707,7 +33705,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL199" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM199" t="n">
         <v>12.20607764551767</v>
@@ -33725,10 +33723,10 @@
         <v>1.425131572873186</v>
       </c>
       <c r="AR199" t="n">
-        <v>0.3789293135855051</v>
+        <v>0.02711006751554271</v>
       </c>
       <c r="AS199" t="n">
-        <v>-0.2244784882701139</v>
+        <v>-0.4187515125709011</v>
       </c>
     </row>
     <row r="200">
@@ -33859,13 +33857,13 @@
         <v>43414.68344907407</v>
       </c>
       <c r="AG200" t="n">
-        <v>4.897839799950911</v>
+        <v>5.124490899268929</v>
       </c>
       <c r="AH200" t="n">
         <v>0</v>
       </c>
       <c r="AI200" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ200" t="n">
         <v>4.61512051684126</v>
@@ -33874,7 +33872,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="AL200" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM200" t="n">
         <v>12.20607764551767</v>
@@ -33892,10 +33890,10 @@
         <v>1.163615056623108</v>
       </c>
       <c r="AR200" t="n">
-        <v>0.2778970710793907</v>
+        <v>0.02929513669389905</v>
       </c>
       <c r="AS200" t="n">
-        <v>-1.067611178260432</v>
+        <v>-1.401772839748683</v>
       </c>
     </row>
     <row r="201">
@@ -33906,7 +33904,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -33925,7 +33923,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0.677</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -33946,7 +33944,7 @@
         <v>4</v>
       </c>
       <c r="O201" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P201" t="n">
         <v>1.391304347826087</v>
@@ -34032,7 +34030,7 @@
         <v>0</v>
       </c>
       <c r="AI201" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ201" t="n">
         <v>4.61512051684126</v>
@@ -34041,7 +34039,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="AL201" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM201" t="n">
         <v>12.20607764551767</v>
@@ -34056,13 +34054,13 @@
         <v>1.877597760018266</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1</v>
+        <v>0.9374576945794221</v>
       </c>
       <c r="AR201" t="n">
-        <v>1.0245327994572</v>
+        <v>0.9422598509841376</v>
       </c>
       <c r="AS201" t="n">
-        <v>0.7179311493877352</v>
+        <v>0.7750600564850159</v>
       </c>
     </row>
     <row r="202">
@@ -34226,10 +34224,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR202" t="n">
-        <v>0.02387779616478491</v>
+        <v>0.04758259887996269</v>
       </c>
       <c r="AS202" t="n">
-        <v>-0.3212841557892219</v>
+        <v>-0.272158737761356</v>
       </c>
     </row>
     <row r="203">
@@ -34393,10 +34391,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR203" t="n">
-        <v>0.3699009941165474</v>
+        <v>0.02605597108252289</v>
       </c>
       <c r="AS203" t="n">
-        <v>-0.8782501232427828</v>
+        <v>-0.3912923066427539</v>
       </c>
     </row>
     <row r="204">
@@ -34560,10 +34558,10 @@
         <v>1</v>
       </c>
       <c r="AR204" t="n">
-        <v>0.2889546332171312</v>
+        <v>0.003728531849174085</v>
       </c>
       <c r="AS204" t="n">
-        <v>-0.004261256355426554</v>
+        <v>0.3961988851360236</v>
       </c>
     </row>
     <row r="205">
@@ -34709,7 +34707,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL205" t="n">
-        <v>2.564949357461537</v>
+        <v>2.639057329615258</v>
       </c>
       <c r="AM205" t="n">
         <v>12.20607764551767</v>
@@ -34727,10 +34725,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR205" t="n">
-        <v>0.3689099750440866</v>
+        <v>0.02672954881462639</v>
       </c>
       <c r="AS205" t="n">
-        <v>-0.8181440158868707</v>
+        <v>-0.7940493139670283</v>
       </c>
     </row>
     <row r="206">
@@ -34894,10 +34892,10 @@
         <v>1</v>
       </c>
       <c r="AR206" t="n">
-        <v>0.2458285946019092</v>
+        <v>0.0440580752771747</v>
       </c>
       <c r="AS206" t="n">
-        <v>-0.4048012517681168</v>
+        <v>-0.3945893057497131</v>
       </c>
     </row>
     <row r="207">
@@ -35061,10 +35059,10 @@
         <v>1</v>
       </c>
       <c r="AR207" t="n">
-        <v>0.2570308128772289</v>
+        <v>0.03358226152448318</v>
       </c>
       <c r="AS207" t="n">
-        <v>-0.2369794015484766</v>
+        <v>-0.2964091776245332</v>
       </c>
     </row>
     <row r="208">
@@ -35228,10 +35226,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR208" t="n">
-        <v>0.3564848536590705</v>
+        <v>0.03860214588989305</v>
       </c>
       <c r="AS208" t="n">
-        <v>-0.7433904093879604</v>
+        <v>-0.4877454680998573</v>
       </c>
     </row>
     <row r="209">
@@ -35285,7 +35283,7 @@
         <v>48</v>
       </c>
       <c r="P209" t="n">
-        <v>2.979999999999999</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="Q209" t="n">
         <v>0.25</v>
@@ -35395,10 +35393,10 @@
         <v>1</v>
       </c>
       <c r="AR209" t="n">
-        <v>0.2446995766552448</v>
+        <v>0.04511388238983921</v>
       </c>
       <c r="AS209" t="n">
-        <v>-0.7895761009406992</v>
+        <v>-0.9975164974831289</v>
       </c>
     </row>
     <row r="210">
@@ -35544,7 +35542,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL210" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM210" t="n">
         <v>12.20607764551767</v>
@@ -35562,10 +35560,10 @@
         <v>1</v>
       </c>
       <c r="AR210" t="n">
-        <v>0.2415642937469176</v>
+        <v>0.04804585880758083</v>
       </c>
       <c r="AS210" t="n">
-        <v>0.4008851633820281</v>
+        <v>0.4129738602863018</v>
       </c>
     </row>
     <row r="211">
@@ -35729,10 +35727,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR211" t="n">
-        <v>0.3601066773457784</v>
+        <v>0.03496199928384755</v>
       </c>
       <c r="AS211" t="n">
-        <v>-0.2419823868846231</v>
+        <v>-0.305388803437329</v>
       </c>
     </row>
     <row r="212">
@@ -35896,10 +35894,10 @@
         <v>1</v>
       </c>
       <c r="AR212" t="n">
-        <v>0.2446995766552448</v>
+        <v>0.04511388238983921</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.1725985709077756</v>
+        <v>0.312515329600077</v>
       </c>
     </row>
     <row r="213">
@@ -36063,10 +36061,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR213" t="n">
-        <v>0.3689099750440866</v>
+        <v>0.02672954881462639</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.1984899173263018</v>
+        <v>-0.2336374785939138</v>
       </c>
     </row>
     <row r="214">
@@ -36077,7 +36075,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -36108,7 +36106,7 @@
         <v>1</v>
       </c>
       <c r="L214" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M214" t="n">
         <v>4</v>
@@ -36224,16 +36222,16 @@
         <v>0</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.870157652698332</v>
+        <v>2.875200312436719</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR214" t="n">
-        <v>0.4160902499162026</v>
+        <v>0.06522405744426094</v>
       </c>
       <c r="AS214" t="n">
-        <v>-0.9512322846297655</v>
+        <v>-0.8009415590554849</v>
       </c>
     </row>
     <row r="215">
@@ -36397,10 +36395,10 @@
         <v>1</v>
       </c>
       <c r="AR215" t="n">
-        <v>0.2764273384512161</v>
+        <v>0.09444976018371327</v>
       </c>
       <c r="AS215" t="n">
-        <v>-0.06881941233952038</v>
+        <v>-0.2521001011115651</v>
       </c>
     </row>
     <row r="216">
@@ -36564,10 +36562,10 @@
         <v>1</v>
       </c>
       <c r="AR216" t="n">
-        <v>0.2962906015707891</v>
+        <v>0.1127223066806712</v>
       </c>
       <c r="AS216" t="n">
-        <v>-0.4305260524382781</v>
+        <v>-0.4447971735416811</v>
       </c>
     </row>
     <row r="217">
@@ -36731,10 +36729,10 @@
         <v>1</v>
       </c>
       <c r="AR217" t="n">
-        <v>0.2728664153125214</v>
+        <v>0.1346275585262453</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.1460294083537995</v>
+        <v>0.314375400034052</v>
       </c>
     </row>
     <row r="218">
@@ -36898,10 +36896,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR218" t="n">
-        <v>0.4411860591931276</v>
+        <v>0.1169464196741565</v>
       </c>
       <c r="AS218" t="n">
-        <v>-0.1093139764132511</v>
+        <v>-0.2829104469973771</v>
       </c>
     </row>
     <row r="219">
@@ -37065,10 +37063,10 @@
         <v>1</v>
       </c>
       <c r="AR219" t="n">
-        <v>-0.4901268441523015</v>
+        <v>-0.751878950835317</v>
       </c>
       <c r="AS219" t="n">
-        <v>-0.2134371684200341</v>
+        <v>0.004180399011549617</v>
       </c>
     </row>
     <row r="220">
@@ -37226,16 +37224,16 @@
         <v>2</v>
       </c>
       <c r="AP220" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.2822570837746805</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
       </c>
       <c r="AR220" t="n">
-        <v>0.3096063407967172</v>
+        <v>0.1355493368480698</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.48454819759905</v>
+        <v>0.8151744547162632</v>
       </c>
     </row>
     <row r="221">
@@ -37365,9 +37363,7 @@
       <c r="AF221" s="3" t="n">
         <v>43428.29141203704</v>
       </c>
-      <c r="AG221" t="n">
-        <v>4.23245935673567</v>
-      </c>
+      <c r="AG221" t="inlineStr"/>
       <c r="AH221" t="n">
         <v>0</v>
       </c>
@@ -37399,10 +37395,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR221" t="n">
-        <v>0.4773484045485712</v>
+        <v>0.1184053281153899</v>
       </c>
       <c r="AS221" t="n">
-        <v>0.09160535281045828</v>
+        <v>0.3017841136958765</v>
       </c>
     </row>
     <row r="222">
@@ -37566,10 +37562,10 @@
         <v>1</v>
       </c>
       <c r="AR222" t="n">
-        <v>0.3107075945020688</v>
+        <v>0.1683584332330907</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.4298401033019004</v>
+        <v>0.6130950060542663</v>
       </c>
     </row>
     <row r="223">
@@ -37620,10 +37616,10 @@
         <v>3</v>
       </c>
       <c r="O223" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P223" t="n">
-        <v>2.979999999999999</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="Q223" t="n">
         <v>0.75</v>
@@ -37733,10 +37729,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR223" t="n">
-        <v>0.4520410409291828</v>
+        <v>0.142071643244461</v>
       </c>
       <c r="AS223" t="n">
-        <v>-0.2870460560175908</v>
+        <v>0.2380870762741425</v>
       </c>
     </row>
     <row r="224">
@@ -37882,7 +37878,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL224" t="n">
-        <v>2.564949357461537</v>
+        <v>2.70805020110221</v>
       </c>
       <c r="AM224" t="n">
         <v>12.42922019683638</v>
@@ -37900,10 +37896,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR224" t="n">
-        <v>0.463254722339164</v>
+        <v>0.1315851096806763</v>
       </c>
       <c r="AS224" t="n">
-        <v>0.1252330858343831</v>
+        <v>-0.2040216481850709</v>
       </c>
     </row>
     <row r="225">
@@ -38067,10 +38063,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR225" t="n">
-        <v>0.4582146858019435</v>
+        <v>0.1362983265430013</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.2852614292344238</v>
+        <v>0.6323909778614072</v>
       </c>
     </row>
     <row r="226">
@@ -38228,16 +38224,16 @@
         <v>0</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.870157652698332</v>
+        <v>2.907939548846266</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR226" t="n">
-        <v>0.4715728117295637</v>
+        <v>0.1235532253280617</v>
       </c>
       <c r="AS226" t="n">
-        <v>-0.3239791107362882</v>
+        <v>-0.5009330289341868</v>
       </c>
     </row>
     <row r="227">
@@ -38248,7 +38244,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -38383,7 +38379,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL227" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM227" t="n">
         <v>12.42922019683638</v>
@@ -38401,10 +38397,10 @@
         <v>1</v>
       </c>
       <c r="AR227" t="n">
-        <v>0.2952263291859395</v>
+        <v>0.1828358204899593</v>
       </c>
       <c r="AS227" t="n">
-        <v>-0.07400331661552143</v>
+        <v>0.2542390979104572</v>
       </c>
     </row>
     <row r="228">
@@ -38568,10 +38564,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR228" t="n">
-        <v>0.4645775206547218</v>
+        <v>0.1300949088272451</v>
       </c>
       <c r="AS228" t="n">
-        <v>0.7994877280248371</v>
+        <v>0.3572400101486909</v>
       </c>
     </row>
     <row r="229">
@@ -38735,10 +38731,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR229" t="n">
-        <v>0.001506306289517659</v>
+        <v>0.2368684213647855</v>
       </c>
       <c r="AS229" t="n">
-        <v>-1.067611178260432</v>
+        <v>-1.378782739899656</v>
       </c>
     </row>
     <row r="230">
@@ -38749,7 +38745,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -38884,7 +38880,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL230" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM230" t="n">
         <v>12.42922019683638</v>
@@ -38902,10 +38898,10 @@
         <v>1</v>
       </c>
       <c r="AR230" t="n">
-        <v>0.3056675579648482</v>
+        <v>0.1730716500954158</v>
       </c>
       <c r="AS230" t="n">
-        <v>-0.3683593771146779</v>
+        <v>-0.2688064426230315</v>
       </c>
     </row>
     <row r="231">
@@ -39069,10 +39065,10 @@
         <v>1</v>
       </c>
       <c r="AR231" t="n">
-        <v>0.3107075945020688</v>
+        <v>0.1683584332330907</v>
       </c>
       <c r="AS231" t="n">
-        <v>0.8161975156789579</v>
+        <v>0.7641843833890754</v>
       </c>
     </row>
     <row r="232">
@@ -39236,10 +39232,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR232" t="n">
-        <v>0.001506306289517659</v>
+        <v>0.2368684213647855</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.0348218897220938</v>
+        <v>0.3738392191825716</v>
       </c>
     </row>
     <row r="233">
@@ -39403,10 +39399,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR233" t="n">
-        <v>0.4684258850048024</v>
+        <v>0.1264960905224132</v>
       </c>
       <c r="AS233" t="n">
-        <v>0.6345149409144661</v>
+        <v>0.4023269060038669</v>
       </c>
     </row>
     <row r="234">
@@ -39466,7 +39462,7 @@
         <v>0.5</v>
       </c>
       <c r="R234" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S234" t="inlineStr">
         <is>
@@ -39537,7 +39533,7 @@
         <v>43473.28554398148</v>
       </c>
       <c r="AG234" t="n">
-        <v>4.23245935673567</v>
+        <v>4.089044363603774</v>
       </c>
       <c r="AH234" t="n">
         <v>0</v>
@@ -39570,10 +39566,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR234" t="n">
-        <v>0.4645775206547218</v>
+        <v>0.1300949088272451</v>
       </c>
       <c r="AS234" t="n">
-        <v>0.4833435176519361</v>
+        <v>0.3403391724018041</v>
       </c>
     </row>
     <row r="235">
@@ -39737,10 +39733,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR235" t="n">
-        <v>0.4645775206547218</v>
+        <v>0.1300949088272451</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.395810026528335</v>
+        <v>0.3571527266334962</v>
       </c>
     </row>
     <row r="236">
@@ -39794,7 +39790,7 @@
         <v>53</v>
       </c>
       <c r="P236" t="n">
-        <v>2.979999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q236" t="n">
         <v>0.75</v>
@@ -39904,10 +39900,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR236" t="n">
-        <v>0.4715728117295637</v>
+        <v>0.1235532253280617</v>
       </c>
       <c r="AS236" t="n">
-        <v>-0.7187104215256254</v>
+        <v>-0.8922799920049029</v>
       </c>
     </row>
     <row r="237">
@@ -39918,7 +39914,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -40053,7 +40049,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL237" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM237" t="n">
         <v>12.46844075614411</v>
@@ -40071,10 +40067,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR237" t="n">
-        <v>0.4757060590322443</v>
+        <v>0.1538337519598631</v>
       </c>
       <c r="AS237" t="n">
-        <v>-0.8462217606834052</v>
+        <v>-0.7179781801948867</v>
       </c>
     </row>
     <row r="238">
@@ -40205,7 +40201,7 @@
         <v>43454.68414351852</v>
       </c>
       <c r="AG238" t="n">
-        <v>4.897839799950911</v>
+        <v>4.969813299576001</v>
       </c>
       <c r="AH238" t="n">
         <v>0</v>
@@ -40238,10 +40234,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR238" t="n">
-        <v>0.5025825648420998</v>
+        <v>0.1927404564565759</v>
       </c>
       <c r="AS238" t="n">
-        <v>0.08289498463073067</v>
+        <v>0.1165967254687161</v>
       </c>
     </row>
     <row r="239">
@@ -40405,10 +40401,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR239" t="n">
-        <v>0.5025825648420998</v>
+        <v>0.1927404564565759</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.09617271486786627</v>
+        <v>0.01152656256473733</v>
       </c>
     </row>
     <row r="240">
@@ -40419,7 +40415,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -40459,7 +40455,7 @@
         <v>3</v>
       </c>
       <c r="O240" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P240" t="n">
         <v>1.863636363636364</v>
@@ -40545,7 +40541,7 @@
         <v>0</v>
       </c>
       <c r="AI240" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ240" t="n">
         <v>4.61512051684126</v>
@@ -40554,7 +40550,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="AL240" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM240" t="n">
         <v>12.61154108696612</v>
@@ -40572,10 +40568,10 @@
         <v>1.425131572873186</v>
       </c>
       <c r="AR240" t="n">
-        <v>0.5720426198235542</v>
+        <v>0.1982969401984804</v>
       </c>
       <c r="AS240" t="n">
-        <v>-0.1287736685121056</v>
+        <v>-0.3095546589637351</v>
       </c>
     </row>
     <row r="241">
@@ -40706,13 +40702,13 @@
         <v>43414.59118055556</v>
       </c>
       <c r="AG241" t="n">
-        <v>4.897839799950911</v>
+        <v>5.124490899268929</v>
       </c>
       <c r="AH241" t="n">
         <v>0</v>
       </c>
       <c r="AI241" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ241" t="n">
         <v>4.61512051684126</v>
@@ -40721,7 +40717,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL241" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM241" t="n">
         <v>12.61154108696612</v>
@@ -40739,10 +40735,10 @@
         <v>1.163615056623108</v>
       </c>
       <c r="AR241" t="n">
-        <v>0.3978874037907281</v>
+        <v>0.2554209799001854</v>
       </c>
       <c r="AS241" t="n">
-        <v>-1.03370402213931</v>
+        <v>-1.070455130073218</v>
       </c>
     </row>
     <row r="242">
@@ -40772,7 +40768,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0.677</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -40793,7 +40789,7 @@
         <v>4</v>
       </c>
       <c r="O242" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P242" t="n">
         <v>1.631578947368421</v>
@@ -40888,13 +40884,13 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL242" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM242" t="n">
         <v>12.61154108696612</v>
       </c>
       <c r="AN242" t="n">
-        <v>14.31628645193719</v>
+        <v>15.63757975172834</v>
       </c>
       <c r="AO242" t="n">
         <v>2</v>
@@ -40903,13 +40899,13 @@
         <v>0.676003306564684</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1</v>
+        <v>0.9374576945794221</v>
       </c>
       <c r="AR242" t="n">
-        <v>0.7225050345983459</v>
+        <v>1.556080344738472</v>
       </c>
       <c r="AS242" t="n">
-        <v>0.3760604115284774</v>
+        <v>0.2503725323876428</v>
       </c>
     </row>
     <row r="243">
@@ -40960,10 +40956,10 @@
         <v>4</v>
       </c>
       <c r="O243" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P243" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="Q243" t="n">
         <v>0.75</v>
@@ -41061,7 +41057,7 @@
         <v>12.61154108696612</v>
       </c>
       <c r="AN243" t="n">
-        <v>14.31628645193719</v>
+        <v>14.40329777842179</v>
       </c>
       <c r="AO243" t="n">
         <v>2</v>
@@ -41073,10 +41069,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR243" t="n">
-        <v>0.7541801897770146</v>
+        <v>1.306075665746355</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.330591865109054</v>
+        <v>0.4642698636022113</v>
       </c>
     </row>
     <row r="244">
@@ -41240,10 +41236,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR244" t="n">
-        <v>-0.02539717153761844</v>
+        <v>0.4000517318384319</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.3088023323263183</v>
+        <v>0.5651866358664728</v>
       </c>
     </row>
     <row r="245">
@@ -41374,7 +41370,7 @@
         <v>43433.30201388889</v>
       </c>
       <c r="AG245" t="n">
-        <v>4.23245935673567</v>
+        <v>4.089044363603774</v>
       </c>
       <c r="AH245" t="n">
         <v>0</v>
@@ -41395,7 +41391,7 @@
         <v>12.61154108696612</v>
       </c>
       <c r="AN245" t="n">
-        <v>14.31628645193719</v>
+        <v>14.40329777842179</v>
       </c>
       <c r="AO245" t="n">
         <v>0</v>
@@ -41407,10 +41403,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR245" t="n">
-        <v>-0.02539717153761844</v>
+        <v>0.4000517318384319</v>
       </c>
       <c r="AS245" t="n">
-        <v>0.01841467245066731</v>
+        <v>0.243179006476956</v>
       </c>
     </row>
     <row r="246">
@@ -41574,10 +41570,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR246" t="n">
-        <v>0.5555454913545921</v>
+        <v>0.2025789279991507</v>
       </c>
       <c r="AS246" t="n">
-        <v>-0.1445828003063337</v>
+        <v>0.3328234834900246</v>
       </c>
     </row>
     <row r="247">
@@ -41631,7 +41627,7 @@
         <v>46</v>
       </c>
       <c r="P247" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q247" t="n">
         <v>0.75</v>
@@ -41741,10 +41737,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR247" t="n">
-        <v>-0.02407437322206065</v>
+        <v>0.3985615309850007</v>
       </c>
       <c r="AS247" t="n">
-        <v>0.3677488586818308</v>
+        <v>0.4461072655146047</v>
       </c>
     </row>
     <row r="248">
@@ -41908,10 +41904,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR248" t="n">
-        <v>0.552883297689696</v>
+        <v>0.2050684925051817</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.011405788958999</v>
+        <v>0.4860689370491668</v>
       </c>
     </row>
     <row r="249">
@@ -41962,7 +41958,7 @@
         <v>3</v>
       </c>
       <c r="O249" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P249" t="n">
         <v>2.578947368421053</v>
@@ -42042,7 +42038,7 @@
         <v>43415.31839120371</v>
       </c>
       <c r="AG249" t="n">
-        <v>4.897839799950911</v>
+        <v>5.124490899268929</v>
       </c>
       <c r="AH249" t="n">
         <v>0</v>
@@ -42057,7 +42053,7 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL249" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM249" t="n">
         <v>12.76569129060437</v>
@@ -42075,10 +42071,10 @@
         <v>2</v>
       </c>
       <c r="AR249" t="n">
-        <v>0.1767043868363914</v>
+        <v>0.4517043623407496</v>
       </c>
       <c r="AS249" t="n">
-        <v>-1.067611178260432</v>
+        <v>-0.9132122408916127</v>
       </c>
     </row>
     <row r="250">
@@ -42242,10 +42238,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR250" t="n">
-        <v>0.5921292266967637</v>
+        <v>0.3018300402318773</v>
       </c>
       <c r="AS250" t="n">
-        <v>0.6221186867913137</v>
+        <v>0.9143235589559384</v>
       </c>
     </row>
     <row r="251">
@@ -42403,16 +42399,16 @@
         <v>2</v>
       </c>
       <c r="AP251" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.2862322474632684</v>
       </c>
       <c r="AQ251" t="n">
         <v>1.414213562373095</v>
       </c>
       <c r="AR251" t="n">
-        <v>0.626599617101162</v>
+        <v>0.2693416930704128</v>
       </c>
       <c r="AS251" t="n">
-        <v>-0.7928003683365784</v>
+        <v>-0.6289555903756285</v>
       </c>
     </row>
     <row r="252">
@@ -42576,10 +42572,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR252" t="n">
-        <v>0.5902605835959907</v>
+        <v>0.3035775117248297</v>
       </c>
       <c r="AS252" t="n">
-        <v>-0.6096672411713255</v>
+        <v>-0.4342732718410837</v>
       </c>
     </row>
     <row r="253">
@@ -42743,10 +42739,10 @@
         <v>1</v>
       </c>
       <c r="AR253" t="n">
-        <v>0.3854560112151357</v>
+        <v>0.3773721757188248</v>
       </c>
       <c r="AS253" t="n">
-        <v>-0.7333895242072344</v>
+        <v>-0.8952533122052495</v>
       </c>
     </row>
     <row r="254">
@@ -42800,7 +42796,7 @@
         <v>47</v>
       </c>
       <c r="P254" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="Q254" t="n">
         <v>0.25</v>
@@ -42892,7 +42888,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL254" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM254" t="n">
         <v>12.76569129060437</v>
@@ -42910,10 +42906,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR254" t="n">
-        <v>0.5908695995934358</v>
+        <v>0.3030079871891669</v>
       </c>
       <c r="AS254" t="n">
-        <v>-0.3997364778784825</v>
+        <v>-0.4394850926597269</v>
       </c>
     </row>
     <row r="255">
@@ -43077,10 +43073,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR255" t="n">
-        <v>-0.03417111128297286</v>
+        <v>0.5866307448508401</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.9421582977595455</v>
+        <v>0.6978875070129558</v>
       </c>
     </row>
     <row r="256">
@@ -43140,7 +43136,7 @@
         <v>0.75</v>
       </c>
       <c r="R256" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
@@ -43244,10 +43240,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR256" t="n">
-        <v>0.7280857888011292</v>
+        <v>1.547917044692124</v>
       </c>
       <c r="AS256" t="n">
-        <v>0.2907766921650615</v>
+        <v>0.5312455225248958</v>
       </c>
     </row>
     <row r="257">
@@ -43411,10 +43407,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR257" t="n">
-        <v>0.7425361533519615</v>
+        <v>0.3780966708954093</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.00474248700035</v>
+        <v>0.376197201112074</v>
       </c>
     </row>
     <row r="258">
@@ -43425,7 +43421,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -43468,7 +43464,7 @@
         <v>50</v>
       </c>
       <c r="P258" t="n">
-        <v>0.8994612068965517</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q258" t="n">
         <v>0.5</v>
@@ -43566,7 +43562,7 @@
         <v>13.01700508396626</v>
       </c>
       <c r="AN258" t="n">
-        <v>14.31628645193719</v>
+        <v>14.40329777842179</v>
       </c>
       <c r="AO258" t="n">
         <v>2</v>
@@ -43578,10 +43574,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR258" t="n">
-        <v>0.7142871008780829</v>
+        <v>1.649823773792572</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.6896160120883158</v>
+        <v>0.9970240631643102</v>
       </c>
     </row>
     <row r="259">
@@ -43739,16 +43735,16 @@
         <v>2</v>
       </c>
       <c r="AP259" t="n">
-        <v>2.870157652698332</v>
+        <v>3.67681972755413</v>
       </c>
       <c r="AQ259" t="n">
         <v>1.732050807568877</v>
       </c>
       <c r="AR259" t="n">
-        <v>0.6777571854317703</v>
+        <v>1.763801776826232</v>
       </c>
       <c r="AS259" t="n">
-        <v>-0.593433559338211</v>
+        <v>-0.02487121334002462</v>
       </c>
     </row>
     <row r="260">
@@ -43894,7 +43890,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL260" t="n">
-        <v>2.564949357461537</v>
+        <v>2.772588722239781</v>
       </c>
       <c r="AM260" t="n">
         <v>13.12236537740233</v>
@@ -43912,10 +43908,10 @@
         <v>1</v>
       </c>
       <c r="AR260" t="n">
-        <v>0.5218236281020633</v>
+        <v>0.5455095121807549</v>
       </c>
       <c r="AS260" t="n">
-        <v>0.5120888844991082</v>
+        <v>0.827782650537404</v>
       </c>
     </row>
     <row r="261">
@@ -44079,10 +44075,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR261" t="n">
-        <v>0.7895241680226522</v>
+        <v>0.4252030253191398</v>
       </c>
       <c r="AS261" t="n">
-        <v>0.4468808209702783</v>
+        <v>0.4173120528924203</v>
       </c>
     </row>
     <row r="262">
@@ -44133,7 +44129,7 @@
         <v>3</v>
       </c>
       <c r="O262" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P262" t="n">
         <v>2.526315789473684</v>
@@ -44246,10 +44242,10 @@
         <v>1.732050807568877</v>
       </c>
       <c r="AR262" t="n">
-        <v>-0.06032516892584261</v>
+        <v>0.818467209379354</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.078915402488529</v>
+        <v>0.7285606182860739</v>
       </c>
     </row>
     <row r="263">
@@ -44260,7 +44256,7 @@
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -44413,10 +44409,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR263" t="n">
-        <v>0.7895241680226522</v>
+        <v>0.4252030253191398</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.136144008800468</v>
+        <v>1.128674167259911</v>
       </c>
     </row>
     <row r="264">
@@ -44574,16 +44570,16 @@
         <v>2</v>
       </c>
       <c r="AP264" t="n">
-        <v>0.3980770808024077</v>
+        <v>0.3768105557894013</v>
       </c>
       <c r="AQ264" t="n">
         <v>1.732050807568877</v>
       </c>
       <c r="AR264" t="n">
-        <v>-0.06906711913994457</v>
+        <v>0.8266943593617851</v>
       </c>
       <c r="AS264" t="n">
-        <v>0.2541318058247788</v>
+        <v>0.6554465538564732</v>
       </c>
     </row>
     <row r="265">
@@ -44747,10 +44743,10 @@
         <v>1.414213562373095</v>
       </c>
       <c r="AR265" t="n">
-        <v>0.8739874722154102</v>
+        <v>0.5037702058766412</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.136144008800468</v>
+        <v>1.63544272669288</v>
       </c>
     </row>
     <row r="266">
@@ -44810,7 +44806,7 @@
         <v>1</v>
       </c>
       <c r="R266" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -44890,7 +44886,7 @@
         <v>1.386294361119891</v>
       </c>
       <c r="AJ266" t="n">
-        <v>6.398594934535208</v>
+        <v>6.90875477931522</v>
       </c>
       <c r="AK266" t="n">
         <v>2.19722457733622</v>
@@ -44899,10 +44895,10 @@
         <v>2.564949357461537</v>
       </c>
       <c r="AM266" t="n">
-        <v>13.30468660086356</v>
+        <v>13.45883704259595</v>
       </c>
       <c r="AN266" t="n">
-        <v>14.31628645193719</v>
+        <v>14.5086582385241</v>
       </c>
       <c r="AO266" t="n">
         <v>2</v>
@@ -44914,10 +44910,10 @@
         <v>2</v>
       </c>
       <c r="AR266" t="n">
-        <v>1.025823431465835</v>
+        <v>1.837816626198993</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.2021665100364722</v>
+        <v>-0.04858963963591101</v>
       </c>
     </row>
     <row r="267">
@@ -45054,7 +45050,7 @@
         <v>0</v>
       </c>
       <c r="AI267" t="n">
-        <v>0.6931471805599453</v>
+        <v>0.5170064828410719</v>
       </c>
       <c r="AJ267" t="n">
         <v>4.61512051684126</v>
@@ -45063,13 +45059,13 @@
         <v>1.945910149055313</v>
       </c>
       <c r="AL267" t="n">
-        <v>0</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM267" t="n">
-        <v>13.30468660086356</v>
+        <v>13.71015115341694</v>
       </c>
       <c r="AN267" t="n">
-        <v>12.76569129060437</v>
+        <v>12.61154108696612</v>
       </c>
       <c r="AO267" t="n">
         <v>2</v>
@@ -45081,10 +45077,10 @@
         <v>1.163615056623108</v>
       </c>
       <c r="AR267" t="n">
-        <v>1.025823431465835</v>
+        <v>1.779225737543521</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.136144008800468</v>
+        <v>0.7631975394244894</v>
       </c>
     </row>
     <row r="268">
@@ -45126,7 +45122,7 @@
         <v>1</v>
       </c>
       <c r="L268" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M268" t="n">
         <v>4</v>
@@ -45215,7 +45211,7 @@
         <v>43418.51855324074</v>
       </c>
       <c r="AG268" t="n">
-        <v>4.23245935673567</v>
+        <v>4.204692619390966</v>
       </c>
       <c r="AH268" t="n">
         <v>0</v>
@@ -45230,10 +45226,10 @@
         <v>1.791759469228055</v>
       </c>
       <c r="AL268" t="n">
-        <v>1.6094379124341</v>
+        <v>1.645637407148244</v>
       </c>
       <c r="AM268" t="n">
-        <v>13.30468660086356</v>
+        <v>13.75474545078068</v>
       </c>
       <c r="AN268" t="n">
         <v>13.99783294809122</v>
@@ -45242,13 +45238,13 @@
         <v>2</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.870157652698332</v>
+        <v>3.638830850829555</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.732050807568877</v>
       </c>
       <c r="AR268" t="n">
-        <v>0.5922122344995924</v>
+        <v>2.298486090569948</v>
       </c>
       <c r="AS268" t="inlineStr"/>
     </row>
